--- a/resources/tmp/results.xlsx
+++ b/resources/tmp/results.xlsx
@@ -9,17 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15283" windowHeight="3711"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11974"/>
   </bookViews>
   <sheets>
-    <sheet name="results" sheetId="1" r:id="rId1"/>
+    <sheet name="results2=mediaite" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>alg</t>
   </si>
@@ -48,49 +48,190 @@
     <t>MRR</t>
   </si>
   <si>
-    <t>BPRMF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ItemAttributeKNN </t>
-  </si>
-  <si>
-    <t>ItemKNN</t>
-  </si>
-  <si>
-    <t>MostPopular</t>
-  </si>
-  <si>
-    <t>Random</t>
-  </si>
-  <si>
-    <t>UserAttributeKNN</t>
-  </si>
-  <si>
-    <t>WRMF</t>
-  </si>
-  <si>
-    <t>Zero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MultiCoreBPRMF </t>
-  </si>
-  <si>
-    <t>SoftMarginRankingMF</t>
-  </si>
-  <si>
-    <t>WeightedBPRMF</t>
-  </si>
-  <si>
-    <t>MostPopularByAttributes</t>
-  </si>
-  <si>
-    <t>BPRSLIM</t>
-  </si>
-  <si>
-    <t>K-markov</t>
-  </si>
-  <si>
-    <t>UserKNN</t>
+    <t>(MyMediaLite) UserKNN(clean_fake=False)</t>
+  </si>
+  <si>
+    <t>(MyMediaLite) BPRMF(clean_fake=False)</t>
+  </si>
+  <si>
+    <t>(MyMediaLite) ItemAttributeKNN (clean_fake=False)</t>
+  </si>
+  <si>
+    <t>(MyMediaLite) ItemKNN(clean_fake=False)</t>
+  </si>
+  <si>
+    <t>(MyMediaLite) MostPopular(clean_fake=False)</t>
+  </si>
+  <si>
+    <t>(MyMediaLite) Random(clean_fake=False)</t>
+  </si>
+  <si>
+    <t>(MyMediaLite) UserAttributeKNN(clean_fake=False)</t>
+  </si>
+  <si>
+    <t>(MyMediaLite) WRMF(clean_fake=False)</t>
+  </si>
+  <si>
+    <t>(MyMediaLite) Zero(clean_fake=False)</t>
+  </si>
+  <si>
+    <t>(MyMediaLite) MultiCoreBPRMF (clean_fake=False)</t>
+  </si>
+  <si>
+    <t>(MyMediaLite) SoftMarginRankingMF(clean_fake=False)</t>
+  </si>
+  <si>
+    <t>(MyMediaLite) WeightedBPRMF(clean_fake=False)</t>
+  </si>
+  <si>
+    <t>(MyMediaLite) MostPopularByAttributes(clean_fake=False)</t>
+  </si>
+  <si>
+    <t>(MyMediaLite) BPRSLIM(clean_fake=False)</t>
+  </si>
+  <si>
+    <t>(MyMediaLite) UserKNN(clean_fake=True)</t>
+  </si>
+  <si>
+    <t>(MyMediaLite) BPRMF(clean_fake=True)</t>
+  </si>
+  <si>
+    <t>(MyMediaLite) ItemAttributeKNN (clean_fake=True)</t>
+  </si>
+  <si>
+    <t>(MyMediaLite) ItemKNN(clean_fake=True)</t>
+  </si>
+  <si>
+    <t>(MyMediaLite) MostPopular(clean_fake=True)</t>
+  </si>
+  <si>
+    <t>(MyMediaLite) Random(clean_fake=True)</t>
+  </si>
+  <si>
+    <t>(MyMediaLite) UserAttributeKNN(clean_fake=True)</t>
+  </si>
+  <si>
+    <t>(MyMediaLite) WRMF(clean_fake=True)</t>
+  </si>
+  <si>
+    <t>(MyMediaLite) Zero(clean_fake=True)</t>
+  </si>
+  <si>
+    <t>(MyMediaLite) MultiCoreBPRMF (clean_fake=True)</t>
+  </si>
+  <si>
+    <t>(MyMediaLite) SoftMarginRankingMF(clean_fake=True)</t>
+  </si>
+  <si>
+    <t>(MyMediaLite) WeightedBPRMF(clean_fake=True)</t>
+  </si>
+  <si>
+    <t>(MyMediaLite) MostPopularByAttributes(clean_fake=True)</t>
+  </si>
+  <si>
+    <t>(MyMediaLite) BPRSLIM(clean_fake=True)</t>
+  </si>
+  <si>
+    <t>K-markov(k=2)(clean_fake=False)</t>
+  </si>
+  <si>
+    <t>K-markov(k=3)(clean_fake=False)</t>
+  </si>
+  <si>
+    <t>K-markov-latest(k=2)(clean_fake=False)</t>
+  </si>
+  <si>
+    <t>K-markov(k=2)(clean_fake=True)</t>
+  </si>
+  <si>
+    <t>K-markov(k=3)(clean_fake=True)</t>
+  </si>
+  <si>
+    <t>K-markov-latest(k=2)(clean_fake=True)</t>
+  </si>
+  <si>
+    <t>(Surprise) SVD (base model)(clean_fake=False)</t>
+  </si>
+  <si>
+    <t>(Surprise) SVD++(clean_fake=False)</t>
+  </si>
+  <si>
+    <t>(Surprise) NMF(clean_fake=False)</t>
+  </si>
+  <si>
+    <t>(Surprise) SlopeOne(clean_fake=False)</t>
+  </si>
+  <si>
+    <t>(Surprise) KNNBaseline(clean_fake=False)</t>
+  </si>
+  <si>
+    <t>(Surprise) KNNBasic cosine user min = 1(clean_fake=False)</t>
+  </si>
+  <si>
+    <t>(Surprise) KNNBasic pearson user(clean_fake=False)</t>
+  </si>
+  <si>
+    <t>(Surprise) KNNBasic cosine item(clean_fake=False)</t>
+  </si>
+  <si>
+    <t>(Surprise) KNNBasic pearson item(clean_fake=False)</t>
+  </si>
+  <si>
+    <t>(Surprise) KNNWithMeans(clean_fake=False)</t>
+  </si>
+  <si>
+    <t>(Surprise) KNNWithZScore(clean_fake=False)</t>
+  </si>
+  <si>
+    <t>(Surprise) CoClustering(clean_fake=False)</t>
+  </si>
+  <si>
+    <t>(Surprise) BaselineOnly(clean_fake=False)</t>
+  </si>
+  <si>
+    <t>(Surprise) NormalPredictor(clean_fake=False)</t>
+  </si>
+  <si>
+    <t>(Surprise) SVD (base model)(clean_fake=True)</t>
+  </si>
+  <si>
+    <t>(Surprise) SVD++(clean_fake=True)</t>
+  </si>
+  <si>
+    <t>(Surprise) NMF(clean_fake=True)</t>
+  </si>
+  <si>
+    <t>(Surprise) SlopeOne(clean_fake=True)</t>
+  </si>
+  <si>
+    <t>(Surprise) KNNBaseline(clean_fake=True)</t>
+  </si>
+  <si>
+    <t>(Surprise) KNNBasic cosine user min = 1(clean_fake=True)</t>
+  </si>
+  <si>
+    <t>(Surprise) KNNBasic pearson user(clean_fake=True)</t>
+  </si>
+  <si>
+    <t>(Surprise) KNNBasic cosine item(clean_fake=True)</t>
+  </si>
+  <si>
+    <t>(Surprise) KNNBasic pearson item(clean_fake=True)</t>
+  </si>
+  <si>
+    <t>(Surprise) KNNWithMeans(clean_fake=True)</t>
+  </si>
+  <si>
+    <t>(Surprise) KNNWithZScore(clean_fake=True)</t>
+  </si>
+  <si>
+    <t>(Surprise) CoClustering(clean_fake=True)</t>
+  </si>
+  <si>
+    <t>(Surprise) BaselineOnly(clean_fake=True)</t>
+  </si>
+  <si>
+    <t>(Surprise) NormalPredictor(clean_fake=True)</t>
   </si>
 </sst>
 </file>
@@ -233,7 +374,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -411,12 +552,6 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -582,7 +717,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="8"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -904,524 +1039,1848 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:I63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="50" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2">
+        <v>0.58286000000000004</v>
+      </c>
+      <c r="C2">
+        <v>1.704E-2</v>
+      </c>
+      <c r="D2">
+        <v>2.095E-2</v>
+      </c>
+      <c r="E2">
+        <v>3.4970000000000001E-2</v>
+      </c>
+      <c r="F2">
+        <v>4.5940000000000002E-2</v>
+      </c>
+      <c r="G2">
+        <v>0.11926</v>
+      </c>
+      <c r="H2">
+        <v>5.9900000000000002E-2</v>
+      </c>
+      <c r="I2">
+        <v>5.6759999999999998E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.5615</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1.533E-2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2.095E-2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1.7270000000000001E-2</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1.9539999999999998E-2</v>
+      </c>
+      <c r="G3" s="1">
+        <v>7.3800000000000004E-2</v>
+      </c>
+      <c r="H3" s="1">
+        <v>3.6290000000000003E-2</v>
+      </c>
+      <c r="I3" s="1">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.55461000000000005</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2.044E-2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1.925E-2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2.0709999999999999E-2</v>
+      </c>
+      <c r="F4" s="1">
+        <v>3.6900000000000002E-2</v>
+      </c>
+      <c r="G4" s="1">
+        <v>6.0970000000000003E-2</v>
+      </c>
+      <c r="H4" s="1">
+        <v>3.6580000000000001E-2</v>
+      </c>
+      <c r="I4" s="1">
+        <v>3.9989999999999998E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5">
+        <v>0.57369999999999999</v>
+      </c>
+      <c r="C5">
+        <v>9.1999999999999998E-3</v>
+      </c>
+      <c r="D5">
+        <v>1.908E-2</v>
+      </c>
+      <c r="E5">
+        <v>2.307E-2</v>
+      </c>
+      <c r="F5">
+        <v>2.0240000000000001E-2</v>
+      </c>
+      <c r="G5">
+        <v>0.10763</v>
+      </c>
+      <c r="H5">
+        <v>4.6699999999999998E-2</v>
+      </c>
+      <c r="I5">
+        <v>4.1360000000000001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.55108000000000001</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1.704E-2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1.755E-2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2.3810000000000001E-2</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2.6630000000000001E-2</v>
+      </c>
+      <c r="G6" s="1">
+        <v>5.9880000000000003E-2</v>
+      </c>
+      <c r="H6" s="1">
+        <v>3.8280000000000002E-2</v>
+      </c>
+      <c r="I6" s="1">
+        <v>4.7390000000000002E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.55096000000000001</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1.635E-2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1.755E-2</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1.486E-2</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2.5520000000000001E-2</v>
+      </c>
+      <c r="G7" s="1">
+        <v>5.9880000000000003E-2</v>
+      </c>
+      <c r="H7" s="1">
+        <v>3.0980000000000001E-2</v>
+      </c>
+      <c r="I7" s="1">
+        <v>3.6569999999999998E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>0.56033999999999995</v>
+      </c>
+      <c r="C8">
+        <v>2.112E-2</v>
+      </c>
+      <c r="D8">
+        <v>1.721E-2</v>
+      </c>
+      <c r="E8">
+        <v>3.5729999999999998E-2</v>
+      </c>
+      <c r="F8">
+        <v>5.6649999999999999E-2</v>
+      </c>
+      <c r="G8">
+        <v>8.609E-2</v>
+      </c>
+      <c r="H8">
+        <v>5.2540000000000003E-2</v>
+      </c>
+      <c r="I8">
+        <v>5.6210000000000003E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9">
+        <v>0.56018999999999997</v>
+      </c>
+      <c r="C9">
+        <v>1.84E-2</v>
+      </c>
+      <c r="D9">
+        <v>1.721E-2</v>
+      </c>
+      <c r="E9">
+        <v>3.8460000000000001E-2</v>
+      </c>
+      <c r="F9">
+        <v>5.2929999999999998E-2</v>
+      </c>
+      <c r="G9">
+        <v>8.609E-2</v>
+      </c>
+      <c r="H9">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="I9">
+        <v>5.4809999999999998E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="C2">
-        <v>0.52505000000000002</v>
-      </c>
-      <c r="D2">
+      <c r="B10">
+        <v>0.55998000000000003</v>
+      </c>
+      <c r="C10">
+        <v>1.704E-2</v>
+      </c>
+      <c r="D10">
+        <v>1.721E-2</v>
+      </c>
+      <c r="E10">
+        <v>3.0779999999999998E-2</v>
+      </c>
+      <c r="F10">
+        <v>4.1590000000000002E-2</v>
+      </c>
+      <c r="G10">
+        <v>8.609E-2</v>
+      </c>
+      <c r="H10">
+        <v>4.811E-2</v>
+      </c>
+      <c r="I10">
+        <v>4.9009999999999998E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11">
+        <v>0.56432000000000004</v>
+      </c>
+      <c r="C11">
+        <v>1.806E-2</v>
+      </c>
+      <c r="D11">
+        <v>1.704E-2</v>
+      </c>
+      <c r="E11">
+        <v>2.964E-2</v>
+      </c>
+      <c r="F11">
+        <v>3.7429999999999998E-2</v>
+      </c>
+      <c r="G11">
+        <v>8.4229999999999999E-2</v>
+      </c>
+      <c r="H11">
+        <v>4.7969999999999999E-2</v>
+      </c>
+      <c r="I11">
+        <v>5.1709999999999999E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C12">
+        <v>1.465E-2</v>
+      </c>
+      <c r="D12">
+        <v>1.67E-2</v>
+      </c>
+      <c r="E12">
+        <v>1.583E-2</v>
+      </c>
+      <c r="F12">
+        <v>2.469E-2</v>
+      </c>
+      <c r="G12">
+        <v>5.5280000000000003E-2</v>
+      </c>
+      <c r="H12">
+        <v>3.0499999999999999E-2</v>
+      </c>
+      <c r="I12">
+        <v>3.6240000000000001E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13">
+        <v>0.55269000000000001</v>
+      </c>
+      <c r="C13">
+        <v>1.67E-2</v>
+      </c>
+      <c r="D13">
+        <v>1.601E-2</v>
+      </c>
+      <c r="E13">
+        <v>1.7559999999999999E-2</v>
+      </c>
+      <c r="F13">
+        <v>2.5420000000000002E-2</v>
+      </c>
+      <c r="G13">
+        <v>5.8119999999999998E-2</v>
+      </c>
+      <c r="H13">
+        <v>3.2530000000000003E-2</v>
+      </c>
+      <c r="I13">
+        <v>4.2419999999999999E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14">
+        <v>0.56215000000000004</v>
+      </c>
+      <c r="C14">
+        <v>1.09E-2</v>
+      </c>
+      <c r="D14">
+        <v>1.55E-2</v>
+      </c>
+      <c r="E14">
+        <v>2.0070000000000001E-2</v>
+      </c>
+      <c r="F14">
+        <v>3.0439999999999998E-2</v>
+      </c>
+      <c r="G14">
+        <v>9.4299999999999995E-2</v>
+      </c>
+      <c r="H14">
+        <v>4.036E-2</v>
+      </c>
+      <c r="I14">
+        <v>3.0890000000000001E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15">
+        <v>0.55279</v>
+      </c>
+      <c r="C15">
+        <v>1.874E-2</v>
+      </c>
+      <c r="D15">
+        <v>1.55E-2</v>
+      </c>
+      <c r="E15">
+        <v>2.0830000000000001E-2</v>
+      </c>
+      <c r="F15">
+        <v>4.0969999999999999E-2</v>
+      </c>
+      <c r="G15">
+        <v>6.2960000000000002E-2</v>
+      </c>
+      <c r="H15">
+        <v>3.628E-2</v>
+      </c>
+      <c r="I15">
+        <v>4.2869999999999998E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16">
+        <v>0.55123</v>
+      </c>
+      <c r="C16">
+        <v>1.67E-2</v>
+      </c>
+      <c r="D16">
+        <v>1.533E-2</v>
+      </c>
+      <c r="E16">
+        <v>1.848E-2</v>
+      </c>
+      <c r="F16">
+        <v>3.0099999999999998E-2</v>
+      </c>
+      <c r="G16">
+        <v>6.5909999999999996E-2</v>
+      </c>
+      <c r="H16">
+        <v>3.3759999999999998E-2</v>
+      </c>
+      <c r="I16">
+        <v>3.6459999999999999E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <v>0.55122000000000004</v>
+      </c>
+      <c r="C17">
+        <v>1.67E-2</v>
+      </c>
+      <c r="D17">
+        <v>1.533E-2</v>
+      </c>
+      <c r="E17">
+        <v>2.035E-2</v>
+      </c>
+      <c r="F17">
+        <v>4.0129999999999999E-2</v>
+      </c>
+      <c r="G17">
+        <v>6.5909999999999996E-2</v>
+      </c>
+      <c r="H17">
+        <v>3.5340000000000003E-2</v>
+      </c>
+      <c r="I17">
+        <v>3.805E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18">
+        <v>0.55661000000000005</v>
+      </c>
+      <c r="C18">
+        <v>1.601E-2</v>
+      </c>
+      <c r="D18">
+        <v>1.499E-2</v>
+      </c>
+      <c r="E18">
+        <v>3.2660000000000002E-2</v>
+      </c>
+      <c r="F18">
+        <v>4.5010000000000001E-2</v>
+      </c>
+      <c r="G18">
+        <v>7.4730000000000005E-2</v>
+      </c>
+      <c r="H18">
+        <v>4.6739999999999997E-2</v>
+      </c>
+      <c r="I18">
+        <v>4.7550000000000002E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19">
+        <v>0.54384999999999994</v>
+      </c>
+      <c r="C19">
+        <v>1.056E-2</v>
+      </c>
+      <c r="D19">
+        <v>1.482E-2</v>
+      </c>
+      <c r="E19">
+        <v>9.11E-3</v>
+      </c>
+      <c r="F19">
+        <v>1.187E-2</v>
+      </c>
+      <c r="G19">
+        <v>4.6050000000000001E-2</v>
+      </c>
+      <c r="H19">
+        <v>2.197E-2</v>
+      </c>
+      <c r="I19">
+        <v>2.0410000000000001E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20">
+        <v>0.55174000000000001</v>
+      </c>
+      <c r="C20">
+        <v>1.704E-2</v>
+      </c>
+      <c r="D20">
+        <v>1.465E-2</v>
+      </c>
+      <c r="E20">
+        <v>1.9029999999999998E-2</v>
+      </c>
+      <c r="F20">
+        <v>3.9739999999999998E-2</v>
+      </c>
+      <c r="G20">
+        <v>6.4500000000000002E-2</v>
+      </c>
+      <c r="H20">
+        <v>3.3980000000000003E-2</v>
+      </c>
+      <c r="I20">
+        <v>3.8240000000000003E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21">
+        <v>0.54610000000000003</v>
+      </c>
+      <c r="C21">
+        <v>1.193E-2</v>
+      </c>
+      <c r="D21">
+        <v>1.414E-2</v>
+      </c>
+      <c r="E21">
+        <v>1.372E-2</v>
+      </c>
+      <c r="F21">
+        <v>1.975E-2</v>
+      </c>
+      <c r="G21">
+        <v>4.6010000000000002E-2</v>
+      </c>
+      <c r="H21">
+        <v>2.6589999999999999E-2</v>
+      </c>
+      <c r="I21">
+        <v>3.4439999999999998E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.53878999999999999</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1.431E-2</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1.363E-2</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1.787E-2</v>
+      </c>
+      <c r="F22" s="1">
+        <v>2.3879999999999998E-2</v>
+      </c>
+      <c r="G22" s="1">
+        <v>3.9059999999999997E-2</v>
+      </c>
+      <c r="H22" s="1">
+        <v>2.7910000000000001E-2</v>
+      </c>
+      <c r="I22" s="1">
+        <v>3.6299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0.53854999999999997</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1.124E-2</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1.363E-2</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1.0460000000000001E-2</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1.2760000000000001E-2</v>
+      </c>
+      <c r="G23" s="1">
+        <v>3.9059999999999997E-2</v>
+      </c>
+      <c r="H23" s="1">
+        <v>2.1930000000000002E-2</v>
+      </c>
+      <c r="I23" s="1">
+        <v>2.8039999999999999E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24">
+        <v>0.53932999999999998</v>
+      </c>
+      <c r="C24">
+        <v>1.193E-2</v>
+      </c>
+      <c r="D24">
+        <v>1.329E-2</v>
+      </c>
+      <c r="E24">
+        <v>1.15E-2</v>
+      </c>
+      <c r="F24">
+        <v>2.1059999999999999E-2</v>
+      </c>
+      <c r="G24">
+        <v>3.8449999999999998E-2</v>
+      </c>
+      <c r="H24">
+        <v>2.248E-2</v>
+      </c>
+      <c r="I24">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25">
+        <v>0.54507000000000005</v>
+      </c>
+      <c r="C25">
+        <v>2.044E-2</v>
+      </c>
+      <c r="D25">
+        <v>1.312E-2</v>
+      </c>
+      <c r="E25">
+        <v>2.1729999999999999E-2</v>
+      </c>
+      <c r="F25">
+        <v>5.0799999999999998E-2</v>
+      </c>
+      <c r="G25">
+        <v>5.5559999999999998E-2</v>
+      </c>
+      <c r="H25">
+        <v>3.4299999999999997E-2</v>
+      </c>
+      <c r="I25">
+        <v>3.7990000000000003E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26">
+        <v>0.54015999999999997</v>
+      </c>
+      <c r="C26">
+        <v>1.158E-2</v>
+      </c>
+      <c r="D26">
+        <v>1.312E-2</v>
+      </c>
+      <c r="E26">
+        <v>1.256E-2</v>
+      </c>
+      <c r="F26">
+        <v>1.346E-2</v>
+      </c>
+      <c r="G26">
+        <v>4.3049999999999998E-2</v>
+      </c>
+      <c r="H26">
+        <v>2.4140000000000002E-2</v>
+      </c>
+      <c r="I26">
+        <v>3.0110000000000001E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27">
+        <v>0.53971999999999998</v>
+      </c>
+      <c r="C27">
+        <v>1.67E-2</v>
+      </c>
+      <c r="D27">
+        <v>1.278E-2</v>
+      </c>
+      <c r="E27">
+        <v>1.2370000000000001E-2</v>
+      </c>
+      <c r="F27">
+        <v>2.8199999999999999E-2</v>
+      </c>
+      <c r="G27">
+        <v>4.3310000000000001E-2</v>
+      </c>
+      <c r="H27">
+        <v>2.453E-2</v>
+      </c>
+      <c r="I27">
+        <v>3.243E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28">
+        <v>0.53815999999999997</v>
+      </c>
+      <c r="C28">
+        <v>1.193E-2</v>
+      </c>
+      <c r="D28">
+        <v>1.244E-2</v>
+      </c>
+      <c r="E28">
+        <v>1.256E-2</v>
+      </c>
+      <c r="F28">
+        <v>1.5689999999999999E-2</v>
+      </c>
+      <c r="G28">
+        <v>4.104E-2</v>
+      </c>
+      <c r="H28">
+        <v>2.3599999999999999E-2</v>
+      </c>
+      <c r="I28">
+        <v>2.903E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29">
+        <v>0.53947999999999996</v>
+      </c>
+      <c r="C29">
+        <v>1.397E-2</v>
+      </c>
+      <c r="D29">
+        <v>1.21E-2</v>
+      </c>
+      <c r="E29">
+        <v>1.3780000000000001E-2</v>
+      </c>
+      <c r="F29">
+        <v>2.1420000000000002E-2</v>
+      </c>
+      <c r="G29">
+        <v>3.7629999999999997E-2</v>
+      </c>
+      <c r="H29">
+        <v>2.4340000000000001E-2</v>
+      </c>
+      <c r="I29">
+        <v>3.6159999999999998E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30">
+        <v>0.53502000000000005</v>
+      </c>
+      <c r="C30">
+        <v>1.295E-2</v>
+      </c>
+      <c r="D30">
+        <v>1.21E-2</v>
+      </c>
+      <c r="E30">
+        <v>1.176E-2</v>
+      </c>
+      <c r="F30">
+        <v>2.1069999999999998E-2</v>
+      </c>
+      <c r="G30">
+        <v>4.1829999999999999E-2</v>
+      </c>
+      <c r="H30">
+        <v>2.2540000000000001E-2</v>
+      </c>
+      <c r="I30">
+        <v>2.6509999999999999E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31">
+        <v>0.54154000000000002</v>
+      </c>
+      <c r="C31">
+        <v>1.704E-2</v>
+      </c>
+      <c r="D31">
+        <v>1.175E-2</v>
+      </c>
+      <c r="E31">
+        <v>1.737E-2</v>
+      </c>
+      <c r="F31">
+        <v>4.0090000000000001E-2</v>
+      </c>
+      <c r="G31">
+        <v>5.1880000000000003E-2</v>
+      </c>
+      <c r="H31">
+        <v>2.9309999999999999E-2</v>
+      </c>
+      <c r="I31">
+        <v>3.1629999999999998E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>0.53737000000000001</v>
+      </c>
+      <c r="C32">
+        <v>1.056E-2</v>
+      </c>
+      <c r="D32">
+        <v>1.175E-2</v>
+      </c>
+      <c r="E32">
+        <v>1.2489999999999999E-2</v>
+      </c>
+      <c r="F32">
+        <v>1.617E-2</v>
+      </c>
+      <c r="G32">
+        <v>4.4299999999999999E-2</v>
+      </c>
+      <c r="H32">
+        <v>2.351E-2</v>
+      </c>
+      <c r="I32">
+        <v>2.6720000000000001E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>60</v>
+      </c>
+      <c r="B33">
+        <v>0.53520000000000001</v>
+      </c>
+      <c r="C33">
+        <v>1.022E-2</v>
+      </c>
+      <c r="D33">
+        <v>1.175E-2</v>
+      </c>
+      <c r="E33">
+        <v>8.5900000000000004E-3</v>
+      </c>
+      <c r="F33">
+        <v>1.042E-2</v>
+      </c>
+      <c r="G33">
+        <v>3.4790000000000001E-2</v>
+      </c>
+      <c r="H33">
+        <v>1.8870000000000001E-2</v>
+      </c>
+      <c r="I33">
+        <v>2.3949999999999999E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34">
+        <v>0.53968000000000005</v>
+      </c>
+      <c r="C34">
+        <v>1.261E-2</v>
+      </c>
+      <c r="D34">
+        <v>1.141E-2</v>
+      </c>
+      <c r="E34">
+        <v>1.5679999999999999E-2</v>
+      </c>
+      <c r="F34">
+        <v>2.3650000000000001E-2</v>
+      </c>
+      <c r="G34">
+        <v>4.054E-2</v>
+      </c>
+      <c r="H34">
+        <v>2.605E-2</v>
+      </c>
+      <c r="I34">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35">
+        <v>0.53961999999999999</v>
+      </c>
+      <c r="C35">
+        <v>1.227E-2</v>
+      </c>
+      <c r="D35">
+        <v>1.141E-2</v>
+      </c>
+      <c r="E35">
+        <v>1.044E-2</v>
+      </c>
+      <c r="F35">
+        <v>2.2630000000000001E-2</v>
+      </c>
+      <c r="G35">
+        <v>4.054E-2</v>
+      </c>
+      <c r="H35">
+        <v>2.1340000000000001E-2</v>
+      </c>
+      <c r="I35">
+        <v>2.5989999999999999E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36">
+        <v>0.53435999999999995</v>
+      </c>
+      <c r="C36">
+        <v>9.1999999999999998E-3</v>
+      </c>
+      <c r="D36">
+        <v>1.09E-2</v>
+      </c>
+      <c r="E36">
+        <v>7.0899999999999999E-3</v>
+      </c>
+      <c r="F36">
+        <v>8.1799999999999998E-3</v>
+      </c>
+      <c r="G36">
+        <v>3.5119999999999998E-2</v>
+      </c>
+      <c r="H36">
+        <v>1.7100000000000001E-2</v>
+      </c>
+      <c r="I36">
+        <v>2.0820000000000002E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>67</v>
+      </c>
+      <c r="B37">
+        <v>0.53344000000000003</v>
+      </c>
+      <c r="C37">
+        <v>1.533E-2</v>
+      </c>
+      <c r="D37">
+        <v>9.8799999999999999E-3</v>
+      </c>
+      <c r="E37">
+        <v>2.2370000000000001E-2</v>
+      </c>
+      <c r="F37">
+        <v>2.92E-2</v>
+      </c>
+      <c r="G37">
+        <v>3.4840000000000003E-2</v>
+      </c>
+      <c r="H37">
+        <v>2.9790000000000001E-2</v>
+      </c>
+      <c r="I37">
+        <v>4.4240000000000002E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
+        <v>68</v>
+      </c>
+      <c r="B38">
+        <v>0.53534000000000004</v>
+      </c>
+      <c r="C38">
+        <v>1.09E-2</v>
+      </c>
+      <c r="D38">
+        <v>9.7099999999999999E-3</v>
+      </c>
+      <c r="E38">
+        <v>1.498E-2</v>
+      </c>
+      <c r="F38">
+        <v>2.5260000000000001E-2</v>
+      </c>
+      <c r="G38">
+        <v>3.9440000000000003E-2</v>
+      </c>
+      <c r="H38">
+        <v>2.4709999999999999E-2</v>
+      </c>
+      <c r="I38">
+        <v>3.1300000000000001E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39">
+        <v>0.53086999999999995</v>
+      </c>
+      <c r="C39">
+        <v>7.8399999999999997E-3</v>
+      </c>
+      <c r="D39">
         <v>9.5399999999999999E-3</v>
       </c>
-      <c r="E2">
-        <v>7.3299999999999997E-3</v>
-      </c>
-      <c r="F2">
+      <c r="E39">
+        <v>6.5900000000000004E-3</v>
+      </c>
+      <c r="F39">
+        <v>1.001E-2</v>
+      </c>
+      <c r="G39">
+        <v>2.7990000000000001E-2</v>
+      </c>
+      <c r="H39">
+        <v>1.477E-2</v>
+      </c>
+      <c r="I39">
+        <v>2.0369999999999999E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
+        <v>34</v>
+      </c>
+      <c r="B40">
+        <v>0.53549000000000002</v>
+      </c>
+      <c r="C40">
+        <v>1.09E-2</v>
+      </c>
+      <c r="D40">
+        <v>9.3699999999999999E-3</v>
+      </c>
+      <c r="E40">
+        <v>1.03E-2</v>
+      </c>
+      <c r="F40">
+        <v>2.3210000000000001E-2</v>
+      </c>
+      <c r="G40">
+        <v>3.9289999999999999E-2</v>
+      </c>
+      <c r="H40">
+        <v>1.9990000000000001E-2</v>
+      </c>
+      <c r="I40">
+        <v>2.2689999999999998E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
+        <v>35</v>
+      </c>
+      <c r="B41">
+        <v>0.53525</v>
+      </c>
+      <c r="C41">
+        <v>8.5199999999999998E-3</v>
+      </c>
+      <c r="D41">
+        <v>9.3699999999999999E-3</v>
+      </c>
+      <c r="E41">
+        <v>7.7200000000000003E-3</v>
+      </c>
+      <c r="F41">
+        <v>1.422E-2</v>
+      </c>
+      <c r="G41">
+        <v>3.9289999999999999E-2</v>
+      </c>
+      <c r="H41">
+        <v>1.7760000000000001E-2</v>
+      </c>
+      <c r="I41">
+        <v>1.8919999999999999E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42">
+        <v>0.53500999999999999</v>
+      </c>
+      <c r="C42">
+        <v>1.022E-2</v>
+      </c>
+      <c r="D42">
+        <v>9.3699999999999999E-3</v>
+      </c>
+      <c r="E42">
+        <v>2.104E-2</v>
+      </c>
+      <c r="F42">
+        <v>2.2780000000000002E-2</v>
+      </c>
+      <c r="G42">
+        <v>3.8739999999999997E-2</v>
+      </c>
+      <c r="H42">
+        <v>2.843E-2</v>
+      </c>
+      <c r="I42">
+        <v>3.3300000000000003E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A43" t="s">
+        <v>31</v>
+      </c>
+      <c r="B43">
+        <v>0.52917000000000003</v>
+      </c>
+      <c r="C43">
+        <v>1.158E-2</v>
+      </c>
+      <c r="D43">
+        <v>9.3699999999999999E-3</v>
+      </c>
+      <c r="E43">
+        <v>9.6799999999999994E-3</v>
+      </c>
+      <c r="F43">
+        <v>1.704E-2</v>
+      </c>
+      <c r="G43">
+        <v>3.074E-2</v>
+      </c>
+      <c r="H43">
+        <v>1.7569999999999999E-2</v>
+      </c>
+      <c r="I43">
+        <v>2.043E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A44" t="s">
+        <v>17</v>
+      </c>
+      <c r="B44">
+        <v>0.52888999999999997</v>
+      </c>
+      <c r="C44">
+        <v>5.79E-3</v>
+      </c>
+      <c r="D44">
+        <v>9.3699999999999999E-3</v>
+      </c>
+      <c r="E44">
+        <v>7.0099999999999997E-3</v>
+      </c>
+      <c r="F44">
+        <v>9.4299999999999991E-3</v>
+      </c>
+      <c r="G44">
+        <v>3.074E-2</v>
+      </c>
+      <c r="H44">
+        <v>1.5259999999999999E-2</v>
+      </c>
+      <c r="I44">
+        <v>1.788E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A45" t="s">
+        <v>59</v>
+      </c>
+      <c r="B45">
+        <v>0.52639000000000002</v>
+      </c>
+      <c r="C45">
+        <v>9.5399999999999999E-3</v>
+      </c>
+      <c r="D45">
+        <v>9.3699999999999999E-3</v>
+      </c>
+      <c r="E45">
+        <v>5.3200000000000001E-3</v>
+      </c>
+      <c r="F45">
+        <v>7.4799999999999997E-3</v>
+      </c>
+      <c r="G45">
+        <v>1.9609999999999999E-2</v>
+      </c>
+      <c r="H45">
+        <v>1.2540000000000001E-2</v>
+      </c>
+      <c r="I45">
+        <v>2.1760000000000002E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A46" t="s">
+        <v>21</v>
+      </c>
+      <c r="B46">
+        <v>0.53059999999999996</v>
+      </c>
+      <c r="C46">
+        <v>9.5399999999999999E-3</v>
+      </c>
+      <c r="D46">
+        <v>9.1999999999999998E-3</v>
+      </c>
+      <c r="E46">
+        <v>8.7299999999999999E-3</v>
+      </c>
+      <c r="F46">
+        <v>1.8550000000000001E-2</v>
+      </c>
+      <c r="G46">
+        <v>3.3340000000000002E-2</v>
+      </c>
+      <c r="H46">
+        <v>1.7479999999999999E-2</v>
+      </c>
+      <c r="I46">
+        <v>2.0760000000000001E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A47" t="s">
+        <v>20</v>
+      </c>
+      <c r="B47">
+        <v>0.53049000000000002</v>
+      </c>
+      <c r="C47">
+        <v>9.1999999999999998E-3</v>
+      </c>
+      <c r="D47">
+        <v>9.1999999999999998E-3</v>
+      </c>
+      <c r="E47">
+        <v>1.2200000000000001E-2</v>
+      </c>
+      <c r="F47">
+        <v>2.018E-2</v>
+      </c>
+      <c r="G47">
+        <v>3.3340000000000002E-2</v>
+      </c>
+      <c r="H47">
+        <v>1.9789999999999999E-2</v>
+      </c>
+      <c r="I47">
+        <v>2.3009999999999999E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A48" t="s">
+        <v>18</v>
+      </c>
+      <c r="B48">
+        <v>0.53247</v>
+      </c>
+      <c r="C48">
+        <v>9.5399999999999999E-3</v>
+      </c>
+      <c r="D48">
+        <v>8.6899999999999998E-3</v>
+      </c>
+      <c r="E48">
+        <v>9.4000000000000004E-3</v>
+      </c>
+      <c r="F48">
+        <v>1.528E-2</v>
+      </c>
+      <c r="G48">
+        <v>2.537E-2</v>
+      </c>
+      <c r="H48">
+        <v>1.652E-2</v>
+      </c>
+      <c r="I48">
+        <v>2.3449999999999999E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A49" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49">
+        <v>0.52739000000000003</v>
+      </c>
+      <c r="C49">
+        <v>6.8100000000000001E-3</v>
+      </c>
+      <c r="D49">
+        <v>7.6699999999999997E-3</v>
+      </c>
+      <c r="E49">
+        <v>4.6499999999999996E-3</v>
+      </c>
+      <c r="F49">
+        <v>7.5300000000000002E-3</v>
+      </c>
+      <c r="G49">
+        <v>2.249E-2</v>
+      </c>
+      <c r="H49">
+        <v>1.17E-2</v>
+      </c>
+      <c r="I49">
+        <v>1.6490000000000001E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A50" t="s">
+        <v>11</v>
+      </c>
+      <c r="B50">
+        <v>0.52739000000000003</v>
+      </c>
+      <c r="C50">
+        <v>6.4700000000000001E-3</v>
+      </c>
+      <c r="D50">
+        <v>7.6699999999999997E-3</v>
+      </c>
+      <c r="E50">
+        <v>6.2399999999999999E-3</v>
+      </c>
+      <c r="F50">
+        <v>9.9900000000000006E-3</v>
+      </c>
+      <c r="G50">
+        <v>2.249E-2</v>
+      </c>
+      <c r="H50">
+        <v>1.282E-2</v>
+      </c>
+      <c r="I50">
+        <v>1.619E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A51" t="s">
+        <v>65</v>
+      </c>
+      <c r="B51">
+        <v>0.52561000000000002</v>
+      </c>
+      <c r="C51">
+        <v>6.8100000000000001E-3</v>
+      </c>
+      <c r="D51">
+        <v>7.6699999999999997E-3</v>
+      </c>
+      <c r="E51">
+        <v>7.5100000000000002E-3</v>
+      </c>
+      <c r="F51">
+        <v>1.072E-2</v>
+      </c>
+      <c r="G51">
+        <v>2.546E-2</v>
+      </c>
+      <c r="H51">
+        <v>1.4290000000000001E-2</v>
+      </c>
+      <c r="I51">
+        <v>1.6879999999999999E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A52" t="s">
+        <v>24</v>
+      </c>
+      <c r="B52">
+        <v>0.5232</v>
+      </c>
+      <c r="C52">
+        <v>8.8599999999999998E-3</v>
+      </c>
+      <c r="D52">
+        <v>7.1599999999999997E-3</v>
+      </c>
+      <c r="E52">
+        <v>5.0800000000000003E-3</v>
+      </c>
+      <c r="F52">
+        <v>1.2319999999999999E-2</v>
+      </c>
+      <c r="G52">
+        <v>1.9179999999999999E-2</v>
+      </c>
+      <c r="H52">
+        <v>1.1339999999999999E-2</v>
+      </c>
+      <c r="I52">
+        <v>1.789E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A53" t="s">
+        <v>25</v>
+      </c>
+      <c r="B53">
+        <v>0.52315</v>
+      </c>
+      <c r="C53">
+        <v>9.1999999999999998E-3</v>
+      </c>
+      <c r="D53">
+        <v>7.1599999999999997E-3</v>
+      </c>
+      <c r="E53">
+        <v>7.2899999999999996E-3</v>
+      </c>
+      <c r="F53">
+        <v>1.4420000000000001E-2</v>
+      </c>
+      <c r="G53">
+        <v>1.9179999999999999E-2</v>
+      </c>
+      <c r="H53">
+        <v>1.2930000000000001E-2</v>
+      </c>
+      <c r="I53">
+        <v>1.9140000000000001E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A54" t="s">
+        <v>64</v>
+      </c>
+      <c r="B54">
+        <v>0.52461999999999998</v>
+      </c>
+      <c r="C54">
+        <v>4.7699999999999999E-3</v>
+      </c>
+      <c r="D54">
+        <v>6.9800000000000001E-3</v>
+      </c>
+      <c r="E54">
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="F54">
+        <v>8.2500000000000004E-3</v>
+      </c>
+      <c r="G54">
+        <v>1.8859999999999998E-2</v>
+      </c>
+      <c r="H54">
+        <v>9.7699999999999992E-3</v>
+      </c>
+      <c r="I54">
+        <v>1.1650000000000001E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A55" t="s">
+        <v>29</v>
+      </c>
+      <c r="B55">
+        <v>0.52656000000000003</v>
+      </c>
+      <c r="C55">
+        <v>6.8100000000000001E-3</v>
+      </c>
+      <c r="D55">
+        <v>6.8100000000000001E-3</v>
+      </c>
+      <c r="E55">
+        <v>6.9300000000000004E-3</v>
+      </c>
+      <c r="F55">
         <v>1.179E-2</v>
       </c>
-      <c r="G2">
-        <v>1.6490000000000001E-2</v>
-      </c>
-      <c r="H2">
-        <v>2.3199999999999998E-2</v>
-      </c>
-      <c r="I2">
-        <v>1.7489999999999999E-2</v>
-      </c>
-      <c r="J2">
-        <v>2.4740000000000002E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3">
-        <v>0.52500999999999998</v>
-      </c>
-      <c r="D3">
+      <c r="G55">
+        <v>2.538E-2</v>
+      </c>
+      <c r="H55">
+        <v>1.359E-2</v>
+      </c>
+      <c r="I55">
+        <v>1.7149999999999999E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A56" t="s">
+        <v>28</v>
+      </c>
+      <c r="B56">
+        <v>0.52629999999999999</v>
+      </c>
+      <c r="C56">
+        <v>4.7699999999999999E-3</v>
+      </c>
+      <c r="D56">
         <v>6.8100000000000001E-3</v>
       </c>
-      <c r="E3">
-        <v>7.3299999999999997E-3</v>
-      </c>
-      <c r="F3">
-        <v>6.2899999999999996E-3</v>
-      </c>
-      <c r="G3">
-        <v>1.112E-2</v>
-      </c>
-      <c r="H3">
-        <v>2.3199999999999998E-2</v>
-      </c>
-      <c r="I3">
-        <v>1.3169999999999999E-2</v>
-      </c>
-      <c r="J3">
-        <v>2.0199999999999999E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4">
-        <v>0.56008999999999998</v>
-      </c>
-      <c r="D4">
-        <v>1.908E-2</v>
-      </c>
-      <c r="E4">
-        <v>1.721E-2</v>
-      </c>
-      <c r="F4">
-        <v>2.725E-2</v>
-      </c>
-      <c r="G4">
-        <v>5.0889999999999998E-2</v>
-      </c>
-      <c r="H4">
-        <v>8.609E-2</v>
-      </c>
-      <c r="I4">
-        <v>4.5690000000000001E-2</v>
-      </c>
-      <c r="J4">
-        <v>4.6039999999999998E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5">
-        <v>0.53963000000000005</v>
-      </c>
-      <c r="D5">
-        <v>1.227E-2</v>
-      </c>
-      <c r="E5">
-        <v>1.141E-2</v>
-      </c>
-      <c r="F5">
-        <v>1.46E-2</v>
-      </c>
-      <c r="G5">
-        <v>2.6210000000000001E-2</v>
-      </c>
-      <c r="H5">
-        <v>4.054E-2</v>
-      </c>
-      <c r="I5">
-        <v>2.4479999999999998E-2</v>
-      </c>
-      <c r="J5">
-        <v>2.7619999999999999E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6">
-        <v>0.51710999999999996</v>
-      </c>
-      <c r="D6">
-        <v>4.4299999999999999E-3</v>
-      </c>
-      <c r="E6">
+      <c r="E56">
+        <v>7.11E-3</v>
+      </c>
+      <c r="F56">
+        <v>9.4699999999999993E-3</v>
+      </c>
+      <c r="G56">
+        <v>2.538E-2</v>
+      </c>
+      <c r="H56">
+        <v>1.353E-2</v>
+      </c>
+      <c r="I56">
+        <v>1.5350000000000001E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A57" t="s">
+        <v>50</v>
+      </c>
+      <c r="B57">
+        <v>0.52349999999999997</v>
+      </c>
+      <c r="C57">
+        <v>5.79E-3</v>
+      </c>
+      <c r="D57">
+        <v>6.3E-3</v>
+      </c>
+      <c r="E57">
+        <v>5.4900000000000001E-3</v>
+      </c>
+      <c r="F57">
+        <v>1.038E-2</v>
+      </c>
+      <c r="G57">
+        <v>1.821E-2</v>
+      </c>
+      <c r="H57">
+        <v>1.1220000000000001E-2</v>
+      </c>
+      <c r="I57">
+        <v>1.4540000000000001E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A58" t="s">
+        <v>14</v>
+      </c>
+      <c r="B58">
+        <v>0.52154</v>
+      </c>
+      <c r="C58">
+        <v>6.8100000000000001E-3</v>
+      </c>
+      <c r="D58">
+        <v>6.3E-3</v>
+      </c>
+      <c r="E58">
+        <v>6.6600000000000001E-3</v>
+      </c>
+      <c r="F58">
+        <v>1.4409999999999999E-2</v>
+      </c>
+      <c r="G58">
+        <v>2.4910000000000002E-2</v>
+      </c>
+      <c r="H58">
+        <v>1.273E-2</v>
+      </c>
+      <c r="I58">
+        <v>1.6289999999999999E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B59">
+        <v>0.52141999999999999</v>
+      </c>
+      <c r="C59">
+        <v>6.8100000000000001E-3</v>
+      </c>
+      <c r="D59">
+        <v>6.3E-3</v>
+      </c>
+      <c r="E59">
+        <v>7.5100000000000002E-3</v>
+      </c>
+      <c r="F59">
+        <v>1.473E-2</v>
+      </c>
+      <c r="G59">
+        <v>2.4910000000000002E-2</v>
+      </c>
+      <c r="H59">
+        <v>1.315E-2</v>
+      </c>
+      <c r="I59">
+        <v>1.3950000000000001E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A60" t="s">
+        <v>19</v>
+      </c>
+      <c r="B60">
+        <v>0.52054999999999996</v>
+      </c>
+      <c r="C60">
+        <v>6.4700000000000001E-3</v>
+      </c>
+      <c r="D60">
+        <v>5.79E-3</v>
+      </c>
+      <c r="E60">
+        <v>5.6800000000000002E-3</v>
+      </c>
+      <c r="F60">
+        <v>8.2100000000000003E-3</v>
+      </c>
+      <c r="G60">
+        <v>1.418E-2</v>
+      </c>
+      <c r="H60">
+        <v>1.0160000000000001E-2</v>
+      </c>
+      <c r="I60">
+        <v>1.6279999999999999E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A61" t="s">
+        <v>33</v>
+      </c>
+      <c r="B61">
+        <v>0.51676999999999995</v>
+      </c>
+      <c r="C61">
+        <v>5.45E-3</v>
+      </c>
+      <c r="D61">
         <v>5.11E-3</v>
       </c>
-      <c r="F6">
-        <v>3.8E-3</v>
-      </c>
-      <c r="G6">
-        <v>7.7499999999999999E-3</v>
-      </c>
-      <c r="H6">
-        <v>1.6330000000000001E-2</v>
-      </c>
-      <c r="I6">
-        <v>8.2000000000000007E-3</v>
-      </c>
-      <c r="J6">
-        <v>1.0659999999999999E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7">
-        <v>0.51693</v>
-      </c>
-      <c r="D7">
+      <c r="E61">
+        <v>5.1000000000000004E-3</v>
+      </c>
+      <c r="F61">
+        <v>6.2500000000000003E-3</v>
+      </c>
+      <c r="G61">
+        <v>1.133E-2</v>
+      </c>
+      <c r="H61">
+        <v>8.7899999999999992E-3</v>
+      </c>
+      <c r="I61">
+        <v>1.338E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A62" t="s">
+        <v>56</v>
+      </c>
+      <c r="B62">
+        <v>0.51151000000000002</v>
+      </c>
+      <c r="C62">
         <v>3.7499999999999999E-3</v>
       </c>
-      <c r="E7">
-        <v>5.11E-3</v>
-      </c>
-      <c r="F7">
-        <v>3.2599999999999999E-3</v>
-      </c>
-      <c r="G7">
-        <v>4.3200000000000001E-3</v>
-      </c>
-      <c r="H7">
-        <v>1.6330000000000001E-2</v>
-      </c>
-      <c r="I7">
-        <v>7.5199999999999998E-3</v>
-      </c>
-      <c r="J7">
-        <v>8.7600000000000004E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8">
-        <v>0.53652999999999995</v>
-      </c>
-      <c r="D8">
-        <v>1.09E-2</v>
-      </c>
-      <c r="E8">
-        <v>1.158E-2</v>
-      </c>
-      <c r="F8">
-        <v>1.2200000000000001E-2</v>
-      </c>
-      <c r="G8">
-        <v>2.0740000000000001E-2</v>
-      </c>
-      <c r="H8">
-        <v>4.5740000000000003E-2</v>
-      </c>
-      <c r="I8">
-        <v>2.2870000000000001E-2</v>
-      </c>
-      <c r="J8">
-        <v>2.0760000000000001E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9">
-        <v>0.52903999999999995</v>
-      </c>
-      <c r="D9">
-        <v>9.8799999999999999E-3</v>
-      </c>
-      <c r="E9">
-        <v>9.3699999999999999E-3</v>
-      </c>
-      <c r="F9">
-        <v>9.4400000000000005E-3</v>
-      </c>
-      <c r="G9">
-        <v>1.6230000000000001E-2</v>
-      </c>
-      <c r="H9">
-        <v>3.074E-2</v>
-      </c>
-      <c r="I9">
-        <v>1.7170000000000001E-2</v>
-      </c>
-      <c r="J9">
-        <v>1.848E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10">
-        <v>0.52998999999999996</v>
-      </c>
-      <c r="D10">
-        <v>8.8599999999999998E-3</v>
-      </c>
-      <c r="E10">
-        <v>9.7099999999999999E-3</v>
-      </c>
-      <c r="F10">
-        <v>1.001E-2</v>
-      </c>
-      <c r="G10">
-        <v>1.183E-2</v>
-      </c>
-      <c r="H10">
-        <v>3.1309999999999998E-2</v>
-      </c>
-      <c r="I10">
-        <v>1.813E-2</v>
-      </c>
-      <c r="J10">
-        <v>2.3040000000000001E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11">
-        <v>0.52405999999999997</v>
-      </c>
-      <c r="D11">
-        <v>6.8100000000000001E-3</v>
-      </c>
-      <c r="E11">
-        <v>6.4700000000000001E-3</v>
-      </c>
-      <c r="F11">
-        <v>4.7099999999999998E-3</v>
-      </c>
-      <c r="G11">
-        <v>6.2199999999999998E-3</v>
-      </c>
-      <c r="H11">
-        <v>1.738E-2</v>
-      </c>
-      <c r="I11">
-        <v>1.0489999999999999E-2</v>
-      </c>
-      <c r="J11">
-        <v>1.6230000000000001E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12">
-        <v>0.53686</v>
-      </c>
-      <c r="D12">
-        <v>8.5199999999999998E-3</v>
-      </c>
-      <c r="E12">
-        <v>1.107E-2</v>
-      </c>
-      <c r="F12">
-        <v>1.044E-2</v>
-      </c>
-      <c r="G12">
-        <v>1.417E-2</v>
-      </c>
-      <c r="H12">
-        <v>4.19E-2</v>
-      </c>
-      <c r="I12">
-        <v>2.12E-2</v>
-      </c>
-      <c r="J12">
-        <v>2.4400000000000002E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13">
-        <v>0.53717000000000004</v>
-      </c>
-      <c r="D13">
-        <v>1.261E-2</v>
-      </c>
-      <c r="E13">
-        <v>1.107E-2</v>
-      </c>
-      <c r="F13">
-        <v>1.3939999999999999E-2</v>
-      </c>
-      <c r="G13">
-        <v>2.2579999999999999E-2</v>
-      </c>
-      <c r="H13">
-        <v>4.19E-2</v>
-      </c>
-      <c r="I13">
-        <v>2.4080000000000001E-2</v>
-      </c>
-      <c r="J13">
-        <v>2.7490000000000001E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14">
-        <v>0.54115999999999997</v>
-      </c>
-      <c r="D14">
-        <v>1.09E-2</v>
-      </c>
-      <c r="E14">
-        <v>1.278E-2</v>
-      </c>
-      <c r="F14">
-        <v>1.3089999999999999E-2</v>
-      </c>
-      <c r="G14">
-        <v>2.1499999999999998E-2</v>
-      </c>
-      <c r="H14">
-        <v>4.836E-2</v>
-      </c>
-      <c r="I14">
-        <v>2.4920000000000001E-2</v>
-      </c>
-      <c r="J14">
-        <v>2.7279999999999999E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A15">
-        <v>12</v>
-      </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15">
-        <v>0.54127999999999998</v>
-      </c>
-      <c r="D15">
-        <v>1.022E-2</v>
-      </c>
-      <c r="E15">
-        <v>1.278E-2</v>
-      </c>
-      <c r="F15">
-        <v>1.068E-2</v>
-      </c>
-      <c r="G15">
-        <v>1.413E-2</v>
-      </c>
-      <c r="H15">
-        <v>4.836E-2</v>
-      </c>
-      <c r="I15">
-        <v>2.3130000000000001E-2</v>
-      </c>
-      <c r="J15">
-        <v>2.4830000000000001E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="1">
-        <v>13</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="1">
-        <v>0.54359000000000002</v>
-      </c>
-      <c r="D16" s="1">
-        <v>2.044E-2</v>
-      </c>
-      <c r="E16" s="1">
-        <v>1.414E-2</v>
-      </c>
-      <c r="F16" s="1">
-        <v>2.3890000000000002E-2</v>
-      </c>
-      <c r="G16" s="1">
-        <v>3.7109999999999997E-2</v>
-      </c>
-      <c r="H16" s="1">
-        <v>4.9079999999999999E-2</v>
-      </c>
-      <c r="I16" s="1">
-        <v>3.5880000000000002E-2</v>
-      </c>
-      <c r="J16" s="1">
-        <v>5.2150000000000002E-2</v>
+      <c r="D62">
+        <v>3.5799999999999998E-3</v>
+      </c>
+      <c r="E62">
+        <v>1.75E-3</v>
+      </c>
+      <c r="F62">
+        <v>4.7299999999999998E-3</v>
+      </c>
+      <c r="G62">
+        <v>7.3600000000000002E-3</v>
+      </c>
+      <c r="H62">
+        <v>4.4000000000000003E-3</v>
+      </c>
+      <c r="I62">
+        <v>8.1099999999999992E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A63" t="s">
+        <v>70</v>
+      </c>
+      <c r="B63">
+        <v>0.50860000000000005</v>
+      </c>
+      <c r="C63">
+        <v>3.0699999999999998E-3</v>
+      </c>
+      <c r="D63">
+        <v>2.5600000000000002E-3</v>
+      </c>
+      <c r="E63">
+        <v>1.0200000000000001E-3</v>
+      </c>
+      <c r="F63">
+        <v>3.2000000000000002E-3</v>
+      </c>
+      <c r="G63">
+        <v>4.5900000000000003E-3</v>
+      </c>
+      <c r="H63">
+        <v>2.7799999999999999E-3</v>
+      </c>
+      <c r="I63">
+        <v>5.0899999999999999E-3</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:I63">
+    <sortCondition descending="1" ref="D1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/resources/tmp/results.xlsx
+++ b/resources/tmp/results.xlsx
@@ -8,20 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\Github\EscapeRoomsRecSys\resources\tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1E8F18D-31B3-4325-910E-FCA66D0B4E35}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68CF87E5-7B2B-49EA-8DD6-4D4349F225F9}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11565" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11565" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Not filled with popular" sheetId="1" r:id="rId1"/>
-    <sheet name="Filled with popular" sheetId="2" r:id="rId2"/>
+    <sheet name="all" sheetId="3" r:id="rId2"/>
+    <sheet name="Filled with popular" sheetId="2" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">all!$A$1:$K$125</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="42">
   <si>
     <t>alg</t>
   </si>
@@ -153,7 +157,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -284,6 +288,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -630,9 +642,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="8"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="8" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -990,8 +1004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="K2" sqref="A2:K63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1105,175 +1119,175 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0.56172</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1.84E-2</v>
-      </c>
-      <c r="D4" s="1">
-        <v>2.095E-2</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1.7819999999999999E-2</v>
-      </c>
-      <c r="F4" s="1">
-        <v>2.7910000000000001E-2</v>
-      </c>
-      <c r="G4" s="1">
-        <v>7.3800000000000004E-2</v>
-      </c>
-      <c r="H4" s="1">
-        <v>3.789E-2</v>
-      </c>
-      <c r="I4" s="1">
-        <v>4.521E-2</v>
-      </c>
-      <c r="J4" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K4" s="1" t="b">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4">
+        <v>0.57520000000000004</v>
+      </c>
+      <c r="C4">
+        <v>2.419E-2</v>
+      </c>
+      <c r="D4">
+        <v>1.908E-2</v>
+      </c>
+      <c r="E4">
+        <v>4.9320000000000003E-2</v>
+      </c>
+      <c r="F4">
+        <v>7.8299999999999995E-2</v>
+      </c>
+      <c r="G4">
+        <v>0.10763</v>
+      </c>
+      <c r="H4">
+        <v>6.8239999999999995E-2</v>
+      </c>
+      <c r="I4">
+        <v>6.7199999999999996E-2</v>
+      </c>
+      <c r="J4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5">
-        <v>0.57520000000000004</v>
-      </c>
-      <c r="C5">
-        <v>2.419E-2</v>
-      </c>
-      <c r="D5">
-        <v>1.908E-2</v>
-      </c>
-      <c r="E5">
-        <v>4.9320000000000003E-2</v>
-      </c>
-      <c r="F5">
-        <v>7.8299999999999995E-2</v>
-      </c>
-      <c r="G5">
-        <v>0.10763</v>
-      </c>
-      <c r="H5">
-        <v>6.8239999999999995E-2</v>
-      </c>
-      <c r="I5">
-        <v>6.7199999999999996E-2</v>
-      </c>
-      <c r="J5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K5" t="b">
+      <c r="A5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.55112000000000005</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1.772E-2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1.755E-2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1.9640000000000001E-2</v>
+      </c>
+      <c r="F5" s="1">
+        <v>3.0630000000000001E-2</v>
+      </c>
+      <c r="G5" s="1">
+        <v>5.9880000000000003E-2</v>
+      </c>
+      <c r="H5" s="1">
+        <v>3.4709999999999998E-2</v>
+      </c>
+      <c r="I5" s="1">
+        <v>3.9309999999999998E-2</v>
+      </c>
+      <c r="J5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="1">
-        <v>0.55127000000000004</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1.908E-2</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1.755E-2</v>
-      </c>
-      <c r="E6" s="1">
-        <v>2.0740000000000001E-2</v>
-      </c>
-      <c r="F6" s="1">
-        <v>3.474E-2</v>
-      </c>
-      <c r="G6" s="1">
-        <v>5.9880000000000003E-2</v>
-      </c>
-      <c r="H6" s="1">
-        <v>3.6060000000000002E-2</v>
-      </c>
-      <c r="I6" s="1">
-        <v>4.3020000000000003E-2</v>
-      </c>
-      <c r="J6" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K6" s="1" t="b">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6">
+        <v>0.55971000000000004</v>
+      </c>
+      <c r="C6">
+        <v>1.431E-2</v>
+      </c>
+      <c r="D6">
+        <v>1.721E-2</v>
+      </c>
+      <c r="E6">
+        <v>1.992E-2</v>
+      </c>
+      <c r="F6">
+        <v>3.347E-2</v>
+      </c>
+      <c r="G6">
+        <v>8.609E-2</v>
+      </c>
+      <c r="H6">
+        <v>3.866E-2</v>
+      </c>
+      <c r="I6">
+        <v>3.0599999999999999E-2</v>
+      </c>
+      <c r="J6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="1">
-        <v>0.55112000000000005</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1.772E-2</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1.755E-2</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1.9640000000000001E-2</v>
-      </c>
-      <c r="F7" s="1">
-        <v>3.0630000000000001E-2</v>
-      </c>
-      <c r="G7" s="1">
-        <v>5.9880000000000003E-2</v>
-      </c>
-      <c r="H7" s="1">
-        <v>3.4709999999999998E-2</v>
-      </c>
-      <c r="I7" s="1">
-        <v>3.9309999999999998E-2</v>
-      </c>
-      <c r="J7" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K7" s="1" t="b">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7">
+        <v>0.55286000000000002</v>
+      </c>
+      <c r="C7">
+        <v>1.635E-2</v>
+      </c>
+      <c r="D7">
+        <v>1.601E-2</v>
+      </c>
+      <c r="E7">
+        <v>2.8590000000000001E-2</v>
+      </c>
+      <c r="F7">
+        <v>3.1879999999999999E-2</v>
+      </c>
+      <c r="G7">
+        <v>5.8119999999999998E-2</v>
+      </c>
+      <c r="H7">
+        <v>4.0939999999999997E-2</v>
+      </c>
+      <c r="I7">
+        <v>4.82E-2</v>
+      </c>
+      <c r="J7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>0.56013999999999997</v>
+        <v>0.55250999999999995</v>
       </c>
       <c r="C8">
-        <v>2.044E-2</v>
+        <v>1.295E-2</v>
       </c>
       <c r="D8">
-        <v>1.721E-2</v>
+        <v>1.55E-2</v>
       </c>
       <c r="E8">
-        <v>3.048E-2</v>
+        <v>1.4189999999999999E-2</v>
       </c>
       <c r="F8">
-        <v>4.9450000000000001E-2</v>
+        <v>1.5970000000000002E-2</v>
       </c>
       <c r="G8">
-        <v>8.609E-2</v>
+        <v>6.2960000000000002E-2</v>
       </c>
       <c r="H8">
-        <v>4.7800000000000002E-2</v>
+        <v>3.075E-2</v>
       </c>
       <c r="I8">
-        <v>4.641E-2</v>
+        <v>3.7580000000000002E-2</v>
       </c>
       <c r="J8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" t="b">
         <v>0</v>
@@ -1281,31 +1295,31 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B9">
-        <v>0.55971000000000004</v>
+        <v>0.55193999999999999</v>
       </c>
       <c r="C9">
-        <v>1.431E-2</v>
+        <v>1.601E-2</v>
       </c>
       <c r="D9">
-        <v>1.721E-2</v>
+        <v>1.465E-2</v>
       </c>
       <c r="E9">
-        <v>1.992E-2</v>
+        <v>2.2769999999999999E-2</v>
       </c>
       <c r="F9">
-        <v>3.347E-2</v>
+        <v>3.3649999999999999E-2</v>
       </c>
       <c r="G9">
-        <v>8.609E-2</v>
+        <v>6.4500000000000002E-2</v>
       </c>
       <c r="H9">
-        <v>3.866E-2</v>
+        <v>3.6650000000000002E-2</v>
       </c>
       <c r="I9">
-        <v>3.0599999999999999E-2</v>
+        <v>3.9969999999999999E-2</v>
       </c>
       <c r="J9" t="b">
         <v>0</v>
@@ -1316,34 +1330,34 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B10">
-        <v>0.56401000000000001</v>
+        <v>0.54317000000000004</v>
       </c>
       <c r="C10">
-        <v>1.567E-2</v>
+        <v>1.193E-2</v>
       </c>
       <c r="D10">
-        <v>1.704E-2</v>
+        <v>1.465E-2</v>
       </c>
       <c r="E10">
-        <v>2.3369999999999998E-2</v>
+        <v>9.2499999999999995E-3</v>
       </c>
       <c r="F10">
-        <v>4.2540000000000001E-2</v>
+        <v>1.414E-2</v>
       </c>
       <c r="G10">
-        <v>8.4229999999999999E-2</v>
+        <v>4.5449999999999997E-2</v>
       </c>
       <c r="H10">
-        <v>4.2700000000000002E-2</v>
+        <v>2.1950000000000001E-2</v>
       </c>
       <c r="I10">
-        <v>4.1570000000000003E-2</v>
+        <v>2.145E-2</v>
       </c>
       <c r="J10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" t="b">
         <v>0</v>
@@ -1351,31 +1365,31 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>0.55286000000000002</v>
+        <v>0.54166999999999998</v>
       </c>
       <c r="C11">
-        <v>1.635E-2</v>
+        <v>1.431E-2</v>
       </c>
       <c r="D11">
-        <v>1.601E-2</v>
+        <v>1.38E-2</v>
       </c>
       <c r="E11">
-        <v>2.8590000000000001E-2</v>
+        <v>1.404E-2</v>
       </c>
       <c r="F11">
-        <v>3.1879999999999999E-2</v>
+        <v>2.3820000000000001E-2</v>
       </c>
       <c r="G11">
-        <v>5.8119999999999998E-2</v>
+        <v>3.9329999999999997E-2</v>
       </c>
       <c r="H11">
-        <v>4.0939999999999997E-2</v>
+        <v>2.5059999999999999E-2</v>
       </c>
       <c r="I11">
-        <v>4.82E-2</v>
+        <v>3.295E-2</v>
       </c>
       <c r="J11" t="b">
         <v>0</v>
@@ -1385,70 +1399,70 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12">
-        <v>0.55250999999999995</v>
-      </c>
-      <c r="C12">
-        <v>1.295E-2</v>
-      </c>
-      <c r="D12">
-        <v>1.55E-2</v>
-      </c>
-      <c r="E12">
-        <v>1.4189999999999999E-2</v>
-      </c>
-      <c r="F12">
-        <v>1.5970000000000002E-2</v>
-      </c>
-      <c r="G12">
-        <v>6.2960000000000002E-2</v>
-      </c>
-      <c r="H12">
-        <v>3.075E-2</v>
-      </c>
-      <c r="I12">
-        <v>3.7580000000000002E-2</v>
-      </c>
-      <c r="J12" t="b">
-        <v>0</v>
-      </c>
-      <c r="K12" t="b">
+      <c r="A12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.53861000000000003</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1.227E-2</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1.363E-2</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1.057E-2</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1.8190000000000001E-2</v>
+      </c>
+      <c r="G12" s="1">
+        <v>3.9059999999999997E-2</v>
+      </c>
+      <c r="H12" s="1">
+        <v>2.1760000000000002E-2</v>
+      </c>
+      <c r="I12" s="1">
+        <v>2.4369999999999999E-2</v>
+      </c>
+      <c r="J12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>0.55613999999999997</v>
+        <v>0.54427999999999999</v>
       </c>
       <c r="C13">
-        <v>1.09E-2</v>
+        <v>1.022E-2</v>
       </c>
       <c r="D13">
-        <v>1.499E-2</v>
+        <v>1.312E-2</v>
       </c>
       <c r="E13">
-        <v>1.519E-2</v>
+        <v>1.3650000000000001E-2</v>
       </c>
       <c r="F13">
-        <v>2.6509999999999999E-2</v>
+        <v>1.1990000000000001E-2</v>
       </c>
       <c r="G13">
-        <v>7.4730000000000005E-2</v>
+        <v>5.5559999999999998E-2</v>
       </c>
       <c r="H13">
-        <v>3.2620000000000003E-2</v>
+        <v>2.7050000000000001E-2</v>
       </c>
       <c r="I13">
-        <v>2.691E-2</v>
+        <v>2.9069999999999999E-2</v>
       </c>
       <c r="J13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" t="b">
         <v>0</v>
@@ -1456,34 +1470,34 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B14">
-        <v>0.54423999999999995</v>
+        <v>0.54183999999999999</v>
       </c>
       <c r="C14">
-        <v>1.533E-2</v>
+        <v>1.499E-2</v>
       </c>
       <c r="D14">
-        <v>1.482E-2</v>
+        <v>1.295E-2</v>
       </c>
       <c r="E14">
-        <v>2.07E-2</v>
+        <v>1.329E-2</v>
       </c>
       <c r="F14">
-        <v>2.9659999999999999E-2</v>
+        <v>2.8230000000000002E-2</v>
       </c>
       <c r="G14">
-        <v>4.6050000000000001E-2</v>
+        <v>3.9260000000000003E-2</v>
       </c>
       <c r="H14">
-        <v>3.1969999999999998E-2</v>
+        <v>2.4709999999999999E-2</v>
       </c>
       <c r="I14">
-        <v>3.9719999999999998E-2</v>
+        <v>3.474E-2</v>
       </c>
       <c r="J14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" t="b">
         <v>0</v>
@@ -1491,31 +1505,31 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>0.55193999999999999</v>
+        <v>0.53966000000000003</v>
       </c>
       <c r="C15">
-        <v>1.601E-2</v>
+        <v>1.499E-2</v>
       </c>
       <c r="D15">
-        <v>1.465E-2</v>
+        <v>1.278E-2</v>
       </c>
       <c r="E15">
-        <v>2.2769999999999999E-2</v>
+        <v>1.5389999999999999E-2</v>
       </c>
       <c r="F15">
-        <v>3.3649999999999999E-2</v>
+        <v>3.1489999999999997E-2</v>
       </c>
       <c r="G15">
-        <v>6.4500000000000002E-2</v>
+        <v>4.3310000000000001E-2</v>
       </c>
       <c r="H15">
-        <v>3.6650000000000002E-2</v>
+        <v>2.6839999999999999E-2</v>
       </c>
       <c r="I15">
-        <v>3.9969999999999999E-2</v>
+        <v>3.2899999999999999E-2</v>
       </c>
       <c r="J15" t="b">
         <v>0</v>
@@ -1526,31 +1540,31 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="B16">
-        <v>0.54317000000000004</v>
+        <v>0.54595000000000005</v>
       </c>
       <c r="C16">
-        <v>1.193E-2</v>
+        <v>1.295E-2</v>
       </c>
       <c r="D16">
-        <v>1.465E-2</v>
+        <v>1.261E-2</v>
       </c>
       <c r="E16">
-        <v>9.2499999999999995E-3</v>
+        <v>1.8149999999999999E-2</v>
       </c>
       <c r="F16">
-        <v>1.414E-2</v>
+        <v>2.792E-2</v>
       </c>
       <c r="G16">
-        <v>4.5449999999999997E-2</v>
+        <v>5.8470000000000001E-2</v>
       </c>
       <c r="H16">
-        <v>2.1950000000000001E-2</v>
+        <v>3.1320000000000001E-2</v>
       </c>
       <c r="I16">
-        <v>2.145E-2</v>
+        <v>3.3149999999999999E-2</v>
       </c>
       <c r="J16" t="b">
         <v>0</v>
@@ -1561,34 +1575,34 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0.54615000000000002</v>
+        <v>0.54168000000000005</v>
       </c>
       <c r="C17">
-        <v>1.329E-2</v>
+        <v>1.499E-2</v>
       </c>
       <c r="D17">
-        <v>1.414E-2</v>
+        <v>1.175E-2</v>
       </c>
       <c r="E17">
-        <v>1.4500000000000001E-2</v>
+        <v>3.6049999999999999E-2</v>
       </c>
       <c r="F17">
-        <v>1.523E-2</v>
+        <v>4.0300000000000002E-2</v>
       </c>
       <c r="G17">
-        <v>4.6010000000000002E-2</v>
+        <v>5.1880000000000003E-2</v>
       </c>
       <c r="H17">
-        <v>2.75E-2</v>
+        <v>4.4089999999999997E-2</v>
       </c>
       <c r="I17">
-        <v>3.9329999999999997E-2</v>
+        <v>5.672E-2</v>
       </c>
       <c r="J17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" t="b">
         <v>0</v>
@@ -1596,31 +1610,31 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0.54166999999999998</v>
+        <v>0.54962999999999995</v>
       </c>
       <c r="C18">
-        <v>1.431E-2</v>
+        <v>2.112E-2</v>
       </c>
       <c r="D18">
-        <v>1.38E-2</v>
+        <v>1.141E-2</v>
       </c>
       <c r="E18">
-        <v>1.404E-2</v>
+        <v>3.9660000000000001E-2</v>
       </c>
       <c r="F18">
-        <v>2.3820000000000001E-2</v>
+        <v>5.8439999999999999E-2</v>
       </c>
       <c r="G18">
-        <v>3.9329999999999997E-2</v>
+        <v>6.3479999999999995E-2</v>
       </c>
       <c r="H18">
-        <v>2.5059999999999999E-2</v>
+        <v>5.0930000000000003E-2</v>
       </c>
       <c r="I18">
-        <v>3.295E-2</v>
+        <v>6.6589999999999996E-2</v>
       </c>
       <c r="J18" t="b">
         <v>0</v>
@@ -1630,105 +1644,105 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="1">
-        <v>0.53895000000000004</v>
-      </c>
-      <c r="C19" s="1">
-        <v>1.533E-2</v>
-      </c>
-      <c r="D19" s="1">
-        <v>1.363E-2</v>
-      </c>
-      <c r="E19" s="1">
-        <v>1.3480000000000001E-2</v>
-      </c>
-      <c r="F19" s="1">
-        <v>2.2179999999999998E-2</v>
-      </c>
-      <c r="G19" s="1">
-        <v>3.9059999999999997E-2</v>
-      </c>
-      <c r="H19" s="1">
-        <v>2.4740000000000002E-2</v>
-      </c>
-      <c r="I19" s="1">
-        <v>3.2710000000000003E-2</v>
-      </c>
-      <c r="J19" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K19" s="1" t="b">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19">
+        <v>0.53969</v>
+      </c>
+      <c r="C19">
+        <v>1.227E-2</v>
+      </c>
+      <c r="D19">
+        <v>1.141E-2</v>
+      </c>
+      <c r="E19">
+        <v>1.359E-2</v>
+      </c>
+      <c r="F19">
+        <v>2.4029999999999999E-2</v>
+      </c>
+      <c r="G19">
+        <v>4.054E-2</v>
+      </c>
+      <c r="H19">
+        <v>2.4070000000000001E-2</v>
+      </c>
+      <c r="I19">
+        <v>2.9850000000000002E-2</v>
+      </c>
+      <c r="J19" t="b">
+        <v>0</v>
+      </c>
+      <c r="K19" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" s="1">
-        <v>0.53861000000000003</v>
-      </c>
-      <c r="C20" s="1">
-        <v>1.227E-2</v>
-      </c>
-      <c r="D20" s="1">
-        <v>1.363E-2</v>
-      </c>
-      <c r="E20" s="1">
-        <v>1.057E-2</v>
-      </c>
-      <c r="F20" s="1">
-        <v>1.8190000000000001E-2</v>
-      </c>
-      <c r="G20" s="1">
-        <v>3.9059999999999997E-2</v>
-      </c>
-      <c r="H20" s="1">
-        <v>2.1760000000000002E-2</v>
-      </c>
-      <c r="I20" s="1">
-        <v>2.4369999999999999E-2</v>
-      </c>
-      <c r="J20" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K20" s="1" t="b">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20">
+        <v>0.52836000000000005</v>
+      </c>
+      <c r="C20">
+        <v>9.1999999999999998E-3</v>
+      </c>
+      <c r="D20">
+        <v>1.039E-2</v>
+      </c>
+      <c r="E20">
+        <v>1.0120000000000001E-2</v>
+      </c>
+      <c r="F20">
+        <v>1.6369999999999999E-2</v>
+      </c>
+      <c r="G20">
+        <v>3.1559999999999998E-2</v>
+      </c>
+      <c r="H20">
+        <v>1.831E-2</v>
+      </c>
+      <c r="I20">
+        <v>2.129E-2</v>
+      </c>
+      <c r="J20" t="b">
+        <v>0</v>
+      </c>
+      <c r="K20" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B21">
-        <v>0.54432999999999998</v>
+        <v>0.53256000000000003</v>
       </c>
       <c r="C21">
-        <v>1.397E-2</v>
+        <v>1.09E-2</v>
       </c>
       <c r="D21">
-        <v>1.329E-2</v>
+        <v>1.022E-2</v>
       </c>
       <c r="E21">
-        <v>1.6899999999999998E-2</v>
+        <v>1.247E-2</v>
       </c>
       <c r="F21">
-        <v>2.8989999999999998E-2</v>
+        <v>2.4199999999999999E-2</v>
       </c>
       <c r="G21">
-        <v>4.8460000000000003E-2</v>
+        <v>3.9829999999999997E-2</v>
       </c>
       <c r="H21">
-        <v>2.845E-2</v>
+        <v>2.1950000000000001E-2</v>
       </c>
       <c r="I21">
-        <v>3.1780000000000003E-2</v>
+        <v>2.6120000000000001E-2</v>
       </c>
       <c r="J21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" t="b">
         <v>0</v>
@@ -1736,31 +1750,31 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="B22">
-        <v>0.54427999999999999</v>
+        <v>0.53256999999999999</v>
       </c>
       <c r="C22">
+        <v>1.158E-2</v>
+      </c>
+      <c r="D22">
         <v>1.022E-2</v>
       </c>
-      <c r="D22">
-        <v>1.312E-2</v>
-      </c>
       <c r="E22">
-        <v>1.3650000000000001E-2</v>
+        <v>1.189E-2</v>
       </c>
       <c r="F22">
-        <v>1.1990000000000001E-2</v>
+        <v>1.908E-2</v>
       </c>
       <c r="G22">
-        <v>5.5559999999999998E-2</v>
+        <v>3.9829999999999997E-2</v>
       </c>
       <c r="H22">
-        <v>2.7050000000000001E-2</v>
+        <v>2.1729999999999999E-2</v>
       </c>
       <c r="I22">
-        <v>2.9069999999999999E-2</v>
+        <v>2.699E-2</v>
       </c>
       <c r="J22" t="b">
         <v>0</v>
@@ -1771,31 +1785,31 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B23">
-        <v>0.54183999999999999</v>
+        <v>0.53522000000000003</v>
       </c>
       <c r="C23">
-        <v>1.499E-2</v>
+        <v>1.397E-2</v>
       </c>
       <c r="D23">
-        <v>1.295E-2</v>
+        <v>9.3699999999999999E-3</v>
       </c>
       <c r="E23">
-        <v>1.329E-2</v>
+        <v>1.6979999999999999E-2</v>
       </c>
       <c r="F23">
-        <v>2.8230000000000002E-2</v>
+        <v>3.1220000000000001E-2</v>
       </c>
       <c r="G23">
-        <v>3.9260000000000003E-2</v>
+        <v>3.8739999999999997E-2</v>
       </c>
       <c r="H23">
-        <v>2.4709999999999999E-2</v>
+        <v>2.6200000000000001E-2</v>
       </c>
       <c r="I23">
-        <v>3.474E-2</v>
+        <v>3.6040000000000003E-2</v>
       </c>
       <c r="J23" t="b">
         <v>0</v>
@@ -1806,34 +1820,34 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="B24">
-        <v>0.53873000000000004</v>
+        <v>0.52922000000000002</v>
       </c>
       <c r="C24">
-        <v>1.158E-2</v>
+        <v>1.124E-2</v>
       </c>
       <c r="D24">
-        <v>1.295E-2</v>
+        <v>9.3699999999999999E-3</v>
       </c>
       <c r="E24">
-        <v>1.098E-2</v>
+        <v>8.0999999999999996E-3</v>
       </c>
       <c r="F24">
-        <v>1.1900000000000001E-2</v>
+        <v>1.44E-2</v>
       </c>
       <c r="G24">
-        <v>3.8129999999999997E-2</v>
+        <v>3.074E-2</v>
       </c>
       <c r="H24">
-        <v>2.2040000000000001E-2</v>
+        <v>1.6670000000000001E-2</v>
       </c>
       <c r="I24">
-        <v>2.827E-2</v>
+        <v>2.3560000000000001E-2</v>
       </c>
       <c r="J24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" t="b">
         <v>0</v>
@@ -1841,31 +1855,31 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="B25">
-        <v>0.53966000000000003</v>
+        <v>0.52692000000000005</v>
       </c>
       <c r="C25">
-        <v>1.499E-2</v>
+        <v>7.8399999999999997E-3</v>
       </c>
       <c r="D25">
-        <v>1.278E-2</v>
+        <v>8.6899999999999998E-3</v>
       </c>
       <c r="E25">
-        <v>1.5389999999999999E-2</v>
+        <v>8.9300000000000004E-3</v>
       </c>
       <c r="F25">
-        <v>3.1489999999999997E-2</v>
+        <v>1.248E-2</v>
       </c>
       <c r="G25">
-        <v>4.3310000000000001E-2</v>
+        <v>2.4979999999999999E-2</v>
       </c>
       <c r="H25">
-        <v>2.6839999999999999E-2</v>
+        <v>1.5970000000000002E-2</v>
       </c>
       <c r="I25">
-        <v>3.2899999999999999E-2</v>
+        <v>2.648E-2</v>
       </c>
       <c r="J25" t="b">
         <v>0</v>
@@ -1876,31 +1890,31 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="B26">
-        <v>0.54595000000000005</v>
+        <v>0.52312000000000003</v>
       </c>
       <c r="C26">
-        <v>1.295E-2</v>
+        <v>6.13E-3</v>
       </c>
       <c r="D26">
-        <v>1.261E-2</v>
+        <v>6.6400000000000001E-3</v>
       </c>
       <c r="E26">
-        <v>1.8149999999999999E-2</v>
+        <v>4.96E-3</v>
       </c>
       <c r="F26">
-        <v>2.792E-2</v>
+        <v>9.5200000000000007E-3</v>
       </c>
       <c r="G26">
-        <v>5.8470000000000001E-2</v>
+        <v>1.899E-2</v>
       </c>
       <c r="H26">
-        <v>3.1320000000000001E-2</v>
+        <v>1.0970000000000001E-2</v>
       </c>
       <c r="I26">
-        <v>3.3149999999999999E-2</v>
+        <v>1.6719999999999999E-2</v>
       </c>
       <c r="J26" t="b">
         <v>0</v>
@@ -1911,34 +1925,34 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B27">
-        <v>0.54571999999999998</v>
+        <v>0.52300999999999997</v>
       </c>
       <c r="C27">
-        <v>8.5199999999999998E-3</v>
+        <v>5.11E-3</v>
       </c>
       <c r="D27">
-        <v>1.261E-2</v>
+        <v>6.6400000000000001E-3</v>
       </c>
       <c r="E27">
-        <v>1.41E-2</v>
+        <v>4.8999999999999998E-3</v>
       </c>
       <c r="F27">
-        <v>1.532E-2</v>
+        <v>8.43E-3</v>
       </c>
       <c r="G27">
-        <v>5.8470000000000001E-2</v>
+        <v>1.899E-2</v>
       </c>
       <c r="H27">
-        <v>2.7550000000000002E-2</v>
+        <v>1.0670000000000001E-2</v>
       </c>
       <c r="I27">
-        <v>2.5659999999999999E-2</v>
+        <v>1.538E-2</v>
       </c>
       <c r="J27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27" t="b">
         <v>0</v>
@@ -1946,34 +1960,34 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B28">
-        <v>0.54169</v>
+        <v>0.52344999999999997</v>
       </c>
       <c r="C28">
-        <v>8.8599999999999998E-3</v>
+        <v>4.7699999999999999E-3</v>
       </c>
       <c r="D28">
-        <v>1.227E-2</v>
+        <v>6.3E-3</v>
       </c>
       <c r="E28">
-        <v>9.3900000000000008E-3</v>
+        <v>4.0400000000000002E-3</v>
       </c>
       <c r="F28">
-        <v>1.0160000000000001E-2</v>
+        <v>6.5799999999999999E-3</v>
       </c>
       <c r="G28">
-        <v>3.9350000000000003E-2</v>
+        <v>1.821E-2</v>
       </c>
       <c r="H28">
-        <v>2.0230000000000001E-2</v>
+        <v>9.9699999999999997E-3</v>
       </c>
       <c r="I28">
-        <v>2.1829999999999999E-2</v>
+        <v>1.4109999999999999E-2</v>
       </c>
       <c r="J28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28" t="b">
         <v>0</v>
@@ -1981,31 +1995,31 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B29">
-        <v>0.54168000000000005</v>
+        <v>0.52559</v>
       </c>
       <c r="C29">
-        <v>1.499E-2</v>
+        <v>6.4700000000000001E-3</v>
       </c>
       <c r="D29">
-        <v>1.175E-2</v>
+        <v>5.96E-3</v>
       </c>
       <c r="E29">
-        <v>3.6049999999999999E-2</v>
+        <v>1.073E-2</v>
       </c>
       <c r="F29">
-        <v>4.0300000000000002E-2</v>
+        <v>1.4840000000000001E-2</v>
       </c>
       <c r="G29">
-        <v>5.1880000000000003E-2</v>
+        <v>2.7230000000000001E-2</v>
       </c>
       <c r="H29">
-        <v>4.4089999999999997E-2</v>
+        <v>1.661E-2</v>
       </c>
       <c r="I29">
-        <v>5.672E-2</v>
+        <v>1.9359999999999999E-2</v>
       </c>
       <c r="J29" t="b">
         <v>0</v>
@@ -2016,34 +2030,34 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="B30">
-        <v>0.53534999999999999</v>
+        <v>0.52563000000000004</v>
       </c>
       <c r="C30">
-        <v>1.499E-2</v>
+        <v>5.45E-3</v>
       </c>
       <c r="D30">
-        <v>1.175E-2</v>
+        <v>5.96E-3</v>
       </c>
       <c r="E30">
-        <v>1.1730000000000001E-2</v>
+        <v>8.0700000000000008E-3</v>
       </c>
       <c r="F30">
-        <v>2.5309999999999999E-2</v>
+        <v>1.519E-2</v>
       </c>
       <c r="G30">
-        <v>3.4790000000000001E-2</v>
+        <v>2.7230000000000001E-2</v>
       </c>
       <c r="H30">
-        <v>2.172E-2</v>
+        <v>1.4500000000000001E-2</v>
       </c>
       <c r="I30">
-        <v>2.7799999999999998E-2</v>
+        <v>1.6379999999999999E-2</v>
       </c>
       <c r="J30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30" t="b">
         <v>0</v>
@@ -2051,31 +2065,31 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.54962999999999995</v>
+        <v>0.52173999999999998</v>
       </c>
       <c r="C31">
-        <v>2.112E-2</v>
+        <v>5.11E-3</v>
       </c>
       <c r="D31">
-        <v>1.141E-2</v>
+        <v>5.62E-3</v>
       </c>
       <c r="E31">
-        <v>3.9660000000000001E-2</v>
+        <v>4.9199999999999999E-3</v>
       </c>
       <c r="F31">
-        <v>5.8439999999999999E-2</v>
+        <v>8.7299999999999999E-3</v>
       </c>
       <c r="G31">
-        <v>6.3479999999999995E-2</v>
+        <v>1.8079999999999999E-2</v>
       </c>
       <c r="H31">
-        <v>5.0930000000000003E-2</v>
+        <v>9.8499999999999994E-3</v>
       </c>
       <c r="I31">
-        <v>6.6589999999999996E-2</v>
+        <v>1.159E-2</v>
       </c>
       <c r="J31" t="b">
         <v>0</v>
@@ -2086,31 +2100,31 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B32">
-        <v>0.53969</v>
+        <v>0.51441999999999999</v>
       </c>
       <c r="C32">
-        <v>1.227E-2</v>
+        <v>2.0400000000000001E-3</v>
       </c>
       <c r="D32">
-        <v>1.141E-2</v>
+        <v>3.9199999999999999E-3</v>
       </c>
       <c r="E32">
-        <v>1.359E-2</v>
+        <v>2.5899999999999999E-3</v>
       </c>
       <c r="F32">
-        <v>2.4029999999999999E-2</v>
+        <v>4.6899999999999997E-3</v>
       </c>
       <c r="G32">
-        <v>4.054E-2</v>
+        <v>1.4880000000000001E-2</v>
       </c>
       <c r="H32">
-        <v>2.4070000000000001E-2</v>
+        <v>6.4700000000000001E-3</v>
       </c>
       <c r="I32">
-        <v>2.9850000000000002E-2</v>
+        <v>6.5900000000000004E-3</v>
       </c>
       <c r="J32" t="b">
         <v>0</v>
@@ -2120,102 +2134,102 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>28</v>
-      </c>
-      <c r="B33">
-        <v>0.53976000000000002</v>
-      </c>
-      <c r="C33">
-        <v>1.261E-2</v>
-      </c>
-      <c r="D33">
-        <v>1.141E-2</v>
-      </c>
-      <c r="E33">
-        <v>1.299E-2</v>
-      </c>
-      <c r="F33">
-        <v>2.2089999999999999E-2</v>
-      </c>
-      <c r="G33">
-        <v>4.054E-2</v>
-      </c>
-      <c r="H33">
-        <v>2.341E-2</v>
-      </c>
-      <c r="I33">
-        <v>2.7119999999999998E-2</v>
-      </c>
-      <c r="J33" t="b">
-        <v>1</v>
-      </c>
-      <c r="K33" t="b">
+      <c r="A33" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0.56172</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1.84E-2</v>
+      </c>
+      <c r="D33" s="1">
+        <v>2.095E-2</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1.7819999999999999E-2</v>
+      </c>
+      <c r="F33" s="1">
+        <v>2.7910000000000001E-2</v>
+      </c>
+      <c r="G33" s="1">
+        <v>7.3800000000000004E-2</v>
+      </c>
+      <c r="H33" s="1">
+        <v>3.789E-2</v>
+      </c>
+      <c r="I33" s="1">
+        <v>4.521E-2</v>
+      </c>
+      <c r="J33" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K33" s="1" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>35</v>
-      </c>
-      <c r="B34">
-        <v>0.53720000000000001</v>
-      </c>
-      <c r="C34">
-        <v>1.09E-2</v>
-      </c>
-      <c r="D34">
-        <v>1.124E-2</v>
-      </c>
-      <c r="E34">
-        <v>1.146E-2</v>
-      </c>
-      <c r="F34">
-        <v>1.8880000000000001E-2</v>
-      </c>
-      <c r="G34">
-        <v>4.0910000000000002E-2</v>
-      </c>
-      <c r="H34">
-        <v>2.1919999999999999E-2</v>
-      </c>
-      <c r="I34">
-        <v>2.6110000000000001E-2</v>
-      </c>
-      <c r="J34" t="b">
-        <v>1</v>
-      </c>
-      <c r="K34" t="b">
+      <c r="A34" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" s="1">
+        <v>0.55127000000000004</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1.908E-2</v>
+      </c>
+      <c r="D34" s="1">
+        <v>1.755E-2</v>
+      </c>
+      <c r="E34" s="1">
+        <v>2.0740000000000001E-2</v>
+      </c>
+      <c r="F34" s="1">
+        <v>3.474E-2</v>
+      </c>
+      <c r="G34" s="1">
+        <v>5.9880000000000003E-2</v>
+      </c>
+      <c r="H34" s="1">
+        <v>3.6060000000000002E-2</v>
+      </c>
+      <c r="I34" s="1">
+        <v>4.3020000000000003E-2</v>
+      </c>
+      <c r="J34" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K34" s="1" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B35">
-        <v>0.53718999999999995</v>
+        <v>0.56013999999999997</v>
       </c>
       <c r="C35">
-        <v>1.09E-2</v>
+        <v>2.044E-2</v>
       </c>
       <c r="D35">
-        <v>1.124E-2</v>
+        <v>1.721E-2</v>
       </c>
       <c r="E35">
-        <v>1.085E-2</v>
+        <v>3.048E-2</v>
       </c>
       <c r="F35">
-        <v>2.0490000000000001E-2</v>
+        <v>4.9450000000000001E-2</v>
       </c>
       <c r="G35">
-        <v>4.0910000000000002E-2</v>
+        <v>8.609E-2</v>
       </c>
       <c r="H35">
-        <v>2.1270000000000001E-2</v>
+        <v>4.7800000000000002E-2</v>
       </c>
       <c r="I35">
-        <v>2.3810000000000001E-2</v>
+        <v>4.641E-2</v>
       </c>
       <c r="J35" t="b">
         <v>1</v>
@@ -2226,31 +2240,31 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B36">
-        <v>0.53454999999999997</v>
+        <v>0.56401000000000001</v>
       </c>
       <c r="C36">
-        <v>1.193E-2</v>
+        <v>1.567E-2</v>
       </c>
       <c r="D36">
-        <v>1.09E-2</v>
+        <v>1.704E-2</v>
       </c>
       <c r="E36">
-        <v>9.2099999999999994E-3</v>
+        <v>2.3369999999999998E-2</v>
       </c>
       <c r="F36">
-        <v>2.4819999999999998E-2</v>
+        <v>4.2540000000000001E-2</v>
       </c>
       <c r="G36">
-        <v>3.5119999999999998E-2</v>
+        <v>8.4229999999999999E-2</v>
       </c>
       <c r="H36">
-        <v>1.8859999999999998E-2</v>
+        <v>4.2700000000000002E-2</v>
       </c>
       <c r="I36">
-        <v>2.155E-2</v>
+        <v>4.1570000000000003E-2</v>
       </c>
       <c r="J36" t="b">
         <v>1</v>
@@ -2261,31 +2275,31 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B37">
-        <v>0.53705999999999998</v>
+        <v>0.55613999999999997</v>
       </c>
       <c r="C37">
-        <v>1.227E-2</v>
+        <v>1.09E-2</v>
       </c>
       <c r="D37">
-        <v>1.073E-2</v>
+        <v>1.499E-2</v>
       </c>
       <c r="E37">
-        <v>1.3809999999999999E-2</v>
+        <v>1.519E-2</v>
       </c>
       <c r="F37">
-        <v>2.0799999999999999E-2</v>
+        <v>2.6509999999999999E-2</v>
       </c>
       <c r="G37">
-        <v>3.184E-2</v>
+        <v>7.4730000000000005E-2</v>
       </c>
       <c r="H37">
-        <v>2.2380000000000001E-2</v>
+        <v>3.2620000000000003E-2</v>
       </c>
       <c r="I37">
-        <v>2.9940000000000001E-2</v>
+        <v>2.691E-2</v>
       </c>
       <c r="J37" t="b">
         <v>1</v>
@@ -2296,34 +2310,34 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B38">
-        <v>0.52836000000000005</v>
+        <v>0.54423999999999995</v>
       </c>
       <c r="C38">
-        <v>9.1999999999999998E-3</v>
+        <v>1.533E-2</v>
       </c>
       <c r="D38">
-        <v>1.039E-2</v>
+        <v>1.482E-2</v>
       </c>
       <c r="E38">
-        <v>1.0120000000000001E-2</v>
+        <v>2.07E-2</v>
       </c>
       <c r="F38">
-        <v>1.6369999999999999E-2</v>
+        <v>2.9659999999999999E-2</v>
       </c>
       <c r="G38">
-        <v>3.1559999999999998E-2</v>
+        <v>4.6050000000000001E-2</v>
       </c>
       <c r="H38">
-        <v>1.831E-2</v>
+        <v>3.1969999999999998E-2</v>
       </c>
       <c r="I38">
-        <v>2.129E-2</v>
+        <v>3.9719999999999998E-2</v>
       </c>
       <c r="J38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K38" t="b">
         <v>0</v>
@@ -2331,101 +2345,101 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="B39">
-        <v>0.53256000000000003</v>
+        <v>0.54615000000000002</v>
       </c>
       <c r="C39">
-        <v>1.09E-2</v>
+        <v>1.329E-2</v>
       </c>
       <c r="D39">
-        <v>1.022E-2</v>
+        <v>1.414E-2</v>
       </c>
       <c r="E39">
-        <v>1.247E-2</v>
+        <v>1.4500000000000001E-2</v>
       </c>
       <c r="F39">
-        <v>2.4199999999999999E-2</v>
+        <v>1.523E-2</v>
       </c>
       <c r="G39">
-        <v>3.9829999999999997E-2</v>
+        <v>4.6010000000000002E-2</v>
       </c>
       <c r="H39">
-        <v>2.1950000000000001E-2</v>
+        <v>2.75E-2</v>
       </c>
       <c r="I39">
-        <v>2.6120000000000001E-2</v>
+        <v>3.9329999999999997E-2</v>
       </c>
       <c r="J39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>35</v>
-      </c>
-      <c r="B40">
-        <v>0.53256999999999999</v>
-      </c>
-      <c r="C40">
-        <v>1.158E-2</v>
-      </c>
-      <c r="D40">
-        <v>1.022E-2</v>
-      </c>
-      <c r="E40">
-        <v>1.189E-2</v>
-      </c>
-      <c r="F40">
-        <v>1.908E-2</v>
-      </c>
-      <c r="G40">
-        <v>3.9829999999999997E-2</v>
-      </c>
-      <c r="H40">
-        <v>2.1729999999999999E-2</v>
-      </c>
-      <c r="I40">
-        <v>2.699E-2</v>
-      </c>
-      <c r="J40" t="b">
-        <v>0</v>
-      </c>
-      <c r="K40" t="b">
+      <c r="A40" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1">
+        <v>0.53895000000000004</v>
+      </c>
+      <c r="C40" s="1">
+        <v>1.533E-2</v>
+      </c>
+      <c r="D40" s="1">
+        <v>1.363E-2</v>
+      </c>
+      <c r="E40" s="1">
+        <v>1.3480000000000001E-2</v>
+      </c>
+      <c r="F40" s="1">
+        <v>2.2179999999999998E-2</v>
+      </c>
+      <c r="G40" s="1">
+        <v>3.9059999999999997E-2</v>
+      </c>
+      <c r="H40" s="1">
+        <v>2.4740000000000002E-2</v>
+      </c>
+      <c r="I40" s="1">
+        <v>3.2710000000000003E-2</v>
+      </c>
+      <c r="J40" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K40" s="1" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="B41">
-        <v>0.53895999999999999</v>
+        <v>0.54432999999999998</v>
       </c>
       <c r="C41">
-        <v>1.124E-2</v>
+        <v>1.397E-2</v>
       </c>
       <c r="D41">
-        <v>1.005E-2</v>
+        <v>1.329E-2</v>
       </c>
       <c r="E41">
-        <v>1.051E-2</v>
+        <v>1.6899999999999998E-2</v>
       </c>
       <c r="F41">
-        <v>2.6429999999999999E-2</v>
+        <v>2.8989999999999998E-2</v>
       </c>
       <c r="G41">
-        <v>4.6170000000000003E-2</v>
+        <v>4.8460000000000003E-2</v>
       </c>
       <c r="H41">
-        <v>2.1669999999999998E-2</v>
+        <v>2.845E-2</v>
       </c>
       <c r="I41">
-        <v>1.9279999999999999E-2</v>
+        <v>3.1780000000000003E-2</v>
       </c>
       <c r="J41" t="b">
         <v>1</v>
@@ -2436,31 +2450,31 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="B42">
-        <v>0.53251000000000004</v>
+        <v>0.53873000000000004</v>
       </c>
       <c r="C42">
-        <v>9.8799999999999999E-3</v>
+        <v>1.158E-2</v>
       </c>
       <c r="D42">
-        <v>9.8799999999999999E-3</v>
+        <v>1.295E-2</v>
       </c>
       <c r="E42">
-        <v>9.1500000000000001E-3</v>
+        <v>1.098E-2</v>
       </c>
       <c r="F42">
-        <v>1.3990000000000001E-2</v>
+        <v>1.1900000000000001E-2</v>
       </c>
       <c r="G42">
-        <v>2.623E-2</v>
+        <v>3.8129999999999997E-2</v>
       </c>
       <c r="H42">
-        <v>1.695E-2</v>
+        <v>2.2040000000000001E-2</v>
       </c>
       <c r="I42">
-        <v>2.3939999999999999E-2</v>
+        <v>2.827E-2</v>
       </c>
       <c r="J42" t="b">
         <v>1</v>
@@ -2471,31 +2485,31 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B43">
-        <v>0.52976999999999996</v>
+        <v>0.54571999999999998</v>
       </c>
       <c r="C43">
-        <v>7.1599999999999997E-3</v>
+        <v>8.5199999999999998E-3</v>
       </c>
       <c r="D43">
-        <v>9.8799999999999999E-3</v>
+        <v>1.261E-2</v>
       </c>
       <c r="E43">
-        <v>7.9399999999999991E-3</v>
+        <v>1.41E-2</v>
       </c>
       <c r="F43">
-        <v>9.6900000000000007E-3</v>
+        <v>1.532E-2</v>
       </c>
       <c r="G43">
-        <v>2.9860000000000001E-2</v>
+        <v>5.8470000000000001E-2</v>
       </c>
       <c r="H43">
-        <v>1.61E-2</v>
+        <v>2.7550000000000002E-2</v>
       </c>
       <c r="I43">
-        <v>1.8370000000000001E-2</v>
+        <v>2.5659999999999999E-2</v>
       </c>
       <c r="J43" t="b">
         <v>1</v>
@@ -2506,31 +2520,31 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B44">
-        <v>0.53242999999999996</v>
+        <v>0.54169</v>
       </c>
       <c r="C44">
-        <v>5.45E-3</v>
+        <v>8.8599999999999998E-3</v>
       </c>
       <c r="D44">
-        <v>9.8799999999999999E-3</v>
+        <v>1.227E-2</v>
       </c>
       <c r="E44">
-        <v>5.7400000000000003E-3</v>
+        <v>9.3900000000000008E-3</v>
       </c>
       <c r="F44">
-        <v>4.1399999999999996E-3</v>
+        <v>1.0160000000000001E-2</v>
       </c>
       <c r="G44">
-        <v>3.4840000000000003E-2</v>
+        <v>3.9350000000000003E-2</v>
       </c>
       <c r="H44">
-        <v>1.515E-2</v>
+        <v>2.0230000000000001E-2</v>
       </c>
       <c r="I44">
-        <v>1.6799999999999999E-2</v>
+        <v>2.1829999999999999E-2</v>
       </c>
       <c r="J44" t="b">
         <v>1</v>
@@ -2541,34 +2555,34 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B45">
-        <v>0.53522000000000003</v>
+        <v>0.53534999999999999</v>
       </c>
       <c r="C45">
-        <v>1.397E-2</v>
+        <v>1.499E-2</v>
       </c>
       <c r="D45">
-        <v>9.3699999999999999E-3</v>
+        <v>1.175E-2</v>
       </c>
       <c r="E45">
-        <v>1.6979999999999999E-2</v>
+        <v>1.1730000000000001E-2</v>
       </c>
       <c r="F45">
-        <v>3.1220000000000001E-2</v>
+        <v>2.5309999999999999E-2</v>
       </c>
       <c r="G45">
-        <v>3.8739999999999997E-2</v>
+        <v>3.4790000000000001E-2</v>
       </c>
       <c r="H45">
-        <v>2.6200000000000001E-2</v>
+        <v>2.172E-2</v>
       </c>
       <c r="I45">
-        <v>3.6040000000000003E-2</v>
+        <v>2.7799999999999998E-2</v>
       </c>
       <c r="J45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K45" t="b">
         <v>0</v>
@@ -2576,31 +2590,31 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B46">
-        <v>0.52895999999999999</v>
+        <v>0.53976000000000002</v>
       </c>
       <c r="C46">
-        <v>8.8599999999999998E-3</v>
+        <v>1.261E-2</v>
       </c>
       <c r="D46">
-        <v>9.3699999999999999E-3</v>
+        <v>1.141E-2</v>
       </c>
       <c r="E46">
-        <v>8.2699999999999996E-3</v>
+        <v>1.299E-2</v>
       </c>
       <c r="F46">
-        <v>1.4670000000000001E-2</v>
+        <v>2.2089999999999999E-2</v>
       </c>
       <c r="G46">
-        <v>3.074E-2</v>
+        <v>4.054E-2</v>
       </c>
       <c r="H46">
-        <v>1.6760000000000001E-2</v>
+        <v>2.341E-2</v>
       </c>
       <c r="I46">
-        <v>2.2870000000000001E-2</v>
+        <v>2.7119999999999998E-2</v>
       </c>
       <c r="J46" t="b">
         <v>1</v>
@@ -2611,34 +2625,34 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B47">
-        <v>0.52922000000000002</v>
+        <v>0.53720000000000001</v>
       </c>
       <c r="C47">
+        <v>1.09E-2</v>
+      </c>
+      <c r="D47">
         <v>1.124E-2</v>
       </c>
-      <c r="D47">
-        <v>9.3699999999999999E-3</v>
-      </c>
       <c r="E47">
-        <v>8.0999999999999996E-3</v>
+        <v>1.146E-2</v>
       </c>
       <c r="F47">
-        <v>1.44E-2</v>
+        <v>1.8880000000000001E-2</v>
       </c>
       <c r="G47">
-        <v>3.074E-2</v>
+        <v>4.0910000000000002E-2</v>
       </c>
       <c r="H47">
-        <v>1.6670000000000001E-2</v>
+        <v>2.1919999999999999E-2</v>
       </c>
       <c r="I47">
-        <v>2.3560000000000001E-2</v>
+        <v>2.6110000000000001E-2</v>
       </c>
       <c r="J47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K47" t="b">
         <v>0</v>
@@ -2646,34 +2660,34 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B48">
-        <v>0.52692000000000005</v>
+        <v>0.53718999999999995</v>
       </c>
       <c r="C48">
-        <v>7.8399999999999997E-3</v>
+        <v>1.09E-2</v>
       </c>
       <c r="D48">
-        <v>8.6899999999999998E-3</v>
+        <v>1.124E-2</v>
       </c>
       <c r="E48">
-        <v>8.9300000000000004E-3</v>
+        <v>1.085E-2</v>
       </c>
       <c r="F48">
-        <v>1.248E-2</v>
+        <v>2.0490000000000001E-2</v>
       </c>
       <c r="G48">
-        <v>2.4979999999999999E-2</v>
+        <v>4.0910000000000002E-2</v>
       </c>
       <c r="H48">
-        <v>1.5970000000000002E-2</v>
+        <v>2.1270000000000001E-2</v>
       </c>
       <c r="I48">
-        <v>2.648E-2</v>
+        <v>2.3810000000000001E-2</v>
       </c>
       <c r="J48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K48" t="b">
         <v>0</v>
@@ -2681,31 +2695,31 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B49">
-        <v>0.52464999999999995</v>
+        <v>0.53454999999999997</v>
       </c>
       <c r="C49">
-        <v>6.8100000000000001E-3</v>
+        <v>1.193E-2</v>
       </c>
       <c r="D49">
-        <v>7.6699999999999997E-3</v>
+        <v>1.09E-2</v>
       </c>
       <c r="E49">
-        <v>7.79E-3</v>
+        <v>9.2099999999999994E-3</v>
       </c>
       <c r="F49">
-        <v>9.4699999999999993E-3</v>
+        <v>2.4819999999999998E-2</v>
       </c>
       <c r="G49">
-        <v>1.7909999999999999E-2</v>
+        <v>3.5119999999999998E-2</v>
       </c>
       <c r="H49">
-        <v>1.34E-2</v>
+        <v>1.8859999999999998E-2</v>
       </c>
       <c r="I49">
-        <v>2.205E-2</v>
+        <v>2.155E-2</v>
       </c>
       <c r="J49" t="b">
         <v>1</v>
@@ -2716,31 +2730,31 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B50">
-        <v>0.52546999999999999</v>
+        <v>0.53705999999999998</v>
       </c>
       <c r="C50">
-        <v>5.45E-3</v>
+        <v>1.227E-2</v>
       </c>
       <c r="D50">
-        <v>7.6699999999999997E-3</v>
+        <v>1.073E-2</v>
       </c>
       <c r="E50">
-        <v>6.45E-3</v>
+        <v>1.3809999999999999E-2</v>
       </c>
       <c r="F50">
-        <v>8.2799999999999992E-3</v>
+        <v>2.0799999999999999E-2</v>
       </c>
       <c r="G50">
-        <v>2.546E-2</v>
+        <v>3.184E-2</v>
       </c>
       <c r="H50">
-        <v>1.3520000000000001E-2</v>
+        <v>2.2380000000000001E-2</v>
       </c>
       <c r="I50">
-        <v>1.583E-2</v>
+        <v>2.9940000000000001E-2</v>
       </c>
       <c r="J50" t="b">
         <v>1</v>
@@ -2751,31 +2765,31 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B51">
-        <v>0.52442</v>
+        <v>0.53895999999999999</v>
       </c>
       <c r="C51">
-        <v>7.8399999999999997E-3</v>
+        <v>1.124E-2</v>
       </c>
       <c r="D51">
-        <v>7.6699999999999997E-3</v>
+        <v>1.005E-2</v>
       </c>
       <c r="E51">
-        <v>5.0400000000000002E-3</v>
+        <v>1.051E-2</v>
       </c>
       <c r="F51">
-        <v>1.017E-2</v>
+        <v>2.6429999999999999E-2</v>
       </c>
       <c r="G51">
-        <v>1.7909999999999999E-2</v>
+        <v>4.6170000000000003E-2</v>
       </c>
       <c r="H51">
-        <v>1.072E-2</v>
+        <v>2.1669999999999998E-2</v>
       </c>
       <c r="I51">
-        <v>1.474E-2</v>
+        <v>1.9279999999999999E-2</v>
       </c>
       <c r="J51" t="b">
         <v>1</v>
@@ -2786,31 +2800,31 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="B52">
-        <v>0.52495999999999998</v>
+        <v>0.53251000000000004</v>
       </c>
       <c r="C52">
-        <v>8.8599999999999998E-3</v>
+        <v>9.8799999999999999E-3</v>
       </c>
       <c r="D52">
-        <v>6.9800000000000001E-3</v>
+        <v>9.8799999999999999E-3</v>
       </c>
       <c r="E52">
-        <v>5.0099999999999997E-3</v>
+        <v>9.1500000000000001E-3</v>
       </c>
       <c r="F52">
-        <v>1.285E-2</v>
+        <v>1.3990000000000001E-2</v>
       </c>
       <c r="G52">
-        <v>1.8859999999999998E-2</v>
+        <v>2.623E-2</v>
       </c>
       <c r="H52">
-        <v>1.1480000000000001E-2</v>
+        <v>1.695E-2</v>
       </c>
       <c r="I52">
-        <v>1.6310000000000002E-2</v>
+        <v>2.3939999999999999E-2</v>
       </c>
       <c r="J52" t="b">
         <v>1</v>
@@ -2821,34 +2835,34 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B53">
-        <v>0.52312000000000003</v>
+        <v>0.52976999999999996</v>
       </c>
       <c r="C53">
-        <v>6.13E-3</v>
+        <v>7.1599999999999997E-3</v>
       </c>
       <c r="D53">
-        <v>6.6400000000000001E-3</v>
+        <v>9.8799999999999999E-3</v>
       </c>
       <c r="E53">
-        <v>4.96E-3</v>
+        <v>7.9399999999999991E-3</v>
       </c>
       <c r="F53">
-        <v>9.5200000000000007E-3</v>
+        <v>9.6900000000000007E-3</v>
       </c>
       <c r="G53">
-        <v>1.899E-2</v>
+        <v>2.9860000000000001E-2</v>
       </c>
       <c r="H53">
-        <v>1.0970000000000001E-2</v>
+        <v>1.61E-2</v>
       </c>
       <c r="I53">
-        <v>1.6719999999999999E-2</v>
+        <v>1.8370000000000001E-2</v>
       </c>
       <c r="J53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K53" t="b">
         <v>0</v>
@@ -2856,34 +2870,34 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B54">
-        <v>0.52300999999999997</v>
+        <v>0.53242999999999996</v>
       </c>
       <c r="C54">
-        <v>5.11E-3</v>
+        <v>5.45E-3</v>
       </c>
       <c r="D54">
-        <v>6.6400000000000001E-3</v>
+        <v>9.8799999999999999E-3</v>
       </c>
       <c r="E54">
-        <v>4.8999999999999998E-3</v>
+        <v>5.7400000000000003E-3</v>
       </c>
       <c r="F54">
-        <v>8.43E-3</v>
+        <v>4.1399999999999996E-3</v>
       </c>
       <c r="G54">
-        <v>1.899E-2</v>
+        <v>3.4840000000000003E-2</v>
       </c>
       <c r="H54">
-        <v>1.0670000000000001E-2</v>
+        <v>1.515E-2</v>
       </c>
       <c r="I54">
-        <v>1.538E-2</v>
+        <v>1.6799999999999999E-2</v>
       </c>
       <c r="J54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K54" t="b">
         <v>0</v>
@@ -2891,34 +2905,34 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="B55">
-        <v>0.52344999999999997</v>
+        <v>0.52895999999999999</v>
       </c>
       <c r="C55">
-        <v>4.7699999999999999E-3</v>
+        <v>8.8599999999999998E-3</v>
       </c>
       <c r="D55">
-        <v>6.3E-3</v>
+        <v>9.3699999999999999E-3</v>
       </c>
       <c r="E55">
-        <v>4.0400000000000002E-3</v>
+        <v>8.2699999999999996E-3</v>
       </c>
       <c r="F55">
-        <v>6.5799999999999999E-3</v>
+        <v>1.4670000000000001E-2</v>
       </c>
       <c r="G55">
-        <v>1.821E-2</v>
+        <v>3.074E-2</v>
       </c>
       <c r="H55">
-        <v>9.9699999999999997E-3</v>
+        <v>1.6760000000000001E-2</v>
       </c>
       <c r="I55">
-        <v>1.4109999999999999E-2</v>
+        <v>2.2870000000000001E-2</v>
       </c>
       <c r="J55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K55" t="b">
         <v>0</v>
@@ -2926,31 +2940,31 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B56">
-        <v>0.52237</v>
+        <v>0.52464999999999995</v>
       </c>
       <c r="C56">
-        <v>4.4299999999999999E-3</v>
+        <v>6.8100000000000001E-3</v>
       </c>
       <c r="D56">
-        <v>6.13E-3</v>
+        <v>7.6699999999999997E-3</v>
       </c>
       <c r="E56">
-        <v>6.8399999999999997E-3</v>
+        <v>7.79E-3</v>
       </c>
       <c r="F56">
-        <v>5.4900000000000001E-3</v>
+        <v>9.4699999999999993E-3</v>
       </c>
       <c r="G56">
-        <v>2.4819999999999998E-2</v>
+        <v>1.7909999999999999E-2</v>
       </c>
       <c r="H56">
-        <v>1.261E-2</v>
+        <v>1.34E-2</v>
       </c>
       <c r="I56">
-        <v>1.7180000000000001E-2</v>
+        <v>2.205E-2</v>
       </c>
       <c r="J56" t="b">
         <v>1</v>
@@ -2961,31 +2975,31 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B57">
-        <v>0.52232999999999996</v>
+        <v>0.52546999999999999</v>
       </c>
       <c r="C57">
         <v>5.45E-3</v>
       </c>
       <c r="D57">
-        <v>6.13E-3</v>
+        <v>7.6699999999999997E-3</v>
       </c>
       <c r="E57">
-        <v>6.8100000000000001E-3</v>
+        <v>6.45E-3</v>
       </c>
       <c r="F57">
-        <v>1.149E-2</v>
+        <v>8.2799999999999992E-3</v>
       </c>
       <c r="G57">
-        <v>2.4819999999999998E-2</v>
+        <v>2.546E-2</v>
       </c>
       <c r="H57">
-        <v>1.2319999999999999E-2</v>
+        <v>1.3520000000000001E-2</v>
       </c>
       <c r="I57">
-        <v>1.2E-2</v>
+        <v>1.583E-2</v>
       </c>
       <c r="J57" t="b">
         <v>1</v>
@@ -2996,34 +3010,34 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B58">
-        <v>0.52559</v>
+        <v>0.52442</v>
       </c>
       <c r="C58">
-        <v>6.4700000000000001E-3</v>
+        <v>7.8399999999999997E-3</v>
       </c>
       <c r="D58">
-        <v>5.96E-3</v>
+        <v>7.6699999999999997E-3</v>
       </c>
       <c r="E58">
-        <v>1.073E-2</v>
+        <v>5.0400000000000002E-3</v>
       </c>
       <c r="F58">
-        <v>1.4840000000000001E-2</v>
+        <v>1.017E-2</v>
       </c>
       <c r="G58">
-        <v>2.7230000000000001E-2</v>
+        <v>1.7909999999999999E-2</v>
       </c>
       <c r="H58">
-        <v>1.661E-2</v>
+        <v>1.072E-2</v>
       </c>
       <c r="I58">
-        <v>1.9359999999999999E-2</v>
+        <v>1.474E-2</v>
       </c>
       <c r="J58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K58" t="b">
         <v>0</v>
@@ -3031,34 +3045,34 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B59">
-        <v>0.52563000000000004</v>
+        <v>0.52495999999999998</v>
       </c>
       <c r="C59">
-        <v>5.45E-3</v>
+        <v>8.8599999999999998E-3</v>
       </c>
       <c r="D59">
-        <v>5.96E-3</v>
+        <v>6.9800000000000001E-3</v>
       </c>
       <c r="E59">
-        <v>8.0700000000000008E-3</v>
+        <v>5.0099999999999997E-3</v>
       </c>
       <c r="F59">
-        <v>1.519E-2</v>
+        <v>1.285E-2</v>
       </c>
       <c r="G59">
-        <v>2.7230000000000001E-2</v>
+        <v>1.8859999999999998E-2</v>
       </c>
       <c r="H59">
-        <v>1.4500000000000001E-2</v>
+        <v>1.1480000000000001E-2</v>
       </c>
       <c r="I59">
-        <v>1.6379999999999999E-2</v>
+        <v>1.6310000000000002E-2</v>
       </c>
       <c r="J59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K59" t="b">
         <v>0</v>
@@ -3066,34 +3080,34 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B60">
-        <v>0.52173999999999998</v>
+        <v>0.52237</v>
       </c>
       <c r="C60">
-        <v>5.11E-3</v>
+        <v>4.4299999999999999E-3</v>
       </c>
       <c r="D60">
-        <v>5.62E-3</v>
+        <v>6.13E-3</v>
       </c>
       <c r="E60">
-        <v>4.9199999999999999E-3</v>
+        <v>6.8399999999999997E-3</v>
       </c>
       <c r="F60">
-        <v>8.7299999999999999E-3</v>
+        <v>5.4900000000000001E-3</v>
       </c>
       <c r="G60">
-        <v>1.8079999999999999E-2</v>
+        <v>2.4819999999999998E-2</v>
       </c>
       <c r="H60">
-        <v>9.8499999999999994E-3</v>
+        <v>1.261E-2</v>
       </c>
       <c r="I60">
-        <v>1.159E-2</v>
+        <v>1.7180000000000001E-2</v>
       </c>
       <c r="J60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K60" t="b">
         <v>0</v>
@@ -3101,31 +3115,31 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B61">
-        <v>0.5151</v>
+        <v>0.52232999999999996</v>
       </c>
       <c r="C61">
-        <v>4.7699999999999999E-3</v>
+        <v>5.45E-3</v>
       </c>
       <c r="D61">
-        <v>5.28E-3</v>
+        <v>6.13E-3</v>
       </c>
       <c r="E61">
-        <v>2.5799999999999998E-3</v>
+        <v>6.8100000000000001E-3</v>
       </c>
       <c r="F61">
-        <v>4.4200000000000003E-3</v>
+        <v>1.149E-2</v>
       </c>
       <c r="G61">
-        <v>1.1639999999999999E-2</v>
+        <v>2.4819999999999998E-2</v>
       </c>
       <c r="H61">
-        <v>6.4999999999999997E-3</v>
+        <v>1.2319999999999999E-2</v>
       </c>
       <c r="I61">
-        <v>1.039E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="J61" t="b">
         <v>1</v>
@@ -3136,34 +3150,34 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B62">
-        <v>0.51441999999999999</v>
+        <v>0.5151</v>
       </c>
       <c r="C62">
-        <v>2.0400000000000001E-3</v>
+        <v>4.7699999999999999E-3</v>
       </c>
       <c r="D62">
-        <v>3.9199999999999999E-3</v>
+        <v>5.28E-3</v>
       </c>
       <c r="E62">
-        <v>2.5899999999999999E-3</v>
+        <v>2.5799999999999998E-3</v>
       </c>
       <c r="F62">
-        <v>4.6899999999999997E-3</v>
+        <v>4.4200000000000003E-3</v>
       </c>
       <c r="G62">
-        <v>1.4880000000000001E-2</v>
+        <v>1.1639999999999999E-2</v>
       </c>
       <c r="H62">
-        <v>6.4700000000000001E-3</v>
+        <v>6.4999999999999997E-3</v>
       </c>
       <c r="I62">
-        <v>6.5900000000000004E-3</v>
+        <v>1.039E-2</v>
       </c>
       <c r="J62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K62" t="b">
         <v>0</v>
@@ -3206,18 +3220,4426 @@
     </row>
   </sheetData>
   <sortState ref="A2:K64">
-    <sortCondition descending="1" ref="D1"/>
+    <sortCondition ref="J1"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08BDC9E5-2DD4-487F-BE35-736A77744CD9}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:K125"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="38.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2">
+        <v>0.57520000000000004</v>
+      </c>
+      <c r="C2">
+        <v>2.419E-2</v>
+      </c>
+      <c r="D2">
+        <v>1.908E-2</v>
+      </c>
+      <c r="E2">
+        <v>4.9320000000000003E-2</v>
+      </c>
+      <c r="F2">
+        <v>7.8299999999999995E-2</v>
+      </c>
+      <c r="G2">
+        <v>0.10763</v>
+      </c>
+      <c r="H2">
+        <v>6.8239999999999995E-2</v>
+      </c>
+      <c r="I2">
+        <v>6.7199999999999996E-2</v>
+      </c>
+      <c r="J2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.57374000000000003</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2.828E-2</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2.01E-2</v>
+      </c>
+      <c r="E3" s="2">
+        <v>4.6690000000000002E-2</v>
+      </c>
+      <c r="F3" s="2">
+        <v>8.1339999999999996E-2</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.10602</v>
+      </c>
+      <c r="H3" s="2">
+        <v>6.6559999999999994E-2</v>
+      </c>
+      <c r="I3" s="2">
+        <v>7.0819999999999994E-2</v>
+      </c>
+      <c r="J3" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K3" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.55495000000000005</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1.84E-2</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1.465E-2</v>
+      </c>
+      <c r="E4" s="2">
+        <v>4.6429999999999999E-2</v>
+      </c>
+      <c r="F4" s="2">
+        <v>5.1880000000000003E-2</v>
+      </c>
+      <c r="G4" s="2">
+        <v>7.1800000000000003E-2</v>
+      </c>
+      <c r="H4" s="2">
+        <v>5.7439999999999998E-2</v>
+      </c>
+      <c r="I4" s="2">
+        <v>6.9819999999999993E-2</v>
+      </c>
+      <c r="J4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.57372999999999996</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1.908E-2</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1.942E-2</v>
+      </c>
+      <c r="E5" s="2">
+        <v>4.1430000000000002E-2</v>
+      </c>
+      <c r="F5" s="2">
+        <v>5.3850000000000002E-2</v>
+      </c>
+      <c r="G5" s="2">
+        <v>9.9070000000000005E-2</v>
+      </c>
+      <c r="H5" s="2">
+        <v>6.0060000000000002E-2</v>
+      </c>
+      <c r="I5" s="2">
+        <v>6.0089999999999998E-2</v>
+      </c>
+      <c r="J5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K5" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6">
+        <v>0.54962999999999995</v>
+      </c>
+      <c r="C6">
+        <v>2.112E-2</v>
+      </c>
+      <c r="D6">
+        <v>1.141E-2</v>
+      </c>
+      <c r="E6">
+        <v>3.9660000000000001E-2</v>
+      </c>
+      <c r="F6">
+        <v>5.8439999999999999E-2</v>
+      </c>
+      <c r="G6">
+        <v>6.3479999999999995E-2</v>
+      </c>
+      <c r="H6">
+        <v>5.0930000000000003E-2</v>
+      </c>
+      <c r="I6">
+        <v>6.6589999999999996E-2</v>
+      </c>
+      <c r="J6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.58772000000000002</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2.215E-2</v>
+      </c>
+      <c r="D7" s="2">
+        <v>2.198E-2</v>
+      </c>
+      <c r="E7" s="2">
+        <v>3.6179999999999997E-2</v>
+      </c>
+      <c r="F7" s="2">
+        <v>6.9400000000000003E-2</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.12756000000000001</v>
+      </c>
+      <c r="H7" s="2">
+        <v>6.2280000000000002E-2</v>
+      </c>
+      <c r="I7" s="2">
+        <v>4.9700000000000001E-2</v>
+      </c>
+      <c r="J7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8">
+        <v>0.54168000000000005</v>
+      </c>
+      <c r="C8">
+        <v>1.499E-2</v>
+      </c>
+      <c r="D8">
+        <v>1.175E-2</v>
+      </c>
+      <c r="E8">
+        <v>3.6049999999999999E-2</v>
+      </c>
+      <c r="F8">
+        <v>4.0300000000000002E-2</v>
+      </c>
+      <c r="G8">
+        <v>5.1880000000000003E-2</v>
+      </c>
+      <c r="H8">
+        <v>4.4089999999999997E-2</v>
+      </c>
+      <c r="I8">
+        <v>5.672E-2</v>
+      </c>
+      <c r="J8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <v>0.58296999999999999</v>
+      </c>
+      <c r="C9">
+        <v>1.976E-2</v>
+      </c>
+      <c r="D9">
+        <v>2.095E-2</v>
+      </c>
+      <c r="E9">
+        <v>3.456E-2</v>
+      </c>
+      <c r="F9">
+        <v>6.2659999999999993E-2</v>
+      </c>
+      <c r="G9">
+        <v>0.11926</v>
+      </c>
+      <c r="H9">
+        <v>5.8959999999999999E-2</v>
+      </c>
+      <c r="I9">
+        <v>4.761E-2</v>
+      </c>
+      <c r="J9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.57357999999999998</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2.76E-2</v>
+      </c>
+      <c r="D10" s="2">
+        <v>2.01E-2</v>
+      </c>
+      <c r="E10" s="2">
+        <v>3.3799999999999997E-2</v>
+      </c>
+      <c r="F10" s="2">
+        <v>7.2109999999999994E-2</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0.10602</v>
+      </c>
+      <c r="H10" s="2">
+        <v>5.654E-2</v>
+      </c>
+      <c r="I10" s="2">
+        <v>5.7290000000000001E-2</v>
+      </c>
+      <c r="J10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11">
+        <v>0.56013999999999997</v>
+      </c>
+      <c r="C11">
+        <v>2.044E-2</v>
+      </c>
+      <c r="D11">
+        <v>1.721E-2</v>
+      </c>
+      <c r="E11">
+        <v>3.048E-2</v>
+      </c>
+      <c r="F11">
+        <v>4.9450000000000001E-2</v>
+      </c>
+      <c r="G11">
+        <v>8.609E-2</v>
+      </c>
+      <c r="H11">
+        <v>4.7800000000000002E-2</v>
+      </c>
+      <c r="I11">
+        <v>4.641E-2</v>
+      </c>
+      <c r="J11" t="b">
+        <v>1</v>
+      </c>
+      <c r="K11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.58087</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1.397E-2</v>
+      </c>
+      <c r="D12" s="2">
+        <v>2.147E-2</v>
+      </c>
+      <c r="E12" s="2">
+        <v>2.971E-2</v>
+      </c>
+      <c r="F12" s="2">
+        <v>3.4430000000000002E-2</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0.10857</v>
+      </c>
+      <c r="H12" s="2">
+        <v>5.3780000000000001E-2</v>
+      </c>
+      <c r="I12" s="2">
+        <v>5.271E-2</v>
+      </c>
+      <c r="J12" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K12" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13">
+        <v>0.55286000000000002</v>
+      </c>
+      <c r="C13">
+        <v>1.635E-2</v>
+      </c>
+      <c r="D13">
+        <v>1.601E-2</v>
+      </c>
+      <c r="E13">
+        <v>2.8590000000000001E-2</v>
+      </c>
+      <c r="F13">
+        <v>3.1879999999999999E-2</v>
+      </c>
+      <c r="G13">
+        <v>5.8119999999999998E-2</v>
+      </c>
+      <c r="H13">
+        <v>4.0939999999999997E-2</v>
+      </c>
+      <c r="I13">
+        <v>4.82E-2</v>
+      </c>
+      <c r="J13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0.57493000000000005</v>
+      </c>
+      <c r="C14" s="3">
+        <v>2.351E-2</v>
+      </c>
+      <c r="D14" s="3">
+        <v>2.385E-2</v>
+      </c>
+      <c r="E14" s="3">
+        <v>2.7660000000000001E-2</v>
+      </c>
+      <c r="F14" s="3">
+        <v>4.5069999999999999E-2</v>
+      </c>
+      <c r="G14" s="3">
+        <v>9.3729999999999994E-2</v>
+      </c>
+      <c r="H14" s="3">
+        <v>5.074E-2</v>
+      </c>
+      <c r="I14" s="3">
+        <v>5.543E-2</v>
+      </c>
+      <c r="J14" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.59560000000000002</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1.601E-2</v>
+      </c>
+      <c r="D15" s="2">
+        <v>2.385E-2</v>
+      </c>
+      <c r="E15" s="2">
+        <v>2.6530000000000001E-2</v>
+      </c>
+      <c r="F15" s="2">
+        <v>4.2259999999999999E-2</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0.13919000000000001</v>
+      </c>
+      <c r="H15" s="2">
+        <v>5.7119999999999997E-2</v>
+      </c>
+      <c r="I15" s="2">
+        <v>4.1140000000000003E-2</v>
+      </c>
+      <c r="J15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K15" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0.57487999999999995</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1.908E-2</v>
+      </c>
+      <c r="D16" s="3">
+        <v>2.385E-2</v>
+      </c>
+      <c r="E16" s="3">
+        <v>2.6409999999999999E-2</v>
+      </c>
+      <c r="F16" s="3">
+        <v>3.6249999999999998E-2</v>
+      </c>
+      <c r="G16" s="3">
+        <v>9.3729999999999994E-2</v>
+      </c>
+      <c r="H16" s="3">
+        <v>4.8849999999999998E-2</v>
+      </c>
+      <c r="I16" s="3">
+        <v>4.7230000000000001E-2</v>
+      </c>
+      <c r="J16" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="K16" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.56369000000000002</v>
+      </c>
+      <c r="C17" s="2">
+        <v>2.317E-2</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1.857E-2</v>
+      </c>
+      <c r="E17" s="2">
+        <v>2.5499999999999998E-2</v>
+      </c>
+      <c r="F17" s="2">
+        <v>4.8070000000000002E-2</v>
+      </c>
+      <c r="G17" s="2">
+        <v>7.0349999999999996E-2</v>
+      </c>
+      <c r="H17" s="2">
+        <v>4.2509999999999999E-2</v>
+      </c>
+      <c r="I17" s="2">
+        <v>4.8370000000000003E-2</v>
+      </c>
+      <c r="J17" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K17" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.56457999999999997</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1.976E-2</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1.721E-2</v>
+      </c>
+      <c r="E18" s="2">
+        <v>2.3890000000000002E-2</v>
+      </c>
+      <c r="F18" s="2">
+        <v>5.042E-2</v>
+      </c>
+      <c r="G18" s="2">
+        <v>7.961E-2</v>
+      </c>
+      <c r="H18" s="2">
+        <v>4.2380000000000001E-2</v>
+      </c>
+      <c r="I18" s="2">
+        <v>4.0289999999999999E-2</v>
+      </c>
+      <c r="J18" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K18" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.54571000000000003</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1.567E-2</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1.346E-2</v>
+      </c>
+      <c r="E19" s="2">
+        <v>2.341E-2</v>
+      </c>
+      <c r="F19" s="2">
+        <v>2.98E-2</v>
+      </c>
+      <c r="G19" s="2">
+        <v>5.4390000000000001E-2</v>
+      </c>
+      <c r="H19" s="2">
+        <v>3.5340000000000003E-2</v>
+      </c>
+      <c r="I19" s="2">
+        <v>4.4299999999999999E-2</v>
+      </c>
+      <c r="J19" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K19" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20">
+        <v>0.56401000000000001</v>
+      </c>
+      <c r="C20">
+        <v>1.567E-2</v>
+      </c>
+      <c r="D20">
+        <v>1.704E-2</v>
+      </c>
+      <c r="E20">
+        <v>2.3369999999999998E-2</v>
+      </c>
+      <c r="F20">
+        <v>4.2540000000000001E-2</v>
+      </c>
+      <c r="G20">
+        <v>8.4229999999999999E-2</v>
+      </c>
+      <c r="H20">
+        <v>4.2700000000000002E-2</v>
+      </c>
+      <c r="I20">
+        <v>4.1570000000000003E-2</v>
+      </c>
+      <c r="J20" t="b">
+        <v>1</v>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0.55981000000000003</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1.567E-2</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1.67E-2</v>
+      </c>
+      <c r="E21" s="2">
+        <v>2.3210000000000001E-2</v>
+      </c>
+      <c r="F21" s="2">
+        <v>3.8830000000000003E-2</v>
+      </c>
+      <c r="G21" s="2">
+        <v>6.6600000000000006E-2</v>
+      </c>
+      <c r="H21" s="2">
+        <v>3.9030000000000002E-2</v>
+      </c>
+      <c r="I21" s="2">
+        <v>4.3790000000000003E-2</v>
+      </c>
+      <c r="J21" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K21" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.56181999999999999</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1.874E-2</v>
+      </c>
+      <c r="D22" s="1">
+        <v>2.095E-2</v>
+      </c>
+      <c r="E22" s="1">
+        <v>2.3189999999999999E-2</v>
+      </c>
+      <c r="F22" s="1">
+        <v>3.4689999999999999E-2</v>
+      </c>
+      <c r="G22" s="1">
+        <v>7.3800000000000004E-2</v>
+      </c>
+      <c r="H22" s="1">
+        <v>4.1549999999999997E-2</v>
+      </c>
+      <c r="I22" s="1">
+        <v>4.2599999999999999E-2</v>
+      </c>
+      <c r="J22" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K22" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23">
+        <v>0.55193999999999999</v>
+      </c>
+      <c r="C23">
+        <v>1.601E-2</v>
+      </c>
+      <c r="D23">
+        <v>1.465E-2</v>
+      </c>
+      <c r="E23">
+        <v>2.2769999999999999E-2</v>
+      </c>
+      <c r="F23">
+        <v>3.3649999999999999E-2</v>
+      </c>
+      <c r="G23">
+        <v>6.4500000000000002E-2</v>
+      </c>
+      <c r="H23">
+        <v>3.6650000000000002E-2</v>
+      </c>
+      <c r="I23">
+        <v>3.9969999999999999E-2</v>
+      </c>
+      <c r="J23" t="b">
+        <v>0</v>
+      </c>
+      <c r="K23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0.58401000000000003</v>
+      </c>
+      <c r="C24" s="2">
+        <v>1.533E-2</v>
+      </c>
+      <c r="D24" s="2">
+        <v>2.044E-2</v>
+      </c>
+      <c r="E24" s="2">
+        <v>2.2370000000000001E-2</v>
+      </c>
+      <c r="F24" s="2">
+        <v>4.1160000000000002E-2</v>
+      </c>
+      <c r="G24" s="2">
+        <v>0.12275999999999999</v>
+      </c>
+      <c r="H24" s="2">
+        <v>4.9320000000000003E-2</v>
+      </c>
+      <c r="I24" s="2">
+        <v>3.3079999999999998E-2</v>
+      </c>
+      <c r="J24" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K24" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="2">
+        <v>0.56213999999999997</v>
+      </c>
+      <c r="C25" s="2">
+        <v>1.601E-2</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1.687E-2</v>
+      </c>
+      <c r="E25" s="2">
+        <v>2.2259999999999999E-2</v>
+      </c>
+      <c r="F25" s="2">
+        <v>3.4660000000000003E-2</v>
+      </c>
+      <c r="G25" s="2">
+        <v>8.6779999999999996E-2</v>
+      </c>
+      <c r="H25" s="2">
+        <v>4.1300000000000003E-2</v>
+      </c>
+      <c r="I25" s="2">
+        <v>3.984E-2</v>
+      </c>
+      <c r="J25" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K25" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="2">
+        <v>0.55132999999999999</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1.806E-2</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1.516E-2</v>
+      </c>
+      <c r="E26" s="2">
+        <v>2.2079999999999999E-2</v>
+      </c>
+      <c r="F26" s="2">
+        <v>3.9899999999999998E-2</v>
+      </c>
+      <c r="G26" s="2">
+        <v>6.3460000000000003E-2</v>
+      </c>
+      <c r="H26" s="2">
+        <v>3.6970000000000003E-2</v>
+      </c>
+      <c r="I26" s="2">
+        <v>4.3749999999999997E-2</v>
+      </c>
+      <c r="J26" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K26" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="2">
+        <v>0.56301999999999996</v>
+      </c>
+      <c r="C27" s="2">
+        <v>1.635E-2</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1.704E-2</v>
+      </c>
+      <c r="E27" s="2">
+        <v>2.1819999999999999E-2</v>
+      </c>
+      <c r="F27" s="2">
+        <v>3.141E-2</v>
+      </c>
+      <c r="G27" s="2">
+        <v>8.4889999999999993E-2</v>
+      </c>
+      <c r="H27" s="2">
+        <v>4.1020000000000001E-2</v>
+      </c>
+      <c r="I27" s="2">
+        <v>4.3290000000000002E-2</v>
+      </c>
+      <c r="J27" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K27" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="3">
+        <v>0.56966000000000006</v>
+      </c>
+      <c r="C28" s="3">
+        <v>1.772E-2</v>
+      </c>
+      <c r="D28" s="3">
+        <v>2.232E-2</v>
+      </c>
+      <c r="E28" s="3">
+        <v>2.1389999999999999E-2</v>
+      </c>
+      <c r="F28" s="3">
+        <v>2.7470000000000001E-2</v>
+      </c>
+      <c r="G28" s="3">
+        <v>8.6260000000000003E-2</v>
+      </c>
+      <c r="H28" s="3">
+        <v>4.3290000000000002E-2</v>
+      </c>
+      <c r="I28" s="3">
+        <v>4.6429999999999999E-2</v>
+      </c>
+      <c r="J28" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K28" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="2">
+        <v>0.56581000000000004</v>
+      </c>
+      <c r="C29" s="2">
+        <v>1.533E-2</v>
+      </c>
+      <c r="D29" s="2">
+        <v>1.891E-2</v>
+      </c>
+      <c r="E29" s="2">
+        <v>2.138E-2</v>
+      </c>
+      <c r="F29" s="2">
+        <v>3.0609999999999998E-2</v>
+      </c>
+      <c r="G29" s="2">
+        <v>7.8049999999999994E-2</v>
+      </c>
+      <c r="H29" s="2">
+        <v>4.0340000000000001E-2</v>
+      </c>
+      <c r="I29" s="2">
+        <v>4.4089999999999997E-2</v>
+      </c>
+      <c r="J29" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K29" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" s="2">
+        <v>0.54786999999999997</v>
+      </c>
+      <c r="C30" s="2">
+        <v>1.09E-2</v>
+      </c>
+      <c r="D30" s="2">
+        <v>1.227E-2</v>
+      </c>
+      <c r="E30" s="2">
+        <v>2.1309999999999999E-2</v>
+      </c>
+      <c r="F30" s="2">
+        <v>2.562E-2</v>
+      </c>
+      <c r="G30" s="2">
+        <v>5.867E-2</v>
+      </c>
+      <c r="H30" s="2">
+        <v>3.3529999999999997E-2</v>
+      </c>
+      <c r="I30" s="2">
+        <v>3.4329999999999999E-2</v>
+      </c>
+      <c r="J30" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K30" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" s="2">
+        <v>0.56547000000000003</v>
+      </c>
+      <c r="C31" s="2">
+        <v>1.431E-2</v>
+      </c>
+      <c r="D31" s="2">
+        <v>1.84E-2</v>
+      </c>
+      <c r="E31" s="2">
+        <v>2.1139999999999999E-2</v>
+      </c>
+      <c r="F31" s="2">
+        <v>2.9190000000000001E-2</v>
+      </c>
+      <c r="G31" s="2">
+        <v>8.2890000000000005E-2</v>
+      </c>
+      <c r="H31" s="2">
+        <v>4.0059999999999998E-2</v>
+      </c>
+      <c r="I31" s="2">
+        <v>3.4930000000000003E-2</v>
+      </c>
+      <c r="J31" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K31" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="2">
+        <v>0.54620000000000002</v>
+      </c>
+      <c r="C32" s="2">
+        <v>1.193E-2</v>
+      </c>
+      <c r="D32" s="2">
+        <v>1.227E-2</v>
+      </c>
+      <c r="E32" s="2">
+        <v>2.0799999999999999E-2</v>
+      </c>
+      <c r="F32" s="2">
+        <v>3.1789999999999999E-2</v>
+      </c>
+      <c r="G32" s="2">
+        <v>5.7950000000000002E-2</v>
+      </c>
+      <c r="H32" s="2">
+        <v>3.3309999999999999E-2</v>
+      </c>
+      <c r="I32" s="2">
+        <v>3.7789999999999997E-2</v>
+      </c>
+      <c r="J32" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K32" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0.55127000000000004</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1.908E-2</v>
+      </c>
+      <c r="D33" s="1">
+        <v>1.755E-2</v>
+      </c>
+      <c r="E33" s="1">
+        <v>2.0740000000000001E-2</v>
+      </c>
+      <c r="F33" s="1">
+        <v>3.474E-2</v>
+      </c>
+      <c r="G33" s="1">
+        <v>5.9880000000000003E-2</v>
+      </c>
+      <c r="H33" s="1">
+        <v>3.6060000000000002E-2</v>
+      </c>
+      <c r="I33" s="1">
+        <v>4.3020000000000003E-2</v>
+      </c>
+      <c r="J33" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K33" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34">
+        <v>0.54423999999999995</v>
+      </c>
+      <c r="C34">
+        <v>1.533E-2</v>
+      </c>
+      <c r="D34">
+        <v>1.482E-2</v>
+      </c>
+      <c r="E34">
+        <v>2.07E-2</v>
+      </c>
+      <c r="F34">
+        <v>2.9659999999999999E-2</v>
+      </c>
+      <c r="G34">
+        <v>4.6050000000000001E-2</v>
+      </c>
+      <c r="H34">
+        <v>3.1969999999999998E-2</v>
+      </c>
+      <c r="I34">
+        <v>3.9719999999999998E-2</v>
+      </c>
+      <c r="J34" t="b">
+        <v>1</v>
+      </c>
+      <c r="K34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" s="3">
+        <v>0.56940000000000002</v>
+      </c>
+      <c r="C35" s="3">
+        <v>1.533E-2</v>
+      </c>
+      <c r="D35" s="3">
+        <v>2.232E-2</v>
+      </c>
+      <c r="E35" s="3">
+        <v>2.043E-2</v>
+      </c>
+      <c r="F35" s="3">
+        <v>2.5919999999999999E-2</v>
+      </c>
+      <c r="G35" s="3">
+        <v>8.6260000000000003E-2</v>
+      </c>
+      <c r="H35" s="3">
+        <v>4.1610000000000001E-2</v>
+      </c>
+      <c r="I35" s="3">
+        <v>4.0469999999999999E-2</v>
+      </c>
+      <c r="J35" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="K35" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36" s="2">
+        <v>0.54484999999999995</v>
+      </c>
+      <c r="C36" s="2">
+        <v>1.431E-2</v>
+      </c>
+      <c r="D36" s="2">
+        <v>1.244E-2</v>
+      </c>
+      <c r="E36" s="2">
+        <v>2.0049999999999998E-2</v>
+      </c>
+      <c r="F36" s="2">
+        <v>3.1460000000000002E-2</v>
+      </c>
+      <c r="G36" s="2">
+        <v>4.8469999999999999E-2</v>
+      </c>
+      <c r="H36" s="2">
+        <v>3.125E-2</v>
+      </c>
+      <c r="I36" s="2">
+        <v>3.9510000000000003E-2</v>
+      </c>
+      <c r="J36" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K36" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>27</v>
+      </c>
+      <c r="B37">
+        <v>0.55971000000000004</v>
+      </c>
+      <c r="C37">
+        <v>1.431E-2</v>
+      </c>
+      <c r="D37">
+        <v>1.721E-2</v>
+      </c>
+      <c r="E37">
+        <v>1.992E-2</v>
+      </c>
+      <c r="F37">
+        <v>3.347E-2</v>
+      </c>
+      <c r="G37">
+        <v>8.609E-2</v>
+      </c>
+      <c r="H37">
+        <v>3.866E-2</v>
+      </c>
+      <c r="I37">
+        <v>3.0599999999999999E-2</v>
+      </c>
+      <c r="J37" t="b">
+        <v>0</v>
+      </c>
+      <c r="K37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" s="1">
+        <v>0.55112000000000005</v>
+      </c>
+      <c r="C38" s="1">
+        <v>1.772E-2</v>
+      </c>
+      <c r="D38" s="1">
+        <v>1.755E-2</v>
+      </c>
+      <c r="E38" s="1">
+        <v>1.9640000000000001E-2</v>
+      </c>
+      <c r="F38" s="1">
+        <v>3.0630000000000001E-2</v>
+      </c>
+      <c r="G38" s="1">
+        <v>5.9880000000000003E-2</v>
+      </c>
+      <c r="H38" s="1">
+        <v>3.4709999999999998E-2</v>
+      </c>
+      <c r="I38" s="1">
+        <v>3.9309999999999998E-2</v>
+      </c>
+      <c r="J38" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K38" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39" s="2">
+        <v>0.55779999999999996</v>
+      </c>
+      <c r="C39" s="2">
+        <v>1.704E-2</v>
+      </c>
+      <c r="D39" s="2">
+        <v>1.601E-2</v>
+      </c>
+      <c r="E39" s="2">
+        <v>1.9369999999999998E-2</v>
+      </c>
+      <c r="F39" s="2">
+        <v>3.7449999999999997E-2</v>
+      </c>
+      <c r="G39" s="2">
+        <v>7.5490000000000002E-2</v>
+      </c>
+      <c r="H39" s="2">
+        <v>3.7159999999999999E-2</v>
+      </c>
+      <c r="I39" s="2">
+        <v>3.7650000000000003E-2</v>
+      </c>
+      <c r="J39" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K39" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" s="2">
+        <v>0.55508999999999997</v>
+      </c>
+      <c r="C40" s="2">
+        <v>1.567E-2</v>
+      </c>
+      <c r="D40" s="2">
+        <v>1.618E-2</v>
+      </c>
+      <c r="E40" s="2">
+        <v>1.9220000000000001E-2</v>
+      </c>
+      <c r="F40" s="2">
+        <v>3.2620000000000003E-2</v>
+      </c>
+      <c r="G40" s="2">
+        <v>6.4449999999999993E-2</v>
+      </c>
+      <c r="H40" s="2">
+        <v>3.4270000000000002E-2</v>
+      </c>
+      <c r="I40" s="2">
+        <v>3.4229999999999997E-2</v>
+      </c>
+      <c r="J40" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K40" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" s="2">
+        <v>0.55259999999999998</v>
+      </c>
+      <c r="C41" s="2">
+        <v>1.84E-2</v>
+      </c>
+      <c r="D41" s="2">
+        <v>1.635E-2</v>
+      </c>
+      <c r="E41" s="2">
+        <v>1.9189999999999999E-2</v>
+      </c>
+      <c r="F41" s="2">
+        <v>3.3509999999999998E-2</v>
+      </c>
+      <c r="G41" s="2">
+        <v>5.5019999999999999E-2</v>
+      </c>
+      <c r="H41" s="2">
+        <v>3.3959999999999997E-2</v>
+      </c>
+      <c r="I41" s="2">
+        <v>4.582E-2</v>
+      </c>
+      <c r="J41" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K41" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B42" s="2">
+        <v>0.53705000000000003</v>
+      </c>
+      <c r="C42" s="2">
+        <v>1.193E-2</v>
+      </c>
+      <c r="D42" s="2">
+        <v>9.1999999999999998E-3</v>
+      </c>
+      <c r="E42" s="2">
+        <v>1.9050000000000001E-2</v>
+      </c>
+      <c r="F42" s="2">
+        <v>2.682E-2</v>
+      </c>
+      <c r="G42" s="2">
+        <v>3.8129999999999997E-2</v>
+      </c>
+      <c r="H42" s="2">
+        <v>2.8420000000000001E-2</v>
+      </c>
+      <c r="I42" s="2">
+        <v>4.19E-2</v>
+      </c>
+      <c r="J42" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K42" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B43" s="2">
+        <v>0.55034000000000005</v>
+      </c>
+      <c r="C43" s="2">
+        <v>1.567E-2</v>
+      </c>
+      <c r="D43" s="2">
+        <v>1.431E-2</v>
+      </c>
+      <c r="E43" s="2">
+        <v>1.8970000000000001E-2</v>
+      </c>
+      <c r="F43" s="2">
+        <v>2.9059999999999999E-2</v>
+      </c>
+      <c r="G43" s="2">
+        <v>5.9180000000000003E-2</v>
+      </c>
+      <c r="H43" s="2">
+        <v>3.3579999999999999E-2</v>
+      </c>
+      <c r="I43" s="2">
+        <v>4.3610000000000003E-2</v>
+      </c>
+      <c r="J43" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K43" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B44" s="2">
+        <v>0.53639999999999999</v>
+      </c>
+      <c r="C44" s="2">
+        <v>1.329E-2</v>
+      </c>
+      <c r="D44" s="2">
+        <v>1.073E-2</v>
+      </c>
+      <c r="E44" s="2">
+        <v>1.8890000000000001E-2</v>
+      </c>
+      <c r="F44" s="2">
+        <v>2.699E-2</v>
+      </c>
+      <c r="G44" s="2">
+        <v>4.1640000000000003E-2</v>
+      </c>
+      <c r="H44" s="2">
+        <v>2.7910000000000001E-2</v>
+      </c>
+      <c r="I44" s="2">
+        <v>3.6400000000000002E-2</v>
+      </c>
+      <c r="J44" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K44" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B45" s="3">
+        <v>0.55761000000000005</v>
+      </c>
+      <c r="C45" s="3">
+        <v>1.84E-2</v>
+      </c>
+      <c r="D45" s="3">
+        <v>1.84E-2</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1.8870000000000001E-2</v>
+      </c>
+      <c r="F45" s="3">
+        <v>3.0110000000000001E-2</v>
+      </c>
+      <c r="G45" s="3">
+        <v>6.5449999999999994E-2</v>
+      </c>
+      <c r="H45" s="3">
+        <v>3.5900000000000001E-2</v>
+      </c>
+      <c r="I45" s="3">
+        <v>4.24E-2</v>
+      </c>
+      <c r="J45" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B46" s="2">
+        <v>0.56111999999999995</v>
+      </c>
+      <c r="C46" s="2">
+        <v>1.67E-2</v>
+      </c>
+      <c r="D46" s="2">
+        <v>1.925E-2</v>
+      </c>
+      <c r="E46" s="2">
+        <v>1.8630000000000001E-2</v>
+      </c>
+      <c r="F46" s="2">
+        <v>3.0470000000000001E-2</v>
+      </c>
+      <c r="G46" s="2">
+        <v>7.0389999999999994E-2</v>
+      </c>
+      <c r="H46" s="2">
+        <v>3.601E-2</v>
+      </c>
+      <c r="I46" s="2">
+        <v>3.533E-2</v>
+      </c>
+      <c r="J46" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K46" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B47" s="2">
+        <v>0.55183000000000004</v>
+      </c>
+      <c r="C47" s="2">
+        <v>1.84E-2</v>
+      </c>
+      <c r="D47" s="2">
+        <v>1.533E-2</v>
+      </c>
+      <c r="E47" s="2">
+        <v>1.8190000000000001E-2</v>
+      </c>
+      <c r="F47" s="2">
+        <v>3.9510000000000003E-2</v>
+      </c>
+      <c r="G47" s="2">
+        <v>5.9459999999999999E-2</v>
+      </c>
+      <c r="H47" s="2">
+        <v>3.2660000000000002E-2</v>
+      </c>
+      <c r="I47" s="2">
+        <v>3.4569999999999997E-2</v>
+      </c>
+      <c r="J47" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K47" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>37</v>
+      </c>
+      <c r="B48">
+        <v>0.54595000000000005</v>
+      </c>
+      <c r="C48">
+        <v>1.295E-2</v>
+      </c>
+      <c r="D48">
+        <v>1.261E-2</v>
+      </c>
+      <c r="E48">
+        <v>1.8149999999999999E-2</v>
+      </c>
+      <c r="F48">
+        <v>2.792E-2</v>
+      </c>
+      <c r="G48">
+        <v>5.8470000000000001E-2</v>
+      </c>
+      <c r="H48">
+        <v>3.1320000000000001E-2</v>
+      </c>
+      <c r="I48">
+        <v>3.3149999999999999E-2</v>
+      </c>
+      <c r="J48" t="b">
+        <v>0</v>
+      </c>
+      <c r="K48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B49" s="1">
+        <v>0.56172</v>
+      </c>
+      <c r="C49" s="1">
+        <v>1.84E-2</v>
+      </c>
+      <c r="D49" s="1">
+        <v>2.095E-2</v>
+      </c>
+      <c r="E49" s="1">
+        <v>1.7819999999999999E-2</v>
+      </c>
+      <c r="F49" s="1">
+        <v>2.7910000000000001E-2</v>
+      </c>
+      <c r="G49" s="1">
+        <v>7.3800000000000004E-2</v>
+      </c>
+      <c r="H49" s="1">
+        <v>3.789E-2</v>
+      </c>
+      <c r="I49" s="1">
+        <v>4.521E-2</v>
+      </c>
+      <c r="J49" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K49" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B50" s="2">
+        <v>0.54818</v>
+      </c>
+      <c r="C50" s="2">
+        <v>1.056E-2</v>
+      </c>
+      <c r="D50" s="2">
+        <v>1.346E-2</v>
+      </c>
+      <c r="E50" s="2">
+        <v>1.771E-2</v>
+      </c>
+      <c r="F50" s="2">
+        <v>2.29E-2</v>
+      </c>
+      <c r="G50" s="2">
+        <v>5.4359999999999999E-2</v>
+      </c>
+      <c r="H50" s="2">
+        <v>3.0540000000000001E-2</v>
+      </c>
+      <c r="I50" s="2">
+        <v>3.3739999999999999E-2</v>
+      </c>
+      <c r="J50" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K50" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B51" s="2">
+        <v>0.54635999999999996</v>
+      </c>
+      <c r="C51" s="2">
+        <v>1.329E-2</v>
+      </c>
+      <c r="D51" s="2">
+        <v>1.227E-2</v>
+      </c>
+      <c r="E51" s="2">
+        <v>1.771E-2</v>
+      </c>
+      <c r="F51" s="2">
+        <v>3.4840000000000003E-2</v>
+      </c>
+      <c r="G51" s="2">
+        <v>5.7950000000000002E-2</v>
+      </c>
+      <c r="H51" s="2">
+        <v>3.04E-2</v>
+      </c>
+      <c r="I51" s="2">
+        <v>2.8490000000000001E-2</v>
+      </c>
+      <c r="J51" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K51" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B52" s="2">
+        <v>0.55506999999999995</v>
+      </c>
+      <c r="C52" s="2">
+        <v>1.431E-2</v>
+      </c>
+      <c r="D52" s="2">
+        <v>1.584E-2</v>
+      </c>
+      <c r="E52" s="2">
+        <v>1.7239999999999998E-2</v>
+      </c>
+      <c r="F52" s="2">
+        <v>2.4510000000000001E-2</v>
+      </c>
+      <c r="G52" s="2">
+        <v>6.4680000000000001E-2</v>
+      </c>
+      <c r="H52" s="2">
+        <v>3.3520000000000001E-2</v>
+      </c>
+      <c r="I52" s="2">
+        <v>4.0259999999999997E-2</v>
+      </c>
+      <c r="J52" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K52" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>18</v>
+      </c>
+      <c r="B53">
+        <v>0.53522000000000003</v>
+      </c>
+      <c r="C53">
+        <v>1.397E-2</v>
+      </c>
+      <c r="D53">
+        <v>9.3699999999999999E-3</v>
+      </c>
+      <c r="E53">
+        <v>1.6979999999999999E-2</v>
+      </c>
+      <c r="F53">
+        <v>3.1220000000000001E-2</v>
+      </c>
+      <c r="G53">
+        <v>3.8739999999999997E-2</v>
+      </c>
+      <c r="H53">
+        <v>2.6200000000000001E-2</v>
+      </c>
+      <c r="I53">
+        <v>3.6040000000000003E-2</v>
+      </c>
+      <c r="J53" t="b">
+        <v>0</v>
+      </c>
+      <c r="K53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>37</v>
+      </c>
+      <c r="B54">
+        <v>0.54432999999999998</v>
+      </c>
+      <c r="C54">
+        <v>1.397E-2</v>
+      </c>
+      <c r="D54">
+        <v>1.329E-2</v>
+      </c>
+      <c r="E54">
+        <v>1.6899999999999998E-2</v>
+      </c>
+      <c r="F54">
+        <v>2.8989999999999998E-2</v>
+      </c>
+      <c r="G54">
+        <v>4.8460000000000003E-2</v>
+      </c>
+      <c r="H54">
+        <v>2.845E-2</v>
+      </c>
+      <c r="I54">
+        <v>3.1780000000000003E-2</v>
+      </c>
+      <c r="J54" t="b">
+        <v>1</v>
+      </c>
+      <c r="K54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B55" s="3">
+        <v>0.55737999999999999</v>
+      </c>
+      <c r="C55" s="3">
+        <v>1.772E-2</v>
+      </c>
+      <c r="D55" s="3">
+        <v>1.84E-2</v>
+      </c>
+      <c r="E55" s="3">
+        <v>1.67E-2</v>
+      </c>
+      <c r="F55" s="3">
+        <v>2.9780000000000001E-2</v>
+      </c>
+      <c r="G55" s="3">
+        <v>6.5449999999999994E-2</v>
+      </c>
+      <c r="H55" s="3">
+        <v>3.3660000000000002E-2</v>
+      </c>
+      <c r="I55" s="3">
+        <v>3.5360000000000003E-2</v>
+      </c>
+      <c r="J55" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="K55" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B56" s="2">
+        <v>0.54207000000000005</v>
+      </c>
+      <c r="C56" s="2">
+        <v>1.329E-2</v>
+      </c>
+      <c r="D56" s="2">
+        <v>1.141E-2</v>
+      </c>
+      <c r="E56" s="2">
+        <v>1.6660000000000001E-2</v>
+      </c>
+      <c r="F56" s="2">
+        <v>2.6769999999999999E-2</v>
+      </c>
+      <c r="G56" s="2">
+        <v>4.3200000000000002E-2</v>
+      </c>
+      <c r="H56" s="2">
+        <v>2.6929999999999999E-2</v>
+      </c>
+      <c r="I56" s="2">
+        <v>3.065E-2</v>
+      </c>
+      <c r="J56" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K56" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B57" s="2">
+        <v>0.55825999999999998</v>
+      </c>
+      <c r="C57" s="2">
+        <v>1.465E-2</v>
+      </c>
+      <c r="D57" s="2">
+        <v>1.721E-2</v>
+      </c>
+      <c r="E57" s="2">
+        <v>1.6650000000000002E-2</v>
+      </c>
+      <c r="F57" s="2">
+        <v>3.0640000000000001E-2</v>
+      </c>
+      <c r="G57" s="2">
+        <v>6.744E-2</v>
+      </c>
+      <c r="H57" s="2">
+        <v>3.3520000000000001E-2</v>
+      </c>
+      <c r="I57" s="2">
+        <v>3.363E-2</v>
+      </c>
+      <c r="J57" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K57" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B58" s="2">
+        <v>0.55247999999999997</v>
+      </c>
+      <c r="C58" s="2">
+        <v>1.533E-2</v>
+      </c>
+      <c r="D58" s="2">
+        <v>1.567E-2</v>
+      </c>
+      <c r="E58" s="2">
+        <v>1.6449999999999999E-2</v>
+      </c>
+      <c r="F58" s="2">
+        <v>2.683E-2</v>
+      </c>
+      <c r="G58" s="2">
+        <v>6.3229999999999995E-2</v>
+      </c>
+      <c r="H58" s="2">
+        <v>3.2530000000000003E-2</v>
+      </c>
+      <c r="I58" s="2">
+        <v>3.7690000000000001E-2</v>
+      </c>
+      <c r="J58" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K58" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B59" s="2">
+        <v>0.53971000000000002</v>
+      </c>
+      <c r="C59" s="2">
+        <v>1.329E-2</v>
+      </c>
+      <c r="D59" s="2">
+        <v>1.141E-2</v>
+      </c>
+      <c r="E59" s="2">
+        <v>1.618E-2</v>
+      </c>
+      <c r="F59" s="2">
+        <v>2.7689999999999999E-2</v>
+      </c>
+      <c r="G59" s="2">
+        <v>4.054E-2</v>
+      </c>
+      <c r="H59" s="2">
+        <v>2.6460000000000001E-2</v>
+      </c>
+      <c r="I59" s="2">
+        <v>3.6150000000000002E-2</v>
+      </c>
+      <c r="J59" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K59" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B60" s="2">
+        <v>0.55225000000000002</v>
+      </c>
+      <c r="C60" s="2">
+        <v>1.295E-2</v>
+      </c>
+      <c r="D60" s="2">
+        <v>1.618E-2</v>
+      </c>
+      <c r="E60" s="2">
+        <v>1.562E-2</v>
+      </c>
+      <c r="F60" s="2">
+        <v>1.7639999999999999E-2</v>
+      </c>
+      <c r="G60" s="2">
+        <v>5.9130000000000002E-2</v>
+      </c>
+      <c r="H60" s="2">
+        <v>3.083E-2</v>
+      </c>
+      <c r="I60" s="2">
+        <v>3.5290000000000002E-2</v>
+      </c>
+      <c r="J60" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K60" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>13</v>
+      </c>
+      <c r="B61">
+        <v>0.53966000000000003</v>
+      </c>
+      <c r="C61">
+        <v>1.499E-2</v>
+      </c>
+      <c r="D61">
+        <v>1.278E-2</v>
+      </c>
+      <c r="E61">
+        <v>1.5389999999999999E-2</v>
+      </c>
+      <c r="F61">
+        <v>3.1489999999999997E-2</v>
+      </c>
+      <c r="G61">
+        <v>4.3310000000000001E-2</v>
+      </c>
+      <c r="H61">
+        <v>2.6839999999999999E-2</v>
+      </c>
+      <c r="I61">
+        <v>3.2899999999999999E-2</v>
+      </c>
+      <c r="J61" t="b">
+        <v>0</v>
+      </c>
+      <c r="K61" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>16</v>
+      </c>
+      <c r="B62">
+        <v>0.55613999999999997</v>
+      </c>
+      <c r="C62">
+        <v>1.09E-2</v>
+      </c>
+      <c r="D62">
+        <v>1.499E-2</v>
+      </c>
+      <c r="E62">
+        <v>1.519E-2</v>
+      </c>
+      <c r="F62">
+        <v>2.6509999999999999E-2</v>
+      </c>
+      <c r="G62">
+        <v>7.4730000000000005E-2</v>
+      </c>
+      <c r="H62">
+        <v>3.2620000000000003E-2</v>
+      </c>
+      <c r="I62">
+        <v>2.691E-2</v>
+      </c>
+      <c r="J62" t="b">
+        <v>1</v>
+      </c>
+      <c r="K62" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B63" s="2">
+        <v>0.54552999999999996</v>
+      </c>
+      <c r="C63" s="2">
+        <v>1.124E-2</v>
+      </c>
+      <c r="D63" s="2">
+        <v>1.312E-2</v>
+      </c>
+      <c r="E63" s="2">
+        <v>1.474E-2</v>
+      </c>
+      <c r="F63" s="2">
+        <v>1.8780000000000002E-2</v>
+      </c>
+      <c r="G63" s="2">
+        <v>5.518E-2</v>
+      </c>
+      <c r="H63" s="2">
+        <v>2.7959999999999999E-2</v>
+      </c>
+      <c r="I63" s="2">
+        <v>3.1230000000000001E-2</v>
+      </c>
+      <c r="J63" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K63" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>22</v>
+      </c>
+      <c r="B64">
+        <v>0.54615000000000002</v>
+      </c>
+      <c r="C64">
+        <v>1.329E-2</v>
+      </c>
+      <c r="D64">
+        <v>1.414E-2</v>
+      </c>
+      <c r="E64">
+        <v>1.4500000000000001E-2</v>
+      </c>
+      <c r="F64">
+        <v>1.523E-2</v>
+      </c>
+      <c r="G64">
+        <v>4.6010000000000002E-2</v>
+      </c>
+      <c r="H64">
+        <v>2.75E-2</v>
+      </c>
+      <c r="I64">
+        <v>3.9329999999999997E-2</v>
+      </c>
+      <c r="J64" t="b">
+        <v>1</v>
+      </c>
+      <c r="K64" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>14</v>
+      </c>
+      <c r="B65">
+        <v>0.55250999999999995</v>
+      </c>
+      <c r="C65">
+        <v>1.295E-2</v>
+      </c>
+      <c r="D65">
+        <v>1.55E-2</v>
+      </c>
+      <c r="E65">
+        <v>1.4189999999999999E-2</v>
+      </c>
+      <c r="F65">
+        <v>1.5970000000000002E-2</v>
+      </c>
+      <c r="G65">
+        <v>6.2960000000000002E-2</v>
+      </c>
+      <c r="H65">
+        <v>3.075E-2</v>
+      </c>
+      <c r="I65">
+        <v>3.7580000000000002E-2</v>
+      </c>
+      <c r="J65" t="b">
+        <v>0</v>
+      </c>
+      <c r="K65" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>24</v>
+      </c>
+      <c r="B66">
+        <v>0.54571999999999998</v>
+      </c>
+      <c r="C66">
+        <v>8.5199999999999998E-3</v>
+      </c>
+      <c r="D66">
+        <v>1.261E-2</v>
+      </c>
+      <c r="E66">
+        <v>1.41E-2</v>
+      </c>
+      <c r="F66">
+        <v>1.532E-2</v>
+      </c>
+      <c r="G66">
+        <v>5.8470000000000001E-2</v>
+      </c>
+      <c r="H66">
+        <v>2.7550000000000002E-2</v>
+      </c>
+      <c r="I66">
+        <v>2.5659999999999999E-2</v>
+      </c>
+      <c r="J66" t="b">
+        <v>1</v>
+      </c>
+      <c r="K66" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>10</v>
+      </c>
+      <c r="B67">
+        <v>0.54166999999999998</v>
+      </c>
+      <c r="C67">
+        <v>1.431E-2</v>
+      </c>
+      <c r="D67">
+        <v>1.38E-2</v>
+      </c>
+      <c r="E67">
+        <v>1.404E-2</v>
+      </c>
+      <c r="F67">
+        <v>2.3820000000000001E-2</v>
+      </c>
+      <c r="G67">
+        <v>3.9329999999999997E-2</v>
+      </c>
+      <c r="H67">
+        <v>2.5059999999999999E-2</v>
+      </c>
+      <c r="I67">
+        <v>3.295E-2</v>
+      </c>
+      <c r="J67" t="b">
+        <v>0</v>
+      </c>
+      <c r="K67" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>12</v>
+      </c>
+      <c r="B68">
+        <v>0.53705999999999998</v>
+      </c>
+      <c r="C68">
+        <v>1.227E-2</v>
+      </c>
+      <c r="D68">
+        <v>1.073E-2</v>
+      </c>
+      <c r="E68">
+        <v>1.3809999999999999E-2</v>
+      </c>
+      <c r="F68">
+        <v>2.0799999999999999E-2</v>
+      </c>
+      <c r="G68">
+        <v>3.184E-2</v>
+      </c>
+      <c r="H68">
+        <v>2.2380000000000001E-2</v>
+      </c>
+      <c r="I68">
+        <v>2.9940000000000001E-2</v>
+      </c>
+      <c r="J68" t="b">
+        <v>1</v>
+      </c>
+      <c r="K68" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B69" s="2">
+        <v>0.53968000000000005</v>
+      </c>
+      <c r="C69" s="2">
+        <v>1.022E-2</v>
+      </c>
+      <c r="D69" s="2">
+        <v>1.141E-2</v>
+      </c>
+      <c r="E69" s="2">
+        <v>1.376E-2</v>
+      </c>
+      <c r="F69" s="2">
+        <v>2.1559999999999999E-2</v>
+      </c>
+      <c r="G69" s="2">
+        <v>4.054E-2</v>
+      </c>
+      <c r="H69" s="2">
+        <v>2.383E-2</v>
+      </c>
+      <c r="I69" s="2">
+        <v>2.682E-2</v>
+      </c>
+      <c r="J69" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K69" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>19</v>
+      </c>
+      <c r="B70">
+        <v>0.54427999999999999</v>
+      </c>
+      <c r="C70">
+        <v>1.022E-2</v>
+      </c>
+      <c r="D70">
+        <v>1.312E-2</v>
+      </c>
+      <c r="E70">
+        <v>1.3650000000000001E-2</v>
+      </c>
+      <c r="F70">
+        <v>1.1990000000000001E-2</v>
+      </c>
+      <c r="G70">
+        <v>5.5559999999999998E-2</v>
+      </c>
+      <c r="H70">
+        <v>2.7050000000000001E-2</v>
+      </c>
+      <c r="I70">
+        <v>2.9069999999999999E-2</v>
+      </c>
+      <c r="J70" t="b">
+        <v>0</v>
+      </c>
+      <c r="K70" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>28</v>
+      </c>
+      <c r="B71">
+        <v>0.53969</v>
+      </c>
+      <c r="C71">
+        <v>1.227E-2</v>
+      </c>
+      <c r="D71">
+        <v>1.141E-2</v>
+      </c>
+      <c r="E71">
+        <v>1.359E-2</v>
+      </c>
+      <c r="F71">
+        <v>2.4029999999999999E-2</v>
+      </c>
+      <c r="G71">
+        <v>4.054E-2</v>
+      </c>
+      <c r="H71">
+        <v>2.4070000000000001E-2</v>
+      </c>
+      <c r="I71">
+        <v>2.9850000000000002E-2</v>
+      </c>
+      <c r="J71" t="b">
+        <v>0</v>
+      </c>
+      <c r="K71" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B72" s="2">
+        <v>0.54281999999999997</v>
+      </c>
+      <c r="C72" s="2">
+        <v>1.193E-2</v>
+      </c>
+      <c r="D72" s="2">
+        <v>1.175E-2</v>
+      </c>
+      <c r="E72" s="2">
+        <v>1.355E-2</v>
+      </c>
+      <c r="F72" s="2">
+        <v>2.0299999999999999E-2</v>
+      </c>
+      <c r="G72" s="2">
+        <v>4.5510000000000002E-2</v>
+      </c>
+      <c r="H72" s="2">
+        <v>2.5090000000000001E-2</v>
+      </c>
+      <c r="I72" s="2">
+        <v>3.209E-2</v>
+      </c>
+      <c r="J72" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K72" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B73" s="1">
+        <v>0.53895000000000004</v>
+      </c>
+      <c r="C73" s="1">
+        <v>1.533E-2</v>
+      </c>
+      <c r="D73" s="1">
+        <v>1.363E-2</v>
+      </c>
+      <c r="E73" s="1">
+        <v>1.3480000000000001E-2</v>
+      </c>
+      <c r="F73" s="1">
+        <v>2.2179999999999998E-2</v>
+      </c>
+      <c r="G73" s="1">
+        <v>3.9059999999999997E-2</v>
+      </c>
+      <c r="H73" s="1">
+        <v>2.4740000000000002E-2</v>
+      </c>
+      <c r="I73" s="1">
+        <v>3.2710000000000003E-2</v>
+      </c>
+      <c r="J73" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K73" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>11</v>
+      </c>
+      <c r="B74">
+        <v>0.54183999999999999</v>
+      </c>
+      <c r="C74">
+        <v>1.499E-2</v>
+      </c>
+      <c r="D74">
+        <v>1.295E-2</v>
+      </c>
+      <c r="E74">
+        <v>1.329E-2</v>
+      </c>
+      <c r="F74">
+        <v>2.8230000000000002E-2</v>
+      </c>
+      <c r="G74">
+        <v>3.9260000000000003E-2</v>
+      </c>
+      <c r="H74">
+        <v>2.4709999999999999E-2</v>
+      </c>
+      <c r="I74">
+        <v>3.474E-2</v>
+      </c>
+      <c r="J74" t="b">
+        <v>0</v>
+      </c>
+      <c r="K74" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>28</v>
+      </c>
+      <c r="B75">
+        <v>0.53976000000000002</v>
+      </c>
+      <c r="C75">
+        <v>1.261E-2</v>
+      </c>
+      <c r="D75">
+        <v>1.141E-2</v>
+      </c>
+      <c r="E75">
+        <v>1.299E-2</v>
+      </c>
+      <c r="F75">
+        <v>2.2089999999999999E-2</v>
+      </c>
+      <c r="G75">
+        <v>4.054E-2</v>
+      </c>
+      <c r="H75">
+        <v>2.341E-2</v>
+      </c>
+      <c r="I75">
+        <v>2.7119999999999998E-2</v>
+      </c>
+      <c r="J75" t="b">
+        <v>1</v>
+      </c>
+      <c r="K75" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B76" s="2">
+        <v>0.54535</v>
+      </c>
+      <c r="C76" s="2">
+        <v>9.5399999999999999E-3</v>
+      </c>
+      <c r="D76" s="2">
+        <v>1.312E-2</v>
+      </c>
+      <c r="E76" s="2">
+        <v>1.2659999999999999E-2</v>
+      </c>
+      <c r="F76" s="2">
+        <v>1.84E-2</v>
+      </c>
+      <c r="G76" s="2">
+        <v>5.518E-2</v>
+      </c>
+      <c r="H76" s="2">
+        <v>2.5860000000000001E-2</v>
+      </c>
+      <c r="I76" s="2">
+        <v>2.639E-2</v>
+      </c>
+      <c r="J76" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K76" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B77" s="2">
+        <v>0.53637999999999997</v>
+      </c>
+      <c r="C77" s="2">
+        <v>1.022E-2</v>
+      </c>
+      <c r="D77" s="2">
+        <v>1.073E-2</v>
+      </c>
+      <c r="E77" s="2">
+        <v>1.261E-2</v>
+      </c>
+      <c r="F77" s="2">
+        <v>1.9279999999999999E-2</v>
+      </c>
+      <c r="G77" s="2">
+        <v>4.1640000000000003E-2</v>
+      </c>
+      <c r="H77" s="2">
+        <v>2.2689999999999998E-2</v>
+      </c>
+      <c r="I77" s="2">
+        <v>2.835E-2</v>
+      </c>
+      <c r="J77" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K77" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B78" s="2">
+        <v>0.53863000000000005</v>
+      </c>
+      <c r="C78" s="2">
+        <v>1.056E-2</v>
+      </c>
+      <c r="D78" s="2">
+        <v>9.7099999999999999E-3</v>
+      </c>
+      <c r="E78" s="2">
+        <v>1.2529999999999999E-2</v>
+      </c>
+      <c r="F78" s="2">
+        <v>2.1520000000000001E-2</v>
+      </c>
+      <c r="G78" s="2">
+        <v>3.8929999999999999E-2</v>
+      </c>
+      <c r="H78" s="2">
+        <v>2.2159999999999999E-2</v>
+      </c>
+      <c r="I78" s="2">
+        <v>2.63E-2</v>
+      </c>
+      <c r="J78" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K78" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>36</v>
+      </c>
+      <c r="B79">
+        <v>0.53256000000000003</v>
+      </c>
+      <c r="C79">
+        <v>1.09E-2</v>
+      </c>
+      <c r="D79">
+        <v>1.022E-2</v>
+      </c>
+      <c r="E79">
+        <v>1.247E-2</v>
+      </c>
+      <c r="F79">
+        <v>2.4199999999999999E-2</v>
+      </c>
+      <c r="G79">
+        <v>3.9829999999999997E-2</v>
+      </c>
+      <c r="H79">
+        <v>2.1950000000000001E-2</v>
+      </c>
+      <c r="I79">
+        <v>2.6120000000000001E-2</v>
+      </c>
+      <c r="J79" t="b">
+        <v>0</v>
+      </c>
+      <c r="K79" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B80" s="2">
+        <v>0.53869</v>
+      </c>
+      <c r="C80" s="2">
+        <v>1.124E-2</v>
+      </c>
+      <c r="D80" s="2">
+        <v>9.7099999999999999E-3</v>
+      </c>
+      <c r="E80" s="2">
+        <v>1.2160000000000001E-2</v>
+      </c>
+      <c r="F80" s="2">
+        <v>2.4400000000000002E-2</v>
+      </c>
+      <c r="G80" s="2">
+        <v>3.8929999999999999E-2</v>
+      </c>
+      <c r="H80" s="2">
+        <v>2.2179999999999998E-2</v>
+      </c>
+      <c r="I80" s="2">
+        <v>2.9250000000000002E-2</v>
+      </c>
+      <c r="J80" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K80" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>35</v>
+      </c>
+      <c r="B81">
+        <v>0.53256999999999999</v>
+      </c>
+      <c r="C81">
+        <v>1.158E-2</v>
+      </c>
+      <c r="D81">
+        <v>1.022E-2</v>
+      </c>
+      <c r="E81">
+        <v>1.189E-2</v>
+      </c>
+      <c r="F81">
+        <v>1.908E-2</v>
+      </c>
+      <c r="G81">
+        <v>3.9829999999999997E-2</v>
+      </c>
+      <c r="H81">
+        <v>2.1729999999999999E-2</v>
+      </c>
+      <c r="I81">
+        <v>2.699E-2</v>
+      </c>
+      <c r="J81" t="b">
+        <v>0</v>
+      </c>
+      <c r="K81" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B82" s="2">
+        <v>0.54261999999999999</v>
+      </c>
+      <c r="C82" s="2">
+        <v>1.022E-2</v>
+      </c>
+      <c r="D82" s="2">
+        <v>1.21E-2</v>
+      </c>
+      <c r="E82" s="2">
+        <v>1.1820000000000001E-2</v>
+      </c>
+      <c r="F82" s="2">
+        <v>1.54E-2</v>
+      </c>
+      <c r="G82" s="2">
+        <v>4.9799999999999997E-2</v>
+      </c>
+      <c r="H82" s="2">
+        <v>2.426E-2</v>
+      </c>
+      <c r="I82" s="2">
+        <v>2.7189999999999999E-2</v>
+      </c>
+      <c r="J82" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K82" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>13</v>
+      </c>
+      <c r="B83">
+        <v>0.53534999999999999</v>
+      </c>
+      <c r="C83">
+        <v>1.499E-2</v>
+      </c>
+      <c r="D83">
+        <v>1.175E-2</v>
+      </c>
+      <c r="E83">
+        <v>1.1730000000000001E-2</v>
+      </c>
+      <c r="F83">
+        <v>2.5309999999999999E-2</v>
+      </c>
+      <c r="G83">
+        <v>3.4790000000000001E-2</v>
+      </c>
+      <c r="H83">
+        <v>2.172E-2</v>
+      </c>
+      <c r="I83">
+        <v>2.7799999999999998E-2</v>
+      </c>
+      <c r="J83" t="b">
+        <v>1</v>
+      </c>
+      <c r="K83" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B84" s="2">
+        <v>0.53210000000000002</v>
+      </c>
+      <c r="C84" s="2">
+        <v>8.5199999999999998E-3</v>
+      </c>
+      <c r="D84" s="2">
+        <v>8.6899999999999998E-3</v>
+      </c>
+      <c r="E84" s="2">
+        <v>1.1730000000000001E-2</v>
+      </c>
+      <c r="F84" s="2">
+        <v>1.7299999999999999E-2</v>
+      </c>
+      <c r="G84" s="2">
+        <v>3.5479999999999998E-2</v>
+      </c>
+      <c r="H84" s="2">
+        <v>2.0209999999999999E-2</v>
+      </c>
+      <c r="I84" s="2">
+        <v>2.4639999999999999E-2</v>
+      </c>
+      <c r="J84" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K84" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>35</v>
+      </c>
+      <c r="B85">
+        <v>0.53720000000000001</v>
+      </c>
+      <c r="C85">
+        <v>1.09E-2</v>
+      </c>
+      <c r="D85">
+        <v>1.124E-2</v>
+      </c>
+      <c r="E85">
+        <v>1.146E-2</v>
+      </c>
+      <c r="F85">
+        <v>1.8880000000000001E-2</v>
+      </c>
+      <c r="G85">
+        <v>4.0910000000000002E-2</v>
+      </c>
+      <c r="H85">
+        <v>2.1919999999999999E-2</v>
+      </c>
+      <c r="I85">
+        <v>2.6110000000000001E-2</v>
+      </c>
+      <c r="J85" t="b">
+        <v>1</v>
+      </c>
+      <c r="K85" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>10</v>
+      </c>
+      <c r="B86">
+        <v>0.53873000000000004</v>
+      </c>
+      <c r="C86">
+        <v>1.158E-2</v>
+      </c>
+      <c r="D86">
+        <v>1.295E-2</v>
+      </c>
+      <c r="E86">
+        <v>1.098E-2</v>
+      </c>
+      <c r="F86">
+        <v>1.1900000000000001E-2</v>
+      </c>
+      <c r="G86">
+        <v>3.8129999999999997E-2</v>
+      </c>
+      <c r="H86">
+        <v>2.2040000000000001E-2</v>
+      </c>
+      <c r="I86">
+        <v>2.827E-2</v>
+      </c>
+      <c r="J86" t="b">
+        <v>1</v>
+      </c>
+      <c r="K86" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>36</v>
+      </c>
+      <c r="B87">
+        <v>0.53718999999999995</v>
+      </c>
+      <c r="C87">
+        <v>1.09E-2</v>
+      </c>
+      <c r="D87">
+        <v>1.124E-2</v>
+      </c>
+      <c r="E87">
+        <v>1.085E-2</v>
+      </c>
+      <c r="F87">
+        <v>2.0490000000000001E-2</v>
+      </c>
+      <c r="G87">
+        <v>4.0910000000000002E-2</v>
+      </c>
+      <c r="H87">
+        <v>2.1270000000000001E-2</v>
+      </c>
+      <c r="I87">
+        <v>2.3810000000000001E-2</v>
+      </c>
+      <c r="J87" t="b">
+        <v>1</v>
+      </c>
+      <c r="K87" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B88" s="2">
+        <v>0.53246000000000004</v>
+      </c>
+      <c r="C88" s="2">
+        <v>9.1999999999999998E-3</v>
+      </c>
+      <c r="D88" s="2">
+        <v>9.1999999999999998E-3</v>
+      </c>
+      <c r="E88" s="2">
+        <v>1.0789999999999999E-2</v>
+      </c>
+      <c r="F88" s="2">
+        <v>1.5720000000000001E-2</v>
+      </c>
+      <c r="G88" s="2">
+        <v>3.6130000000000002E-2</v>
+      </c>
+      <c r="H88" s="2">
+        <v>1.9570000000000001E-2</v>
+      </c>
+      <c r="I88" s="2">
+        <v>2.2599999999999999E-2</v>
+      </c>
+      <c r="J88" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K88" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>29</v>
+      </c>
+      <c r="B89">
+        <v>0.52559</v>
+      </c>
+      <c r="C89">
+        <v>6.4700000000000001E-3</v>
+      </c>
+      <c r="D89">
+        <v>5.96E-3</v>
+      </c>
+      <c r="E89">
+        <v>1.073E-2</v>
+      </c>
+      <c r="F89">
+        <v>1.4840000000000001E-2</v>
+      </c>
+      <c r="G89">
+        <v>2.7230000000000001E-2</v>
+      </c>
+      <c r="H89">
+        <v>1.661E-2</v>
+      </c>
+      <c r="I89">
+        <v>1.9359999999999999E-2</v>
+      </c>
+      <c r="J89" t="b">
+        <v>0</v>
+      </c>
+      <c r="K89" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B90" s="1">
+        <v>0.53861000000000003</v>
+      </c>
+      <c r="C90" s="1">
+        <v>1.227E-2</v>
+      </c>
+      <c r="D90" s="1">
+        <v>1.363E-2</v>
+      </c>
+      <c r="E90" s="1">
+        <v>1.057E-2</v>
+      </c>
+      <c r="F90" s="1">
+        <v>1.8190000000000001E-2</v>
+      </c>
+      <c r="G90" s="1">
+        <v>3.9059999999999997E-2</v>
+      </c>
+      <c r="H90" s="1">
+        <v>2.1760000000000002E-2</v>
+      </c>
+      <c r="I90" s="1">
+        <v>2.4369999999999999E-2</v>
+      </c>
+      <c r="J90" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K90" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B91" s="2">
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="C91" s="2">
+        <v>1.056E-2</v>
+      </c>
+      <c r="D91" s="2">
+        <v>9.3699999999999999E-3</v>
+      </c>
+      <c r="E91" s="2">
+        <v>1.056E-2</v>
+      </c>
+      <c r="F91" s="2">
+        <v>1.626E-2</v>
+      </c>
+      <c r="G91" s="2">
+        <v>3.074E-2</v>
+      </c>
+      <c r="H91" s="2">
+        <v>1.8429999999999998E-2</v>
+      </c>
+      <c r="I91" s="2">
+        <v>2.3140000000000001E-2</v>
+      </c>
+      <c r="J91" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K91" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>21</v>
+      </c>
+      <c r="B92">
+        <v>0.53895999999999999</v>
+      </c>
+      <c r="C92">
+        <v>1.124E-2</v>
+      </c>
+      <c r="D92">
+        <v>1.005E-2</v>
+      </c>
+      <c r="E92">
+        <v>1.051E-2</v>
+      </c>
+      <c r="F92">
+        <v>2.6429999999999999E-2</v>
+      </c>
+      <c r="G92">
+        <v>4.6170000000000003E-2</v>
+      </c>
+      <c r="H92">
+        <v>2.1669999999999998E-2</v>
+      </c>
+      <c r="I92">
+        <v>1.9279999999999999E-2</v>
+      </c>
+      <c r="J92" t="b">
+        <v>1</v>
+      </c>
+      <c r="K92" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B93" s="2">
+        <v>0.53976999999999997</v>
+      </c>
+      <c r="C93" s="2">
+        <v>1.158E-2</v>
+      </c>
+      <c r="D93" s="2">
+        <v>1.141E-2</v>
+      </c>
+      <c r="E93" s="2">
+        <v>1.031E-2</v>
+      </c>
+      <c r="F93" s="2">
+        <v>1.8689999999999998E-2</v>
+      </c>
+      <c r="G93" s="2">
+        <v>4.054E-2</v>
+      </c>
+      <c r="H93" s="2">
+        <v>2.1690000000000001E-2</v>
+      </c>
+      <c r="I93" s="2">
+        <v>2.716E-2</v>
+      </c>
+      <c r="J93" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K93" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B94" s="2">
+        <v>0.53951000000000005</v>
+      </c>
+      <c r="C94" s="2">
+        <v>1.295E-2</v>
+      </c>
+      <c r="D94" s="2">
+        <v>1.141E-2</v>
+      </c>
+      <c r="E94" s="2">
+        <v>1.027E-2</v>
+      </c>
+      <c r="F94" s="2">
+        <v>2.2200000000000001E-2</v>
+      </c>
+      <c r="G94" s="2">
+        <v>4.054E-2</v>
+      </c>
+      <c r="H94" s="2">
+        <v>2.129E-2</v>
+      </c>
+      <c r="I94" s="2">
+        <v>2.6200000000000001E-2</v>
+      </c>
+      <c r="J94" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K94" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>31</v>
+      </c>
+      <c r="B95">
+        <v>0.52836000000000005</v>
+      </c>
+      <c r="C95">
+        <v>9.1999999999999998E-3</v>
+      </c>
+      <c r="D95">
+        <v>1.039E-2</v>
+      </c>
+      <c r="E95">
+        <v>1.0120000000000001E-2</v>
+      </c>
+      <c r="F95">
+        <v>1.6369999999999999E-2</v>
+      </c>
+      <c r="G95">
+        <v>3.1559999999999998E-2</v>
+      </c>
+      <c r="H95">
+        <v>1.831E-2</v>
+      </c>
+      <c r="I95">
+        <v>2.129E-2</v>
+      </c>
+      <c r="J95" t="b">
+        <v>0</v>
+      </c>
+      <c r="K95" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B96" s="2">
+        <v>0.52603999999999995</v>
+      </c>
+      <c r="C96" s="2">
+        <v>6.13E-3</v>
+      </c>
+      <c r="D96" s="2">
+        <v>6.4700000000000001E-3</v>
+      </c>
+      <c r="E96" s="2">
+        <v>1.008E-2</v>
+      </c>
+      <c r="F96" s="2">
+        <v>1.489E-2</v>
+      </c>
+      <c r="G96" s="2">
+        <v>2.93E-2</v>
+      </c>
+      <c r="H96" s="2">
+        <v>1.6199999999999999E-2</v>
+      </c>
+      <c r="I96" s="2">
+        <v>1.601E-2</v>
+      </c>
+      <c r="J96" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K96" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>11</v>
+      </c>
+      <c r="B97">
+        <v>0.54169</v>
+      </c>
+      <c r="C97">
+        <v>8.8599999999999998E-3</v>
+      </c>
+      <c r="D97">
+        <v>1.227E-2</v>
+      </c>
+      <c r="E97">
+        <v>9.3900000000000008E-3</v>
+      </c>
+      <c r="F97">
+        <v>1.0160000000000001E-2</v>
+      </c>
+      <c r="G97">
+        <v>3.9350000000000003E-2</v>
+      </c>
+      <c r="H97">
+        <v>2.0230000000000001E-2</v>
+      </c>
+      <c r="I97">
+        <v>2.1829999999999999E-2</v>
+      </c>
+      <c r="J97" t="b">
+        <v>1</v>
+      </c>
+      <c r="K97" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>12</v>
+      </c>
+      <c r="B98">
+        <v>0.54317000000000004</v>
+      </c>
+      <c r="C98">
+        <v>1.193E-2</v>
+      </c>
+      <c r="D98">
+        <v>1.465E-2</v>
+      </c>
+      <c r="E98">
+        <v>9.2499999999999995E-3</v>
+      </c>
+      <c r="F98">
+        <v>1.414E-2</v>
+      </c>
+      <c r="G98">
+        <v>4.5449999999999997E-2</v>
+      </c>
+      <c r="H98">
+        <v>2.1950000000000001E-2</v>
+      </c>
+      <c r="I98">
+        <v>2.145E-2</v>
+      </c>
+      <c r="J98" t="b">
+        <v>0</v>
+      </c>
+      <c r="K98" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>19</v>
+      </c>
+      <c r="B99">
+        <v>0.53454999999999997</v>
+      </c>
+      <c r="C99">
+        <v>1.193E-2</v>
+      </c>
+      <c r="D99">
+        <v>1.09E-2</v>
+      </c>
+      <c r="E99">
+        <v>9.2099999999999994E-3</v>
+      </c>
+      <c r="F99">
+        <v>2.4819999999999998E-2</v>
+      </c>
+      <c r="G99">
+        <v>3.5119999999999998E-2</v>
+      </c>
+      <c r="H99">
+        <v>1.8859999999999998E-2</v>
+      </c>
+      <c r="I99">
+        <v>2.155E-2</v>
+      </c>
+      <c r="J99" t="b">
+        <v>1</v>
+      </c>
+      <c r="K99" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>33</v>
+      </c>
+      <c r="B100">
+        <v>0.53251000000000004</v>
+      </c>
+      <c r="C100">
+        <v>9.8799999999999999E-3</v>
+      </c>
+      <c r="D100">
+        <v>9.8799999999999999E-3</v>
+      </c>
+      <c r="E100">
+        <v>9.1500000000000001E-3</v>
+      </c>
+      <c r="F100">
+        <v>1.3990000000000001E-2</v>
+      </c>
+      <c r="G100">
+        <v>2.623E-2</v>
+      </c>
+      <c r="H100">
+        <v>1.695E-2</v>
+      </c>
+      <c r="I100">
+        <v>2.3939999999999999E-2</v>
+      </c>
+      <c r="J100" t="b">
+        <v>1</v>
+      </c>
+      <c r="K100" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B101" s="2">
+        <v>0.53141000000000005</v>
+      </c>
+      <c r="C101" s="2">
+        <v>6.13E-3</v>
+      </c>
+      <c r="D101" s="2">
+        <v>8.3499999999999998E-3</v>
+      </c>
+      <c r="E101" s="2">
+        <v>8.9499999999999996E-3</v>
+      </c>
+      <c r="F101" s="2">
+        <v>1.5310000000000001E-2</v>
+      </c>
+      <c r="G101" s="2">
+        <v>3.252E-2</v>
+      </c>
+      <c r="H101" s="2">
+        <v>1.6670000000000001E-2</v>
+      </c>
+      <c r="I101" s="2">
+        <v>1.6310000000000002E-2</v>
+      </c>
+      <c r="J101" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K101" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>33</v>
+      </c>
+      <c r="B102">
+        <v>0.52692000000000005</v>
+      </c>
+      <c r="C102">
+        <v>7.8399999999999997E-3</v>
+      </c>
+      <c r="D102">
+        <v>8.6899999999999998E-3</v>
+      </c>
+      <c r="E102">
+        <v>8.9300000000000004E-3</v>
+      </c>
+      <c r="F102">
+        <v>1.248E-2</v>
+      </c>
+      <c r="G102">
+        <v>2.4979999999999999E-2</v>
+      </c>
+      <c r="H102">
+        <v>1.5970000000000002E-2</v>
+      </c>
+      <c r="I102">
+        <v>2.648E-2</v>
+      </c>
+      <c r="J102" t="b">
+        <v>0</v>
+      </c>
+      <c r="K102" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B103" s="2">
+        <v>0.51634999999999998</v>
+      </c>
+      <c r="C103" s="2">
+        <v>4.4299999999999999E-3</v>
+      </c>
+      <c r="D103" s="2">
+        <v>4.0899999999999999E-3</v>
+      </c>
+      <c r="E103" s="2">
+        <v>8.7899999999999992E-3</v>
+      </c>
+      <c r="F103" s="2">
+        <v>1.5910000000000001E-2</v>
+      </c>
+      <c r="G103" s="2">
+        <v>2.1700000000000001E-2</v>
+      </c>
+      <c r="H103" s="2">
+        <v>1.278E-2</v>
+      </c>
+      <c r="I103" s="2">
+        <v>1.132E-2</v>
+      </c>
+      <c r="J103" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K103" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>32</v>
+      </c>
+      <c r="B104">
+        <v>0.52895999999999999</v>
+      </c>
+      <c r="C104">
+        <v>8.8599999999999998E-3</v>
+      </c>
+      <c r="D104">
+        <v>9.3699999999999999E-3</v>
+      </c>
+      <c r="E104">
+        <v>8.2699999999999996E-3</v>
+      </c>
+      <c r="F104">
+        <v>1.4670000000000001E-2</v>
+      </c>
+      <c r="G104">
+        <v>3.074E-2</v>
+      </c>
+      <c r="H104">
+        <v>1.6760000000000001E-2</v>
+      </c>
+      <c r="I104">
+        <v>2.2870000000000001E-2</v>
+      </c>
+      <c r="J104" t="b">
+        <v>1</v>
+      </c>
+      <c r="K104" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>32</v>
+      </c>
+      <c r="B105">
+        <v>0.52922000000000002</v>
+      </c>
+      <c r="C105">
+        <v>1.124E-2</v>
+      </c>
+      <c r="D105">
+        <v>9.3699999999999999E-3</v>
+      </c>
+      <c r="E105">
+        <v>8.0999999999999996E-3</v>
+      </c>
+      <c r="F105">
+        <v>1.44E-2</v>
+      </c>
+      <c r="G105">
+        <v>3.074E-2</v>
+      </c>
+      <c r="H105">
+        <v>1.6670000000000001E-2</v>
+      </c>
+      <c r="I105">
+        <v>2.3560000000000001E-2</v>
+      </c>
+      <c r="J105" t="b">
+        <v>0</v>
+      </c>
+      <c r="K105" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>30</v>
+      </c>
+      <c r="B106">
+        <v>0.52563000000000004</v>
+      </c>
+      <c r="C106">
+        <v>5.45E-3</v>
+      </c>
+      <c r="D106">
+        <v>5.96E-3</v>
+      </c>
+      <c r="E106">
+        <v>8.0700000000000008E-3</v>
+      </c>
+      <c r="F106">
+        <v>1.519E-2</v>
+      </c>
+      <c r="G106">
+        <v>2.7230000000000001E-2</v>
+      </c>
+      <c r="H106">
+        <v>1.4500000000000001E-2</v>
+      </c>
+      <c r="I106">
+        <v>1.6379999999999999E-2</v>
+      </c>
+      <c r="J106" t="b">
+        <v>0</v>
+      </c>
+      <c r="K106" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>31</v>
+      </c>
+      <c r="B107">
+        <v>0.52976999999999996</v>
+      </c>
+      <c r="C107">
+        <v>7.1599999999999997E-3</v>
+      </c>
+      <c r="D107">
+        <v>9.8799999999999999E-3</v>
+      </c>
+      <c r="E107">
+        <v>7.9399999999999991E-3</v>
+      </c>
+      <c r="F107">
+        <v>9.6900000000000007E-3</v>
+      </c>
+      <c r="G107">
+        <v>2.9860000000000001E-2</v>
+      </c>
+      <c r="H107">
+        <v>1.61E-2</v>
+      </c>
+      <c r="I107">
+        <v>1.8370000000000001E-2</v>
+      </c>
+      <c r="J107" t="b">
+        <v>1</v>
+      </c>
+      <c r="K107" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>25</v>
+      </c>
+      <c r="B108">
+        <v>0.52464999999999995</v>
+      </c>
+      <c r="C108">
+        <v>6.8100000000000001E-3</v>
+      </c>
+      <c r="D108">
+        <v>7.6699999999999997E-3</v>
+      </c>
+      <c r="E108">
+        <v>7.79E-3</v>
+      </c>
+      <c r="F108">
+        <v>9.4699999999999993E-3</v>
+      </c>
+      <c r="G108">
+        <v>1.7909999999999999E-2</v>
+      </c>
+      <c r="H108">
+        <v>1.34E-2</v>
+      </c>
+      <c r="I108">
+        <v>2.205E-2</v>
+      </c>
+      <c r="J108" t="b">
+        <v>1</v>
+      </c>
+      <c r="K108" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B109" s="2">
+        <v>0.52907000000000004</v>
+      </c>
+      <c r="C109" s="2">
+        <v>8.8599999999999998E-3</v>
+      </c>
+      <c r="D109" s="2">
+        <v>9.3699999999999999E-3</v>
+      </c>
+      <c r="E109" s="2">
+        <v>7.1199999999999996E-3</v>
+      </c>
+      <c r="F109" s="2">
+        <v>1.0840000000000001E-2</v>
+      </c>
+      <c r="G109" s="2">
+        <v>3.074E-2</v>
+      </c>
+      <c r="H109" s="2">
+        <v>1.5610000000000001E-2</v>
+      </c>
+      <c r="I109" s="2">
+        <v>1.9449999999999999E-2</v>
+      </c>
+      <c r="J109" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K109" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>30</v>
+      </c>
+      <c r="B110">
+        <v>0.52237</v>
+      </c>
+      <c r="C110">
+        <v>4.4299999999999999E-3</v>
+      </c>
+      <c r="D110">
+        <v>6.13E-3</v>
+      </c>
+      <c r="E110">
+        <v>6.8399999999999997E-3</v>
+      </c>
+      <c r="F110">
+        <v>5.4900000000000001E-3</v>
+      </c>
+      <c r="G110">
+        <v>2.4819999999999998E-2</v>
+      </c>
+      <c r="H110">
+        <v>1.261E-2</v>
+      </c>
+      <c r="I110">
+        <v>1.7180000000000001E-2</v>
+      </c>
+      <c r="J110" t="b">
+        <v>1</v>
+      </c>
+      <c r="K110" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>29</v>
+      </c>
+      <c r="B111">
+        <v>0.52232999999999996</v>
+      </c>
+      <c r="C111">
+        <v>5.45E-3</v>
+      </c>
+      <c r="D111">
+        <v>6.13E-3</v>
+      </c>
+      <c r="E111">
+        <v>6.8100000000000001E-3</v>
+      </c>
+      <c r="F111">
+        <v>1.149E-2</v>
+      </c>
+      <c r="G111">
+        <v>2.4819999999999998E-2</v>
+      </c>
+      <c r="H111">
+        <v>1.2319999999999999E-2</v>
+      </c>
+      <c r="I111">
+        <v>1.2E-2</v>
+      </c>
+      <c r="J111" t="b">
+        <v>1</v>
+      </c>
+      <c r="K111" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>18</v>
+      </c>
+      <c r="B112">
+        <v>0.52546999999999999</v>
+      </c>
+      <c r="C112">
+        <v>5.45E-3</v>
+      </c>
+      <c r="D112">
+        <v>7.6699999999999997E-3</v>
+      </c>
+      <c r="E112">
+        <v>6.45E-3</v>
+      </c>
+      <c r="F112">
+        <v>8.2799999999999992E-3</v>
+      </c>
+      <c r="G112">
+        <v>2.546E-2</v>
+      </c>
+      <c r="H112">
+        <v>1.3520000000000001E-2</v>
+      </c>
+      <c r="I112">
+        <v>1.583E-2</v>
+      </c>
+      <c r="J112" t="b">
+        <v>1</v>
+      </c>
+      <c r="K112" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B113" s="2">
+        <v>0.51632</v>
+      </c>
+      <c r="C113" s="2">
+        <v>4.0899999999999999E-3</v>
+      </c>
+      <c r="D113" s="2">
+        <v>4.0899999999999999E-3</v>
+      </c>
+      <c r="E113" s="2">
+        <v>6.2700000000000004E-3</v>
+      </c>
+      <c r="F113" s="2">
+        <v>1.112E-2</v>
+      </c>
+      <c r="G113" s="2">
+        <v>2.1700000000000001E-2</v>
+      </c>
+      <c r="H113" s="2">
+        <v>1.085E-2</v>
+      </c>
+      <c r="I113" s="2">
+        <v>1.005E-2</v>
+      </c>
+      <c r="J113" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K113" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B114" s="2">
+        <v>0.51785000000000003</v>
+      </c>
+      <c r="C114" s="2">
+        <v>5.11E-3</v>
+      </c>
+      <c r="D114" s="2">
+        <v>4.4299999999999999E-3</v>
+      </c>
+      <c r="E114" s="2">
+        <v>5.8300000000000001E-3</v>
+      </c>
+      <c r="F114" s="2">
+        <v>7.1000000000000004E-3</v>
+      </c>
+      <c r="G114" s="2">
+        <v>1.864E-2</v>
+      </c>
+      <c r="H114" s="2">
+        <v>9.9900000000000006E-3</v>
+      </c>
+      <c r="I114" s="2">
+        <v>1.1849999999999999E-2</v>
+      </c>
+      <c r="J114" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K114" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>20</v>
+      </c>
+      <c r="B115">
+        <v>0.53242999999999996</v>
+      </c>
+      <c r="C115">
+        <v>5.45E-3</v>
+      </c>
+      <c r="D115">
+        <v>9.8799999999999999E-3</v>
+      </c>
+      <c r="E115">
+        <v>5.7400000000000003E-3</v>
+      </c>
+      <c r="F115">
+        <v>4.1399999999999996E-3</v>
+      </c>
+      <c r="G115">
+        <v>3.4840000000000003E-2</v>
+      </c>
+      <c r="H115">
+        <v>1.515E-2</v>
+      </c>
+      <c r="I115">
+        <v>1.6799999999999999E-2</v>
+      </c>
+      <c r="J115" t="b">
+        <v>1</v>
+      </c>
+      <c r="K115" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B116" s="2">
+        <v>0.51775000000000004</v>
+      </c>
+      <c r="C116" s="2">
+        <v>3.0699999999999998E-3</v>
+      </c>
+      <c r="D116" s="2">
+        <v>4.4299999999999999E-3</v>
+      </c>
+      <c r="E116" s="2">
+        <v>5.2500000000000003E-3</v>
+      </c>
+      <c r="F116" s="2">
+        <v>7.3699999999999998E-3</v>
+      </c>
+      <c r="G116" s="2">
+        <v>1.864E-2</v>
+      </c>
+      <c r="H116" s="2">
+        <v>9.3699999999999999E-3</v>
+      </c>
+      <c r="I116" s="2">
+        <v>1.0030000000000001E-2</v>
+      </c>
+      <c r="J116" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K116" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>26</v>
+      </c>
+      <c r="B117">
+        <v>0.52442</v>
+      </c>
+      <c r="C117">
+        <v>7.8399999999999997E-3</v>
+      </c>
+      <c r="D117">
+        <v>7.6699999999999997E-3</v>
+      </c>
+      <c r="E117">
+        <v>5.0400000000000002E-3</v>
+      </c>
+      <c r="F117">
+        <v>1.017E-2</v>
+      </c>
+      <c r="G117">
+        <v>1.7909999999999999E-2</v>
+      </c>
+      <c r="H117">
+        <v>1.072E-2</v>
+      </c>
+      <c r="I117">
+        <v>1.474E-2</v>
+      </c>
+      <c r="J117" t="b">
+        <v>1</v>
+      </c>
+      <c r="K117" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>17</v>
+      </c>
+      <c r="B118">
+        <v>0.52495999999999998</v>
+      </c>
+      <c r="C118">
+        <v>8.8599999999999998E-3</v>
+      </c>
+      <c r="D118">
+        <v>6.9800000000000001E-3</v>
+      </c>
+      <c r="E118">
+        <v>5.0099999999999997E-3</v>
+      </c>
+      <c r="F118">
+        <v>1.285E-2</v>
+      </c>
+      <c r="G118">
+        <v>1.8859999999999998E-2</v>
+      </c>
+      <c r="H118">
+        <v>1.1480000000000001E-2</v>
+      </c>
+      <c r="I118">
+        <v>1.6310000000000002E-2</v>
+      </c>
+      <c r="J118" t="b">
+        <v>1</v>
+      </c>
+      <c r="K118" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>25</v>
+      </c>
+      <c r="B119">
+        <v>0.52312000000000003</v>
+      </c>
+      <c r="C119">
+        <v>6.13E-3</v>
+      </c>
+      <c r="D119">
+        <v>6.6400000000000001E-3</v>
+      </c>
+      <c r="E119">
+        <v>4.96E-3</v>
+      </c>
+      <c r="F119">
+        <v>9.5200000000000007E-3</v>
+      </c>
+      <c r="G119">
+        <v>1.899E-2</v>
+      </c>
+      <c r="H119">
+        <v>1.0970000000000001E-2</v>
+      </c>
+      <c r="I119">
+        <v>1.6719999999999999E-2</v>
+      </c>
+      <c r="J119" t="b">
+        <v>0</v>
+      </c>
+      <c r="K119" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>34</v>
+      </c>
+      <c r="B120">
+        <v>0.52173999999999998</v>
+      </c>
+      <c r="C120">
+        <v>5.11E-3</v>
+      </c>
+      <c r="D120">
+        <v>5.62E-3</v>
+      </c>
+      <c r="E120">
+        <v>4.9199999999999999E-3</v>
+      </c>
+      <c r="F120">
+        <v>8.7299999999999999E-3</v>
+      </c>
+      <c r="G120">
+        <v>1.8079999999999999E-2</v>
+      </c>
+      <c r="H120">
+        <v>9.8499999999999994E-3</v>
+      </c>
+      <c r="I120">
+        <v>1.159E-2</v>
+      </c>
+      <c r="J120" t="b">
+        <v>0</v>
+      </c>
+      <c r="K120" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>26</v>
+      </c>
+      <c r="B121">
+        <v>0.52300999999999997</v>
+      </c>
+      <c r="C121">
+        <v>5.11E-3</v>
+      </c>
+      <c r="D121">
+        <v>6.6400000000000001E-3</v>
+      </c>
+      <c r="E121">
+        <v>4.8999999999999998E-3</v>
+      </c>
+      <c r="F121">
+        <v>8.43E-3</v>
+      </c>
+      <c r="G121">
+        <v>1.899E-2</v>
+      </c>
+      <c r="H121">
+        <v>1.0670000000000001E-2</v>
+      </c>
+      <c r="I121">
+        <v>1.538E-2</v>
+      </c>
+      <c r="J121" t="b">
+        <v>0</v>
+      </c>
+      <c r="K121" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>17</v>
+      </c>
+      <c r="B122">
+        <v>0.52344999999999997</v>
+      </c>
+      <c r="C122">
+        <v>4.7699999999999999E-3</v>
+      </c>
+      <c r="D122">
+        <v>6.3E-3</v>
+      </c>
+      <c r="E122">
+        <v>4.0400000000000002E-3</v>
+      </c>
+      <c r="F122">
+        <v>6.5799999999999999E-3</v>
+      </c>
+      <c r="G122">
+        <v>1.821E-2</v>
+      </c>
+      <c r="H122">
+        <v>9.9699999999999997E-3</v>
+      </c>
+      <c r="I122">
+        <v>1.4109999999999999E-2</v>
+      </c>
+      <c r="J122" t="b">
+        <v>0</v>
+      </c>
+      <c r="K122" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>23</v>
+      </c>
+      <c r="B123">
+        <v>0.51441999999999999</v>
+      </c>
+      <c r="C123">
+        <v>2.0400000000000001E-3</v>
+      </c>
+      <c r="D123">
+        <v>3.9199999999999999E-3</v>
+      </c>
+      <c r="E123">
+        <v>2.5899999999999999E-3</v>
+      </c>
+      <c r="F123">
+        <v>4.6899999999999997E-3</v>
+      </c>
+      <c r="G123">
+        <v>1.4880000000000001E-2</v>
+      </c>
+      <c r="H123">
+        <v>6.4700000000000001E-3</v>
+      </c>
+      <c r="I123">
+        <v>6.5900000000000004E-3</v>
+      </c>
+      <c r="J123" t="b">
+        <v>0</v>
+      </c>
+      <c r="K123" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>34</v>
+      </c>
+      <c r="B124">
+        <v>0.5151</v>
+      </c>
+      <c r="C124">
+        <v>4.7699999999999999E-3</v>
+      </c>
+      <c r="D124">
+        <v>5.28E-3</v>
+      </c>
+      <c r="E124">
+        <v>2.5799999999999998E-3</v>
+      </c>
+      <c r="F124">
+        <v>4.4200000000000003E-3</v>
+      </c>
+      <c r="G124">
+        <v>1.1639999999999999E-2</v>
+      </c>
+      <c r="H124">
+        <v>6.4999999999999997E-3</v>
+      </c>
+      <c r="I124">
+        <v>1.039E-2</v>
+      </c>
+      <c r="J124" t="b">
+        <v>1</v>
+      </c>
+      <c r="K124" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>23</v>
+      </c>
+      <c r="B125">
+        <v>0.51349</v>
+      </c>
+      <c r="C125">
+        <v>3.0699999999999998E-3</v>
+      </c>
+      <c r="D125">
+        <v>3.5799999999999998E-3</v>
+      </c>
+      <c r="E125">
+        <v>1.74E-3</v>
+      </c>
+      <c r="F125">
+        <v>4.0099999999999997E-3</v>
+      </c>
+      <c r="G125">
+        <v>9.9000000000000008E-3</v>
+      </c>
+      <c r="H125">
+        <v>4.8399999999999997E-3</v>
+      </c>
+      <c r="I125">
+        <v>5.5599999999999998E-3</v>
+      </c>
+      <c r="J125" t="b">
+        <v>1</v>
+      </c>
+      <c r="K125" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:K125" xr:uid="{13B00A42-D31A-491F-8AC3-56AC7B71C916}">
+    <filterColumn colId="9">
+      <filters>
+        <filter val="FALSE"/>
+      </filters>
+    </filterColumn>
+    <sortState ref="A2:K123">
+      <sortCondition descending="1" ref="E1:E125"/>
+    </sortState>
+  </autoFilter>
+  <sortState ref="A2:K125">
+    <sortCondition descending="1" ref="E1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ABA75AE-08C7-4449-A2D8-F8839BB90EA2}">
   <dimension ref="A1:K63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
